--- a/CCCS MEDIUM - Assessors Workbook - Local Assessment.xlsx
+++ b/CCCS MEDIUM - Assessors Workbook - Local Assessment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24911"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datrudel\Documents\CSPS\NGLP\Service Provider - D2L\Process\Gate 2 - Post-kickoff and Assessment\Assessor Workbook Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\gcdigital-tools_outils-numeriquesgc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D8128DD-1B47-448A-B06B-BBC8EC60DBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F753BF-47FF-46CE-B58C-151C25421664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="24840" windowHeight="16176" tabRatio="865" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1410" windowWidth="29040" windowHeight="16440" tabRatio="865" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions " sheetId="49" r:id="rId1"/>
@@ -55,6 +55,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">SA!$A$5:$S$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">SC!$A$5:$S$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">SI!$A$5:$S$5</definedName>
+    <definedName name="SC8_DECISION">SC!$M$20</definedName>
+    <definedName name="SC8_N">SC!$N$20</definedName>
+    <definedName name="SC8_O">SC!$O$20</definedName>
+    <definedName name="SC8_P">SC!$P$20</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -8176,9 +8180,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8682,7 +8686,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -9031,7 +9035,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9900,32 +9904,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F57087-9D6C-4178-9041-B045286AF3DB}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="145"/>
     <col min="2" max="16384" width="9" style="143"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="125" customFormat="1">
+    <row r="1" spans="1:17" s="125" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="124" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="127" customFormat="1" ht="20.45">
+    <row r="2" spans="1:17" s="127" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="126" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="130" customFormat="1" ht="30" customHeight="1">
+    <row r="3" spans="1:17" s="130" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="128" t="s">
         <v>2</v>
       </c>
@@ -9946,7 +9950,7 @@
       <c r="P3" s="129"/>
       <c r="Q3" s="129"/>
     </row>
-    <row r="4" spans="1:17" s="132" customFormat="1" ht="15">
+    <row r="4" spans="1:17" s="132" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="131" t="s">
         <v>3</v>
       </c>
@@ -9954,7 +9958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="132" customFormat="1" ht="15">
+    <row r="5" spans="1:17" s="132" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="131" t="s">
         <v>5</v>
       </c>
@@ -9962,10 +9966,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="127" customFormat="1" ht="20.45">
+    <row r="6" spans="1:17" s="127" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="126"/>
     </row>
-    <row r="7" spans="1:17" s="130" customFormat="1" ht="30" customHeight="1">
+    <row r="7" spans="1:17" s="130" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="128" t="s">
         <v>7</v>
       </c>
@@ -9986,7 +9990,7 @@
       <c r="P7" s="129"/>
       <c r="Q7" s="129"/>
     </row>
-    <row r="8" spans="1:17" s="135" customFormat="1" ht="54.95" customHeight="1">
+    <row r="8" spans="1:17" s="135" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="134" t="s">
         <v>8</v>
       </c>
@@ -10009,17 +10013,17 @@
       <c r="P8" s="212"/>
       <c r="Q8" s="212"/>
     </row>
-    <row r="9" spans="1:17" s="132" customFormat="1" ht="17.649999999999999" customHeight="1">
+    <row r="9" spans="1:17" s="132" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="136"/>
       <c r="B9" s="137" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="132" customFormat="1" ht="17.649999999999999" customHeight="1">
+    <row r="10" spans="1:17" s="132" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="136"/>
       <c r="B10" s="137"/>
     </row>
-    <row r="11" spans="1:17" s="132" customFormat="1" ht="17.649999999999999" customHeight="1">
+    <row r="11" spans="1:17" s="132" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="136" t="s">
         <v>11</v>
       </c>
@@ -10027,11 +10031,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="132" customFormat="1" ht="15.6">
+    <row r="12" spans="1:17" s="132" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="136"/>
       <c r="B12" s="137"/>
     </row>
-    <row r="13" spans="1:17" s="135" customFormat="1" ht="30" customHeight="1">
+    <row r="13" spans="1:17" s="135" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="134" t="s">
         <v>5</v>
       </c>
@@ -10054,7 +10058,7 @@
       <c r="P13" s="210"/>
       <c r="Q13" s="210"/>
     </row>
-    <row r="14" spans="1:17" s="132" customFormat="1" ht="30" customHeight="1">
+    <row r="14" spans="1:17" s="132" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="138"/>
       <c r="B14" s="211"/>
       <c r="C14" s="211"/>
@@ -10073,7 +10077,7 @@
       <c r="P14" s="211"/>
       <c r="Q14" s="211"/>
     </row>
-    <row r="15" spans="1:17" s="132" customFormat="1" ht="30" customHeight="1">
+    <row r="15" spans="1:17" s="132" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="138" t="s">
         <v>14</v>
       </c>
@@ -10096,7 +10100,7 @@
       <c r="P15" s="211"/>
       <c r="Q15" s="211"/>
     </row>
-    <row r="16" spans="1:17" s="140" customFormat="1" ht="30" customHeight="1">
+    <row r="16" spans="1:17" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="139"/>
       <c r="B16" s="213"/>
       <c r="C16" s="213"/>
@@ -10115,7 +10119,7 @@
       <c r="P16" s="213"/>
       <c r="Q16" s="213"/>
     </row>
-    <row r="17" spans="1:17" s="130" customFormat="1" ht="30" customHeight="1">
+    <row r="17" spans="1:17" s="130" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="128" t="s">
         <v>16</v>
       </c>
@@ -10136,7 +10140,7 @@
       <c r="P17" s="129"/>
       <c r="Q17" s="129"/>
     </row>
-    <row r="18" spans="1:17" s="135" customFormat="1" ht="15">
+    <row r="18" spans="1:17" s="135" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="134" t="s">
         <v>3</v>
       </c>
@@ -10159,7 +10163,7 @@
       <c r="P18" s="210"/>
       <c r="Q18" s="210"/>
     </row>
-    <row r="19" spans="1:17" s="132" customFormat="1" ht="44.25" customHeight="1">
+    <row r="19" spans="1:17" s="132" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="136"/>
       <c r="B19" s="213"/>
       <c r="C19" s="213"/>
@@ -10178,7 +10182,7 @@
       <c r="P19" s="213"/>
       <c r="Q19" s="213"/>
     </row>
-    <row r="20" spans="1:17" s="135" customFormat="1" ht="16.5" customHeight="1">
+    <row r="20" spans="1:17" s="135" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="134" t="s">
         <v>5</v>
       </c>
@@ -10201,7 +10205,7 @@
       <c r="P20" s="210"/>
       <c r="Q20" s="210"/>
     </row>
-    <row r="21" spans="1:17" s="132" customFormat="1" ht="15.75" customHeight="1">
+    <row r="21" spans="1:17" s="132" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="141"/>
       <c r="B21" s="213"/>
       <c r="C21" s="213"/>
@@ -10220,7 +10224,7 @@
       <c r="P21" s="213"/>
       <c r="Q21" s="213"/>
     </row>
-    <row r="22" spans="1:17" s="135" customFormat="1" ht="39" customHeight="1">
+    <row r="22" spans="1:17" s="135" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="134" t="s">
         <v>19</v>
       </c>
@@ -10243,7 +10247,7 @@
       <c r="P22" s="210"/>
       <c r="Q22" s="210"/>
     </row>
-    <row r="23" spans="1:17" s="132" customFormat="1" ht="68.25" customHeight="1">
+    <row r="23" spans="1:17" s="132" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="136"/>
       <c r="B23" s="213"/>
       <c r="C23" s="213"/>
@@ -10262,7 +10266,7 @@
       <c r="P23" s="213"/>
       <c r="Q23" s="213"/>
     </row>
-    <row r="24" spans="1:17" s="135" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="24" spans="1:17" s="135" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="134" t="s">
         <v>21</v>
       </c>
@@ -10285,7 +10289,7 @@
       <c r="P24" s="210"/>
       <c r="Q24" s="210"/>
     </row>
-    <row r="25" spans="1:17" s="132" customFormat="1" ht="15">
+    <row r="25" spans="1:17" s="132" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="138"/>
       <c r="B25" s="211"/>
       <c r="C25" s="211"/>
@@ -10304,52 +10308,52 @@
       <c r="P25" s="211"/>
       <c r="Q25" s="211"/>
     </row>
-    <row r="26" spans="1:17" s="132" customFormat="1" ht="15">
+    <row r="26" spans="1:17" s="132" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="136"/>
     </row>
-    <row r="27" spans="1:17" s="132" customFormat="1" ht="15">
+    <row r="27" spans="1:17" s="132" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="136"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="142"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="144"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="144"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="144"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="144"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="144"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="144"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="144"/>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="144"/>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="144"/>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="144"/>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="144"/>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="144"/>
     </row>
-    <row r="54" spans="2:6">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B54" s="143" t="s">
         <v>23</v>
       </c>
@@ -10357,7 +10361,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="2:6">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B55" s="143" t="s">
         <v>25</v>
       </c>
@@ -10365,7 +10369,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="2:6">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B56" s="143" t="s">
         <v>27</v>
       </c>
@@ -10373,7 +10377,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="2:6">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B57" s="143" t="s">
         <v>28</v>
       </c>
@@ -10395,16 +10399,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16345ECF-816F-41CE-A7B3-D0D98C952B57}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
       <selection pane="bottomRight" activeCell="M25" sqref="M25"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="15.7109375" style="15" customWidth="1"/>
@@ -10427,7 +10432,7 @@
     <col min="21" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="32" customFormat="1" ht="15.6">
+    <row r="1" spans="1:20" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="195" t="s">
         <v>1752</v>
       </c>
@@ -10453,7 +10458,7 @@
       <c r="S1" s="251"/>
       <c r="T1" s="252"/>
     </row>
-    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.6">
+    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="102"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -10485,7 +10490,7 @@
       <c r="S2" s="244"/>
       <c r="T2" s="245"/>
     </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="79.150000000000006">
+    <row r="3" spans="1:20" s="11" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>113</v>
       </c>
@@ -10547,7 +10552,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="13.15">
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -10587,7 +10592,7 @@
       <c r="S4" s="48"/>
       <c r="T4" s="47"/>
     </row>
-    <row r="5" spans="1:20" s="11" customFormat="1" ht="13.15">
+    <row r="5" spans="1:20" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -10609,7 +10614,7 @@
       <c r="S5" s="48"/>
       <c r="T5" s="47"/>
     </row>
-    <row r="6" spans="1:20" ht="126.75" customHeight="1">
+    <row r="6" spans="1:20" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="100" t="s">
         <v>484</v>
       </c>
@@ -10651,7 +10656,7 @@
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
     </row>
-    <row r="7" spans="1:20" ht="247.5" customHeight="1">
+    <row r="7" spans="1:20" ht="247.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>489</v>
       </c>
@@ -10695,7 +10700,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:20" ht="61.15">
+    <row r="8" spans="1:20" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>494</v>
       </c>
@@ -10737,7 +10742,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:20" ht="102">
+    <row r="9" spans="1:20" ht="123.75" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>498</v>
       </c>
@@ -10779,7 +10784,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="1:20" ht="30.6">
+    <row r="10" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>502</v>
       </c>
@@ -10821,7 +10826,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:20" ht="142.9">
+    <row r="11" spans="1:20" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>506</v>
       </c>
@@ -10865,7 +10870,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:20" ht="163.15">
+    <row r="12" spans="1:20" ht="180" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>510</v>
       </c>
@@ -10907,7 +10912,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" spans="1:20" ht="81.599999999999994">
+    <row r="13" spans="1:20" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>515</v>
       </c>
@@ -10949,7 +10954,7 @@
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
     </row>
-    <row r="14" spans="1:20" ht="51">
+    <row r="14" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>519</v>
       </c>
@@ -10993,7 +10998,7 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:20" ht="122.45">
+    <row r="15" spans="1:20" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>523</v>
       </c>
@@ -11035,7 +11040,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="1:20" ht="122.45">
+    <row r="16" spans="1:20" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>527</v>
       </c>
@@ -11077,7 +11082,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="1:20" ht="51">
+    <row r="17" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>532</v>
       </c>
@@ -11119,7 +11124,7 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
-    <row r="18" spans="1:20" ht="71.45">
+    <row r="18" spans="1:20" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>536</v>
       </c>
@@ -11161,7 +11166,7 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
     </row>
-    <row r="19" spans="1:20" ht="30.6">
+    <row r="19" spans="1:20" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>540</v>
       </c>
@@ -11203,7 +11208,7 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
     </row>
-    <row r="20" spans="1:20" ht="265.14999999999998">
+    <row r="20" spans="1:20" ht="326.25" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>544</v>
       </c>
@@ -11245,7 +11250,7 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
-    <row r="21" spans="1:20" ht="51">
+    <row r="21" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>549</v>
       </c>
@@ -11287,7 +11292,7 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
-    <row r="22" spans="1:20" ht="40.9">
+    <row r="22" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>553</v>
       </c>
@@ -11329,7 +11334,7 @@
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
     </row>
-    <row r="23" spans="1:20" ht="163.15">
+    <row r="23" spans="1:20" ht="202.5" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>557</v>
       </c>
@@ -11371,7 +11376,7 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
     </row>
-    <row r="24" spans="1:20" ht="51">
+    <row r="24" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>561</v>
       </c>
@@ -11413,7 +11418,7 @@
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
     </row>
-    <row r="25" spans="1:20" ht="71.45">
+    <row r="25" spans="1:20" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>565</v>
       </c>
@@ -11457,7 +11462,7 @@
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
     </row>
-    <row r="26" spans="1:20" ht="122.45">
+    <row r="26" spans="1:20" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>569</v>
       </c>
@@ -11499,7 +11504,7 @@
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
-    <row r="27" spans="1:20" ht="51">
+    <row r="27" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>574</v>
       </c>
@@ -11539,7 +11544,7 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
-    <row r="28" spans="1:20" ht="71.45">
+    <row r="28" spans="1:20" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>577</v>
       </c>
@@ -11581,7 +11586,7 @@
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
     </row>
-    <row r="29" spans="1:20" ht="91.9">
+    <row r="29" spans="1:20" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>581</v>
       </c>
@@ -11623,7 +11628,7 @@
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
     </row>
-    <row r="30" spans="1:20" ht="51">
+    <row r="30" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>585</v>
       </c>
@@ -11665,7 +11670,7 @@
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
     </row>
-    <row r="31" spans="1:20" ht="204">
+    <row r="31" spans="1:20" ht="258.75" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>589</v>
       </c>
@@ -11707,7 +11712,7 @@
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
     </row>
-    <row r="32" spans="1:20" ht="71.45">
+    <row r="32" spans="1:20" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>594</v>
       </c>
@@ -11751,7 +11756,7 @@
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
-    <row r="33" spans="1:20" ht="71.45">
+    <row r="33" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>599</v>
       </c>
@@ -11795,7 +11800,7 @@
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
     </row>
-    <row r="34" spans="1:20" ht="122.45">
+    <row r="34" spans="1:20" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>603</v>
       </c>
@@ -11853,16 +11858,17 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FA89E6-26CB-4A56-835A-59D1382BCCE8}">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
       <selection pane="bottomRight" activeCell="I53" sqref="I53"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="15" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="15" customWidth="1"/>
@@ -11886,7 +11892,7 @@
     <col min="22" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="32" customFormat="1" ht="15.6">
+    <row r="1" spans="1:20" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="108" t="s">
         <v>1783</v>
       </c>
@@ -11912,7 +11918,7 @@
       <c r="S1" s="251"/>
       <c r="T1" s="252"/>
     </row>
-    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.6">
+    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="49"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -11944,7 +11950,7 @@
       <c r="S2" s="244"/>
       <c r="T2" s="245"/>
     </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="79.150000000000006">
+    <row r="3" spans="1:20" s="11" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>113</v>
       </c>
@@ -12006,7 +12012,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="13.15">
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -12046,7 +12052,7 @@
       <c r="S4" s="48"/>
       <c r="T4" s="47"/>
     </row>
-    <row r="5" spans="1:20" s="11" customFormat="1" ht="13.15">
+    <row r="5" spans="1:20" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -12068,7 +12074,7 @@
       <c r="S5" s="48"/>
       <c r="T5" s="47"/>
     </row>
-    <row r="6" spans="1:20" ht="132.6">
+    <row r="6" spans="1:20" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>608</v>
       </c>
@@ -12112,7 +12118,7 @@
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
     </row>
-    <row r="7" spans="1:20" ht="360" customHeight="1">
+    <row r="7" spans="1:20" ht="360" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>612</v>
       </c>
@@ -12156,7 +12162,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:20" ht="102">
+    <row r="8" spans="1:20" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>617</v>
       </c>
@@ -12200,7 +12206,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:20" ht="51">
+    <row r="9" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>621</v>
       </c>
@@ -12244,7 +12250,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="1:20" ht="61.15">
+    <row r="10" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>625</v>
       </c>
@@ -12288,7 +12294,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:20" ht="51">
+    <row r="11" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>629</v>
       </c>
@@ -12326,7 +12332,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:20" ht="61.15">
+    <row r="12" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>633</v>
       </c>
@@ -12364,7 +12370,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" spans="1:20" ht="71.45">
+    <row r="13" spans="1:20" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>637</v>
       </c>
@@ -12402,7 +12408,7 @@
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
     </row>
-    <row r="14" spans="1:20" ht="132.6">
+    <row r="14" spans="1:20" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>640</v>
       </c>
@@ -12446,7 +12452,7 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:20" ht="102">
+    <row r="15" spans="1:20" ht="123.75" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>644</v>
       </c>
@@ -12492,7 +12498,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="1:20" ht="81.599999999999994">
+    <row r="16" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>648</v>
       </c>
@@ -12538,7 +12544,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="1:20" ht="91.9">
+    <row r="17" spans="1:20" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>653</v>
       </c>
@@ -12582,7 +12588,7 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
-    <row r="18" spans="1:20" ht="71.45">
+    <row r="18" spans="1:20" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>657</v>
       </c>
@@ -12620,7 +12626,7 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
     </row>
-    <row r="19" spans="1:20" ht="81.599999999999994">
+    <row r="19" spans="1:20" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>661</v>
       </c>
@@ -12664,7 +12670,7 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
     </row>
-    <row r="20" spans="1:20" ht="61.15">
+    <row r="20" spans="1:20" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>666</v>
       </c>
@@ -12708,7 +12714,7 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
-    <row r="21" spans="1:20" ht="51">
+    <row r="21" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>670</v>
       </c>
@@ -12744,7 +12750,7 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
-    <row r="22" spans="1:20" ht="61.15">
+    <row r="22" spans="1:20" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>673</v>
       </c>
@@ -12788,7 +12794,7 @@
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
     </row>
-    <row r="23" spans="1:20" ht="122.45">
+    <row r="23" spans="1:20" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>677</v>
       </c>
@@ -12832,7 +12838,7 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
     </row>
-    <row r="24" spans="1:20" ht="61.15">
+    <row r="24" spans="1:20" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>682</v>
       </c>
@@ -12876,7 +12882,7 @@
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
     </row>
-    <row r="25" spans="1:20" ht="40.9">
+    <row r="25" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>686</v>
       </c>
@@ -12920,7 +12926,7 @@
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
     </row>
-    <row r="26" spans="1:20" ht="40.9">
+    <row r="26" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>690</v>
       </c>
@@ -12964,7 +12970,7 @@
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
-    <row r="27" spans="1:20" ht="40.9">
+    <row r="27" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>694</v>
       </c>
@@ -13002,7 +13008,7 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
-    <row r="28" spans="1:20" ht="81.599999999999994">
+    <row r="28" spans="1:20" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>698</v>
       </c>
@@ -13046,7 +13052,7 @@
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
     </row>
-    <row r="29" spans="1:20" ht="102">
+    <row r="29" spans="1:20" ht="123.75" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>703</v>
       </c>
@@ -13090,7 +13096,7 @@
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
     </row>
-    <row r="30" spans="1:20" ht="40.9">
+    <row r="30" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>707</v>
       </c>
@@ -13132,7 +13138,7 @@
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
     </row>
-    <row r="31" spans="1:20" ht="81.599999999999994">
+    <row r="31" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>710</v>
       </c>
@@ -13168,7 +13174,7 @@
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
     </row>
-    <row r="32" spans="1:20" ht="51">
+    <row r="32" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>714</v>
       </c>
@@ -13204,7 +13210,7 @@
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
-    <row r="33" spans="1:20" ht="112.15">
+    <row r="33" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>717</v>
       </c>
@@ -13248,7 +13254,7 @@
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
     </row>
-    <row r="34" spans="1:20" ht="51">
+    <row r="34" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>721</v>
       </c>
@@ -13292,7 +13298,7 @@
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
     </row>
-    <row r="35" spans="1:20" ht="51">
+    <row r="35" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>725</v>
       </c>
@@ -13330,7 +13336,7 @@
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
     </row>
-    <row r="36" spans="1:20" ht="51">
+    <row r="36" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>728</v>
       </c>
@@ -13374,7 +13380,7 @@
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
     </row>
-    <row r="37" spans="1:20" ht="51">
+    <row r="37" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>732</v>
       </c>
@@ -13414,7 +13420,7 @@
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
     </row>
-    <row r="38" spans="1:20" ht="51">
+    <row r="38" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>736</v>
       </c>
@@ -13452,7 +13458,7 @@
       <c r="S38" s="14"/>
       <c r="T38" s="14"/>
     </row>
-    <row r="39" spans="1:20" ht="122.45">
+    <row r="39" spans="1:20" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>740</v>
       </c>
@@ -13498,7 +13504,7 @@
       <c r="S39" s="14"/>
       <c r="T39" s="14"/>
     </row>
-    <row r="40" spans="1:20" ht="61.15">
+    <row r="40" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>744</v>
       </c>
@@ -13542,7 +13548,7 @@
       <c r="S40" s="14"/>
       <c r="T40" s="14"/>
     </row>
-    <row r="41" spans="1:20" ht="61.15">
+    <row r="41" spans="1:20" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>748</v>
       </c>
@@ -13580,7 +13586,7 @@
       <c r="S41" s="14"/>
       <c r="T41" s="14"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F42" s="205"/>
       <c r="G42" s="29"/>
     </row>
@@ -13602,16 +13608,17 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA03C7F-5BF7-4DAB-9DF2-2D4079C7A93F}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
       <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="41.5703125" customWidth="1"/>
@@ -13632,7 +13639,7 @@
     <col min="20" max="20" width="68.5703125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="32" customFormat="1" ht="15.6">
+    <row r="1" spans="1:20" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="195" t="s">
         <v>1821</v>
       </c>
@@ -13658,7 +13665,7 @@
       <c r="S1" s="251"/>
       <c r="T1" s="252"/>
     </row>
-    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.6">
+    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="49"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -13690,7 +13697,7 @@
       <c r="S2" s="244"/>
       <c r="T2" s="245"/>
     </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="79.150000000000006">
+    <row r="3" spans="1:20" s="11" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>113</v>
       </c>
@@ -13752,7 +13759,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="13.15">
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -13792,7 +13799,7 @@
       <c r="S4" s="48"/>
       <c r="T4" s="47"/>
     </row>
-    <row r="5" spans="1:20" s="11" customFormat="1" ht="13.15">
+    <row r="5" spans="1:20" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -13814,7 +13821,7 @@
       <c r="S5" s="48"/>
       <c r="T5" s="47"/>
     </row>
-    <row r="6" spans="1:20" s="15" customFormat="1" ht="142.9">
+    <row r="6" spans="1:20" s="15" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>752</v>
       </c>
@@ -13858,7 +13865,7 @@
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
     </row>
-    <row r="7" spans="1:20" s="15" customFormat="1" ht="382.5" customHeight="1">
+    <row r="7" spans="1:20" s="15" customFormat="1" ht="382.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>757</v>
       </c>
@@ -13900,7 +13907,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:20" s="15" customFormat="1" ht="51">
+    <row r="8" spans="1:20" s="15" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>762</v>
       </c>
@@ -13942,7 +13949,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:20" s="15" customFormat="1" ht="51">
+    <row r="9" spans="1:20" s="15" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>765</v>
       </c>
@@ -13984,7 +13991,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="1:20" s="15" customFormat="1" ht="81.599999999999994">
+    <row r="10" spans="1:20" s="15" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="109" t="s">
         <v>768</v>
       </c>
@@ -14024,7 +14031,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:20" s="15" customFormat="1" ht="61.15">
+    <row r="11" spans="1:20" s="15" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>771</v>
       </c>
@@ -14066,7 +14073,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:20" s="15" customFormat="1" ht="71.45">
+    <row r="12" spans="1:20" s="15" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>775</v>
       </c>
@@ -14108,7 +14115,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" spans="1:20" s="15" customFormat="1" ht="112.15">
+    <row r="13" spans="1:20" s="15" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>779</v>
       </c>
@@ -14150,7 +14157,7 @@
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
     </row>
-    <row r="14" spans="1:20" s="15" customFormat="1" ht="240" customHeight="1">
+    <row r="14" spans="1:20" s="15" customFormat="1" ht="240" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>784</v>
       </c>
@@ -14194,7 +14201,7 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:20" s="15" customFormat="1" ht="240" customHeight="1">
+    <row r="15" spans="1:20" s="15" customFormat="1" ht="240" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>789</v>
       </c>
@@ -14232,7 +14239,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="1:20" s="15" customFormat="1" ht="240" customHeight="1">
+    <row r="16" spans="1:20" s="15" customFormat="1" ht="240" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>792</v>
       </c>
@@ -14272,7 +14279,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="1:20" s="15" customFormat="1" ht="51">
+    <row r="17" spans="1:20" s="15" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>796</v>
       </c>
@@ -14316,7 +14323,7 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
-    <row r="18" spans="1:20" s="15" customFormat="1" ht="357">
+    <row r="18" spans="1:20" s="15" customFormat="1" ht="405" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>800</v>
       </c>
@@ -14360,7 +14367,7 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
     </row>
-    <row r="19" spans="1:20" s="15" customFormat="1" ht="244.9">
+    <row r="19" spans="1:20" s="15" customFormat="1" ht="292.5" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>805</v>
       </c>
@@ -14402,7 +14409,7 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
     </row>
-    <row r="20" spans="1:20" s="15" customFormat="1" ht="153">
+    <row r="20" spans="1:20" s="15" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>809</v>
       </c>
@@ -14444,7 +14451,7 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
-    <row r="21" spans="1:20" s="15" customFormat="1" ht="61.15">
+    <row r="21" spans="1:20" s="15" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>813</v>
       </c>
@@ -14486,7 +14493,7 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
-    <row r="22" spans="1:20" s="15" customFormat="1" ht="61.15">
+    <row r="22" spans="1:20" s="15" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>816</v>
       </c>
@@ -14530,7 +14537,7 @@
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
     </row>
-    <row r="23" spans="1:20" s="15" customFormat="1" ht="51">
+    <row r="23" spans="1:20" s="15" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>820</v>
       </c>
@@ -14574,7 +14581,7 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
     </row>
-    <row r="24" spans="1:20" s="15" customFormat="1" ht="51">
+    <row r="24" spans="1:20" s="15" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>824</v>
       </c>
@@ -14618,7 +14625,7 @@
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
     </row>
-    <row r="25" spans="1:20" s="113" customFormat="1" ht="61.15">
+    <row r="25" spans="1:20" s="113" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>828</v>
       </c>
@@ -14656,7 +14663,7 @@
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
     </row>
-    <row r="26" spans="1:20" s="15" customFormat="1" ht="51">
+    <row r="26" spans="1:20" s="15" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>832</v>
       </c>
@@ -14698,7 +14705,7 @@
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
-    <row r="27" spans="1:20" s="15" customFormat="1" ht="112.15">
+    <row r="27" spans="1:20" s="15" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>836</v>
       </c>
@@ -14740,7 +14747,7 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
-    <row r="28" spans="1:20" s="15" customFormat="1" ht="40.9">
+    <row r="28" spans="1:20" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>841</v>
       </c>
@@ -14782,7 +14789,7 @@
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
     </row>
-    <row r="29" spans="1:20" s="15" customFormat="1" ht="112.15">
+    <row r="29" spans="1:20" s="15" customFormat="1" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>846</v>
       </c>
@@ -14824,10 +14831,10 @@
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F30" s="199"/>
     </row>
-    <row r="35" spans="1:20" s="114" customFormat="1">
+    <row r="35" spans="1:20" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -14844,7 +14851,7 @@
       <c r="S35" s="15"/>
       <c r="T35" s="15"/>
     </row>
-    <row r="36" spans="1:20" s="114" customFormat="1">
+    <row r="36" spans="1:20" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -14861,7 +14868,7 @@
       <c r="S36" s="15"/>
       <c r="T36" s="15"/>
     </row>
-    <row r="37" spans="1:20" s="114" customFormat="1">
+    <row r="37" spans="1:20" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -14878,7 +14885,7 @@
       <c r="S37" s="15"/>
       <c r="T37" s="15"/>
     </row>
-    <row r="38" spans="1:20" s="114" customFormat="1">
+    <row r="38" spans="1:20" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -14895,7 +14902,7 @@
       <c r="S38" s="15"/>
       <c r="T38" s="15"/>
     </row>
-    <row r="39" spans="1:20" s="114" customFormat="1">
+    <row r="39" spans="1:20" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -14912,7 +14919,7 @@
       <c r="S39" s="15"/>
       <c r="T39" s="15"/>
     </row>
-    <row r="40" spans="1:20" s="114" customFormat="1">
+    <row r="40" spans="1:20" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -14929,7 +14936,7 @@
       <c r="S40" s="15"/>
       <c r="T40" s="15"/>
     </row>
-    <row r="41" spans="1:20" s="114" customFormat="1">
+    <row r="41" spans="1:20" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -14946,7 +14953,7 @@
       <c r="S41" s="15"/>
       <c r="T41" s="15"/>
     </row>
-    <row r="42" spans="1:20" s="114" customFormat="1">
+    <row r="42" spans="1:20" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -14963,7 +14970,7 @@
       <c r="S42" s="15"/>
       <c r="T42" s="15"/>
     </row>
-    <row r="43" spans="1:20" s="114" customFormat="1">
+    <row r="43" spans="1:20" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -14980,7 +14987,7 @@
       <c r="S43" s="15"/>
       <c r="T43" s="15"/>
     </row>
-    <row r="44" spans="1:20" s="114" customFormat="1">
+    <row r="44" spans="1:20" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -14997,7 +15004,7 @@
       <c r="S44" s="15"/>
       <c r="T44" s="15"/>
     </row>
-    <row r="45" spans="1:20" s="114" customFormat="1">
+    <row r="45" spans="1:20" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -15014,7 +15021,7 @@
       <c r="S45" s="15"/>
       <c r="T45" s="15"/>
     </row>
-    <row r="46" spans="1:20" s="114" customFormat="1">
+    <row r="46" spans="1:20" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -15031,7 +15038,7 @@
       <c r="S46" s="15"/>
       <c r="T46" s="15"/>
     </row>
-    <row r="47" spans="1:20" s="114" customFormat="1">
+    <row r="47" spans="1:20" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -15048,7 +15055,7 @@
       <c r="S47" s="15"/>
       <c r="T47" s="15"/>
     </row>
-    <row r="48" spans="1:20" s="114" customFormat="1">
+    <row r="48" spans="1:20" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -15065,7 +15072,7 @@
       <c r="S48" s="15"/>
       <c r="T48" s="15"/>
     </row>
-    <row r="49" spans="1:20" s="114" customFormat="1">
+    <row r="49" spans="1:20" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -15082,7 +15089,7 @@
       <c r="S49" s="15"/>
       <c r="T49" s="15"/>
     </row>
-    <row r="50" spans="1:20" s="114" customFormat="1">
+    <row r="50" spans="1:20" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -15099,7 +15106,7 @@
       <c r="S50" s="15"/>
       <c r="T50" s="15"/>
     </row>
-    <row r="51" spans="1:20" s="114" customFormat="1">
+    <row r="51" spans="1:20" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -15132,17 +15139,17 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23B92DD-59ED-44B2-9027-F8ED6E0758F2}">
-  <sheetPr filterMode="1"/>
+  <sheetPr codeName="Sheet13" filterMode="1"/>
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
       <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
-      <selection pane="topRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="12.7109375" style="15" customWidth="1"/>
@@ -15165,7 +15172,7 @@
     <col min="21" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="32" customFormat="1" ht="15.6">
+    <row r="1" spans="1:20" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="195" t="s">
         <v>1849</v>
       </c>
@@ -15191,7 +15198,7 @@
       <c r="S1" s="251"/>
       <c r="T1" s="252"/>
     </row>
-    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.6">
+    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="49"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -15223,7 +15230,7 @@
       <c r="S2" s="244"/>
       <c r="T2" s="245"/>
     </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="79.150000000000006">
+    <row r="3" spans="1:20" s="11" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>113</v>
       </c>
@@ -15285,7 +15292,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="13.15">
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -15325,7 +15332,7 @@
       <c r="S4" s="48"/>
       <c r="T4" s="47"/>
     </row>
-    <row r="5" spans="1:20" s="11" customFormat="1" ht="13.15">
+    <row r="5" spans="1:20" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -15347,7 +15354,7 @@
       <c r="S5" s="48"/>
       <c r="T5" s="47"/>
     </row>
-    <row r="6" spans="1:20" ht="122.45">
+    <row r="6" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>851</v>
       </c>
@@ -15391,7 +15398,7 @@
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
     </row>
-    <row r="7" spans="1:20" ht="81.599999999999994">
+    <row r="7" spans="1:20" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>855</v>
       </c>
@@ -15435,7 +15442,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:20" ht="71.45">
+    <row r="8" spans="1:20" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>859</v>
       </c>
@@ -15479,7 +15486,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:20" ht="51">
+    <row r="9" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>864</v>
       </c>
@@ -15523,7 +15530,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="1:20" ht="122.45">
+    <row r="10" spans="1:20" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>868</v>
       </c>
@@ -15567,7 +15574,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:20" ht="40.9">
+    <row r="11" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>873</v>
       </c>
@@ -15607,7 +15614,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:20" ht="61.15" hidden="1">
+    <row r="12" spans="1:20" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>877</v>
       </c>
@@ -15645,7 +15652,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" spans="1:20" ht="61.15">
+    <row r="13" spans="1:20" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>881</v>
       </c>
@@ -15689,7 +15696,7 @@
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
     </row>
-    <row r="14" spans="1:20" ht="61.15">
+    <row r="14" spans="1:20" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>885</v>
       </c>
@@ -15733,7 +15740,7 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:20" ht="30.6">
+    <row r="15" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>890</v>
       </c>
@@ -15777,7 +15784,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="1:20" ht="30.6">
+    <row r="16" spans="1:20" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>894</v>
       </c>
@@ -15821,7 +15828,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="1:20" ht="71.45">
+    <row r="17" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>899</v>
       </c>
@@ -15865,7 +15872,7 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
-    <row r="18" spans="1:20" ht="40.9">
+    <row r="18" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>903</v>
       </c>
@@ -15909,7 +15916,7 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
     </row>
-    <row r="19" spans="1:20" ht="193.9">
+    <row r="19" spans="1:20" ht="247.5" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>907</v>
       </c>
@@ -15953,7 +15960,7 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
     </row>
-    <row r="20" spans="1:20" ht="132.6">
+    <row r="20" spans="1:20" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>912</v>
       </c>
@@ -15997,7 +16004,7 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
-    <row r="21" spans="1:20" ht="40.9">
+    <row r="21" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>916</v>
       </c>
@@ -16039,7 +16046,7 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
-    <row r="22" spans="1:20" ht="30.6">
+    <row r="22" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>919</v>
       </c>
@@ -16081,7 +16088,7 @@
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
     </row>
-    <row r="23" spans="1:20" ht="40.9">
+    <row r="23" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>922</v>
       </c>
@@ -16125,7 +16132,7 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
     </row>
-    <row r="24" spans="1:20" s="15" customFormat="1" ht="51">
+    <row r="24" spans="1:20" s="15" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>926</v>
       </c>
@@ -16169,71 +16176,71 @@
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="6:7">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="6:7">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" spans="6:7">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="6:7">
+    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="6:7">
+    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="6:7">
+    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="6:7">
+    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="6:7">
+    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" spans="6:7">
+    <row r="41" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
     </row>
@@ -16259,17 +16266,17 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413EF122-60E0-4B69-A5A0-9A3B21DCB328}">
-  <sheetPr filterMode="1"/>
+  <sheetPr codeName="Sheet14" filterMode="1"/>
   <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
       <selection pane="bottomRight" activeCell="M48" sqref="M48"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="13.7109375" style="15" customWidth="1"/>
@@ -16292,7 +16299,7 @@
     <col min="21" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="32" customFormat="1" ht="15.6">
+    <row r="1" spans="1:20" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="195" t="s">
         <v>1869</v>
       </c>
@@ -16318,7 +16325,7 @@
       <c r="S1" s="251"/>
       <c r="T1" s="252"/>
     </row>
-    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.6">
+    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="49"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -16350,7 +16357,7 @@
       <c r="S2" s="244"/>
       <c r="T2" s="245"/>
     </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="79.150000000000006">
+    <row r="3" spans="1:20" s="11" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>113</v>
       </c>
@@ -16412,7 +16419,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="13.15">
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -16452,7 +16459,7 @@
       <c r="S4" s="48"/>
       <c r="T4" s="47"/>
     </row>
-    <row r="5" spans="1:20" s="11" customFormat="1" ht="13.15">
+    <row r="5" spans="1:20" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -16474,7 +16481,7 @@
       <c r="S5" s="48"/>
       <c r="T5" s="47"/>
     </row>
-    <row r="6" spans="1:20" ht="102">
+    <row r="6" spans="1:20" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>985</v>
       </c>
@@ -16518,7 +16525,7 @@
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
     </row>
-    <row r="7" spans="1:20" ht="91.9">
+    <row r="7" spans="1:20" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>989</v>
       </c>
@@ -16562,7 +16569,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:20" ht="112.15">
+    <row r="8" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>993</v>
       </c>
@@ -16608,7 +16615,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:20" ht="163.15">
+    <row r="9" spans="1:20" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>997</v>
       </c>
@@ -16652,7 +16659,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="1:20" ht="255">
+    <row r="10" spans="1:20" ht="303.75" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>1001</v>
       </c>
@@ -16696,7 +16703,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:20" ht="51">
+    <row r="11" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>1005</v>
       </c>
@@ -16740,7 +16747,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:20" ht="163.15">
+    <row r="12" spans="1:20" ht="202.5" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>1009</v>
       </c>
@@ -16784,7 +16791,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" spans="1:20" ht="71.45">
+    <row r="13" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>1014</v>
       </c>
@@ -16828,7 +16835,7 @@
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
     </row>
-    <row r="14" spans="1:20" ht="30.6">
+    <row r="14" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>1018</v>
       </c>
@@ -16872,7 +16879,7 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:20" ht="102" hidden="1">
+    <row r="15" spans="1:20" ht="123.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>1022</v>
       </c>
@@ -16910,7 +16917,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="1:20" ht="173.45">
+    <row r="16" spans="1:20" ht="213.75" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>1026</v>
       </c>
@@ -16954,7 +16961,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="1:20" ht="40.9">
+    <row r="17" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>1030</v>
       </c>
@@ -16998,7 +17005,7 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
-    <row r="18" spans="1:20" ht="132.6" hidden="1">
+    <row r="18" spans="1:20" ht="157.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>1034</v>
       </c>
@@ -17036,7 +17043,7 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
     </row>
-    <row r="19" spans="1:20" ht="30.6" hidden="1">
+    <row r="19" spans="1:20" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>1039</v>
       </c>
@@ -17074,107 +17081,107 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="6:7">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="6:7">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="6:7">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="6:7">
+    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="6:7">
+    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="6:7">
+    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="6:7">
+    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="6:7">
+    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="6:7">
+    <row r="41" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="6:7">
+    <row r="42" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="6:7">
+    <row r="43" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="6:7">
+    <row r="44" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
     </row>
-    <row r="45" spans="6:7">
+    <row r="45" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
     </row>
@@ -17200,16 +17207,17 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393E799D-6598-4449-808E-E5B295B3D57B}">
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
       <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="14.5703125" style="15" customWidth="1"/>
@@ -17231,7 +17239,7 @@
     <col min="21" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="32" customFormat="1" ht="15.6">
+    <row r="1" spans="1:20" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="195" t="s">
         <v>1885</v>
       </c>
@@ -17257,7 +17265,7 @@
       <c r="S1" s="251"/>
       <c r="T1" s="252"/>
     </row>
-    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.6">
+    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="49"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -17289,7 +17297,7 @@
       <c r="S2" s="244"/>
       <c r="T2" s="245"/>
     </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="79.150000000000006">
+    <row r="3" spans="1:20" s="11" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>113</v>
       </c>
@@ -17351,7 +17359,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="13.15">
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -17391,7 +17399,7 @@
       <c r="S4" s="48"/>
       <c r="T4" s="47"/>
     </row>
-    <row r="5" spans="1:20" s="11" customFormat="1" ht="13.15">
+    <row r="5" spans="1:20" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -17413,7 +17421,7 @@
       <c r="S5" s="48"/>
       <c r="T5" s="47"/>
     </row>
-    <row r="6" spans="1:20" ht="122.45">
+    <row r="6" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>930</v>
       </c>
@@ -17455,7 +17463,7 @@
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
     </row>
-    <row r="7" spans="1:20" ht="204">
+    <row r="7" spans="1:20" ht="247.5" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>934</v>
       </c>
@@ -17497,7 +17505,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:20" ht="122.45">
+    <row r="8" spans="1:20" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>938</v>
       </c>
@@ -17539,7 +17547,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:20" ht="40.9">
+    <row r="9" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>942</v>
       </c>
@@ -17581,7 +17589,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="1:20" ht="40.9">
+    <row r="10" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>946</v>
       </c>
@@ -17623,7 +17631,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:20" ht="91.9">
+    <row r="11" spans="1:20" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>950</v>
       </c>
@@ -17665,7 +17673,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:20" ht="142.9">
+    <row r="12" spans="1:20" ht="180" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>954</v>
       </c>
@@ -17707,7 +17715,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" spans="1:20" ht="51">
+    <row r="13" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>959</v>
       </c>
@@ -17749,7 +17757,7 @@
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
     </row>
-    <row r="14" spans="1:20" ht="40.9">
+    <row r="14" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>963</v>
       </c>
@@ -17789,7 +17797,7 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:20" ht="112.15">
+    <row r="15" spans="1:20" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>966</v>
       </c>
@@ -17831,7 +17839,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="1:20" ht="40.9">
+    <row r="16" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>970</v>
       </c>
@@ -17873,7 +17881,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="1:20" ht="153">
+    <row r="17" spans="1:20" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>973</v>
       </c>
@@ -17915,7 +17923,7 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
-    <row r="18" spans="1:20" ht="183.6">
+    <row r="18" spans="1:20" ht="213.75" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>977</v>
       </c>
@@ -17957,7 +17965,7 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
     </row>
-    <row r="19" spans="1:20" ht="61.15">
+    <row r="19" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>981</v>
       </c>
@@ -17999,14 +18007,14 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F20" s="199"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
     </row>
@@ -18026,16 +18034,17 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC067A5-781D-430F-8C76-53108F766ECB}">
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
       <selection pane="bottomRight" activeCell="I3" sqref="I1:I1048576"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="15"/>
     <col min="3" max="3" width="50.5703125" style="15" customWidth="1"/>
@@ -18057,7 +18066,7 @@
     <col min="21" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="32" customFormat="1" ht="15.6">
+    <row r="1" spans="1:20" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="255" t="s">
         <v>1900</v>
       </c>
@@ -18083,7 +18092,7 @@
       <c r="S1" s="251"/>
       <c r="T1" s="252"/>
     </row>
-    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.6">
+    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="49"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -18115,7 +18124,7 @@
       <c r="S2" s="244"/>
       <c r="T2" s="245"/>
     </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="79.150000000000006">
+    <row r="3" spans="1:20" s="11" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>113</v>
       </c>
@@ -18177,7 +18186,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="13.15">
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -18199,7 +18208,7 @@
       <c r="S4" s="48"/>
       <c r="T4" s="47"/>
     </row>
-    <row r="5" spans="1:20" s="11" customFormat="1" ht="13.15">
+    <row r="5" spans="1:20" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -18239,7 +18248,7 @@
       <c r="S5" s="48"/>
       <c r="T5" s="47"/>
     </row>
-    <row r="6" spans="1:20" ht="122.45">
+    <row r="6" spans="1:20" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>1043</v>
       </c>
@@ -18275,7 +18284,7 @@
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
     </row>
-    <row r="7" spans="1:20" ht="71.45">
+    <row r="7" spans="1:20" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>1047</v>
       </c>
@@ -18313,7 +18322,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:20" ht="204">
+    <row r="8" spans="1:20" ht="225" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>1051</v>
       </c>
@@ -18351,7 +18360,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:20" ht="61.15">
+    <row r="9" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>1055</v>
       </c>
@@ -18389,7 +18398,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="1:20" ht="61.15">
+    <row r="10" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>1059</v>
       </c>
@@ -18427,7 +18436,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:20" ht="40.9">
+    <row r="11" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>1063</v>
       </c>
@@ -18463,7 +18472,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:20" ht="81.599999999999994">
+    <row r="12" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>1067</v>
       </c>
@@ -18501,7 +18510,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" spans="1:20" ht="71.45">
+    <row r="13" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>1071</v>
       </c>
@@ -18537,7 +18546,7 @@
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
     </row>
-    <row r="14" spans="1:20" ht="81.599999999999994">
+    <row r="14" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>1074</v>
       </c>
@@ -18575,7 +18584,7 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:20" ht="30.6">
+    <row r="15" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>1078</v>
       </c>
@@ -18615,7 +18624,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="1:20" ht="61.15">
+    <row r="16" spans="1:20" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>1083</v>
       </c>
@@ -18655,7 +18664,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="1:20" ht="81.599999999999994">
+    <row r="17" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>1088</v>
       </c>
@@ -18693,7 +18702,7 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
-    <row r="18" spans="1:20" ht="30.6">
+    <row r="18" spans="1:20" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>1092</v>
       </c>
@@ -18731,7 +18740,7 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
     </row>
-    <row r="19" spans="1:20" ht="40.9">
+    <row r="19" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>1096</v>
       </c>
@@ -18769,7 +18778,7 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
     </row>
-    <row r="20" spans="1:20" ht="40.9">
+    <row r="20" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>1100</v>
       </c>
@@ -18807,7 +18816,7 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
-    <row r="21" spans="1:20" ht="51">
+    <row r="21" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>1104</v>
       </c>
@@ -18845,7 +18854,7 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
-    <row r="22" spans="1:20" ht="51">
+    <row r="22" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>1108</v>
       </c>
@@ -18881,7 +18890,7 @@
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
     </row>
-    <row r="23" spans="1:20" ht="43.5" customHeight="1">
+    <row r="23" spans="1:20" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>1111</v>
       </c>
@@ -18919,7 +18928,7 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
     </row>
-    <row r="24" spans="1:20" ht="81.599999999999994">
+    <row r="24" spans="1:20" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>1115</v>
       </c>
@@ -18953,7 +18962,7 @@
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
     </row>
-    <row r="25" spans="1:20" ht="40.9">
+    <row r="25" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>1118</v>
       </c>
@@ -18991,7 +19000,7 @@
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
     </row>
-    <row r="26" spans="1:20" ht="30.6">
+    <row r="26" spans="1:20" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>1122</v>
       </c>
@@ -19027,7 +19036,7 @@
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
-    <row r="27" spans="1:20" ht="61.15">
+    <row r="27" spans="1:20" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>1126</v>
       </c>
@@ -19063,13 +19072,13 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F28" s="19"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F29" s="19"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F30" s="26"/>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
@@ -19078,7 +19087,7 @@
       <c r="K30" s="29"/>
       <c r="L30" s="29"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F31" s="27"/>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
@@ -19087,31 +19096,31 @@
       <c r="K31" s="29"/>
       <c r="L31" s="29"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F32" s="19"/>
     </row>
-    <row r="33" spans="6:6">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33" s="19"/>
     </row>
-    <row r="34" spans="6:6">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F34" s="19"/>
     </row>
-    <row r="35" spans="6:6">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F35" s="19"/>
     </row>
-    <row r="36" spans="6:6">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F36" s="19"/>
     </row>
-    <row r="37" spans="6:6">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F37" s="19"/>
     </row>
-    <row r="38" spans="6:6">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F38" s="19"/>
     </row>
-    <row r="39" spans="6:6">
+    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F39" s="19"/>
     </row>
-    <row r="40" spans="6:6">
+    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F40" s="19"/>
     </row>
   </sheetData>
@@ -19131,16 +19140,17 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E929CA00-6E54-49E1-B7DB-1B3EEBA228C7}">
+  <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
       <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="15"/>
     <col min="3" max="3" width="84.140625" style="15" customWidth="1"/>
@@ -19162,7 +19172,7 @@
     <col min="21" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="32" customFormat="1" ht="15.6">
+    <row r="1" spans="1:20" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="195" t="s">
         <v>1928</v>
       </c>
@@ -19188,7 +19198,7 @@
       <c r="S1" s="251"/>
       <c r="T1" s="252"/>
     </row>
-    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.6">
+    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="49"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -19220,7 +19230,7 @@
       <c r="S2" s="244"/>
       <c r="T2" s="245"/>
     </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="79.150000000000006">
+    <row r="3" spans="1:20" s="11" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>113</v>
       </c>
@@ -19282,7 +19292,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="13.15">
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -19322,7 +19332,7 @@
       <c r="S4" s="48"/>
       <c r="T4" s="47"/>
     </row>
-    <row r="5" spans="1:20" s="11" customFormat="1" ht="13.15">
+    <row r="5" spans="1:20" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -19344,7 +19354,7 @@
       <c r="S5" s="48"/>
       <c r="T5" s="47"/>
     </row>
-    <row r="6" spans="1:20" ht="71.45">
+    <row r="6" spans="1:20" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>1131</v>
       </c>
@@ -19388,7 +19398,7 @@
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
     </row>
-    <row r="7" spans="1:20" ht="244.9">
+    <row r="7" spans="1:20" ht="270" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>1135</v>
       </c>
@@ -19434,7 +19444,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:20" ht="71.45">
+    <row r="8" spans="1:20" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>1139</v>
       </c>
@@ -19478,7 +19488,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:20" ht="81.599999999999994">
+    <row r="9" spans="1:20" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>1143</v>
       </c>
@@ -19524,7 +19534,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="1:20" ht="61.15">
+    <row r="10" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>1148</v>
       </c>
@@ -19570,7 +19580,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:20" ht="193.9">
+    <row r="11" spans="1:20" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>1152</v>
       </c>
@@ -19612,11 +19622,11 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="30" spans="6:7">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
     </row>
-    <row r="31" spans="6:7">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
     </row>
@@ -19636,16 +19646,17 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560988DB-9A0B-4CFC-A68A-95752AC4077E}">
+  <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
       <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="15"/>
     <col min="3" max="4" width="63.85546875" style="15" customWidth="1"/>
@@ -19666,7 +19677,7 @@
     <col min="21" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="32" customFormat="1" ht="15.6">
+    <row r="1" spans="1:20" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="195" t="s">
         <v>1938</v>
       </c>
@@ -19692,7 +19703,7 @@
       <c r="S1" s="251"/>
       <c r="T1" s="252"/>
     </row>
-    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.6">
+    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="49"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -19724,7 +19735,7 @@
       <c r="S2" s="244"/>
       <c r="T2" s="245"/>
     </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="79.150000000000006">
+    <row r="3" spans="1:20" s="11" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>113</v>
       </c>
@@ -19786,7 +19797,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="13.15">
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A4" s="64"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -19826,7 +19837,7 @@
       <c r="S4" s="48"/>
       <c r="T4" s="47"/>
     </row>
-    <row r="5" spans="1:20" s="11" customFormat="1" ht="13.15">
+    <row r="5" spans="1:20" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -19848,7 +19859,7 @@
       <c r="S5" s="48"/>
       <c r="T5" s="47"/>
     </row>
-    <row r="6" spans="1:20" ht="102">
+    <row r="6" spans="1:20" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>1157</v>
       </c>
@@ -19892,7 +19903,7 @@
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
     </row>
-    <row r="7" spans="1:20" ht="81.599999999999994">
+    <row r="7" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>1161</v>
       </c>
@@ -19936,7 +19947,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:20" ht="51">
+    <row r="8" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>1165</v>
       </c>
@@ -19982,7 +19993,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:20" ht="71.45">
+    <row r="9" spans="1:20" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>1169</v>
       </c>
@@ -20030,7 +20041,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="1:20" ht="132.6">
+    <row r="10" spans="1:20" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>1173</v>
       </c>
@@ -20076,7 +20087,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:20" ht="91.9">
+    <row r="11" spans="1:20" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>1178</v>
       </c>
@@ -20120,7 +20131,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:20" ht="81.599999999999994">
+    <row r="12" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>1183</v>
       </c>
@@ -20164,7 +20175,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" spans="1:20" ht="112.15">
+    <row r="13" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>1188</v>
       </c>
@@ -20208,7 +20219,7 @@
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
     </row>
-    <row r="14" spans="1:20" ht="51">
+    <row r="14" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>1192</v>
       </c>
@@ -20252,11 +20263,11 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="30" spans="6:7">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
     </row>
-    <row r="31" spans="6:7">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
     </row>
@@ -20276,16 +20287,17 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92D4F14-7DFC-4FBD-9B71-2A02AA8C9E64}">
+  <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
       <selection pane="bottomRight" activeCell="M37" sqref="M37"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="12.42578125" style="15" customWidth="1"/>
@@ -20308,7 +20320,7 @@
     <col min="21" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="32" customFormat="1" ht="15.6">
+    <row r="1" spans="1:20" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="195" t="s">
         <v>1951</v>
       </c>
@@ -20334,7 +20346,7 @@
       <c r="S1" s="251"/>
       <c r="T1" s="252"/>
     </row>
-    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.6">
+    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="49"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -20366,7 +20378,7 @@
       <c r="S2" s="244"/>
       <c r="T2" s="245"/>
     </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="79.150000000000006">
+    <row r="3" spans="1:20" s="11" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>113</v>
       </c>
@@ -20428,7 +20440,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="13.15">
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A4" s="64"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -20468,7 +20480,7 @@
       <c r="S4" s="48"/>
       <c r="T4" s="47"/>
     </row>
-    <row r="5" spans="1:20" s="11" customFormat="1" ht="13.15">
+    <row r="5" spans="1:20" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -20490,7 +20502,7 @@
       <c r="S5" s="48"/>
       <c r="T5" s="47"/>
     </row>
-    <row r="6" spans="1:20" ht="91.9">
+    <row r="6" spans="1:20" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>1196</v>
       </c>
@@ -20534,7 +20546,7 @@
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
     </row>
-    <row r="7" spans="1:20" ht="102">
+    <row r="7" spans="1:20" ht="123.75" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>1201</v>
       </c>
@@ -20578,7 +20590,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:20" ht="153">
+    <row r="8" spans="1:20" ht="180" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>1205</v>
       </c>
@@ -20622,7 +20634,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:20" ht="183.6">
+    <row r="9" spans="1:20" ht="213.75" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>1210</v>
       </c>
@@ -20664,7 +20676,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="1:20" ht="40.9">
+    <row r="10" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>1214</v>
       </c>
@@ -20706,7 +20718,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:20" ht="61.15">
+    <row r="11" spans="1:20" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>1218</v>
       </c>
@@ -20748,7 +20760,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:20" ht="40.9">
+    <row r="12" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>1222</v>
       </c>
@@ -20788,7 +20800,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" spans="1:20" ht="40.9">
+    <row r="13" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>1225</v>
       </c>
@@ -20830,7 +20842,7 @@
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
     </row>
-    <row r="14" spans="1:20" ht="40.9">
+    <row r="14" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>1229</v>
       </c>
@@ -20872,7 +20884,7 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:20" ht="40.9">
+    <row r="15" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>1233</v>
       </c>
@@ -20914,11 +20926,11 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="30" spans="6:7">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
     </row>
-    <row r="31" spans="6:7">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
     </row>
@@ -20938,13 +20950,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.140625" style="38" customWidth="1"/>
     <col min="2" max="2" width="102.5703125" style="37" customWidth="1"/>
@@ -20952,7 +20965,7 @@
     <col min="4" max="16384" width="9.28515625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="34" customFormat="1" ht="15.6">
+    <row r="1" spans="1:3" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>29</v>
       </c>
@@ -20960,7 +20973,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="197.1" customHeight="1">
+    <row r="2" spans="1:3" ht="197.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
         <v>31</v>
       </c>
@@ -20968,7 +20981,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="43" t="s">
         <v>33</v>
       </c>
@@ -20976,7 +20989,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
         <v>35</v>
       </c>
@@ -20984,7 +20997,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="66">
+    <row r="5" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A5" s="43" t="s">
         <v>37</v>
       </c>
@@ -20995,7 +21008,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="66">
+    <row r="6" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
         <v>40</v>
       </c>
@@ -21004,7 +21017,7 @@
       </c>
       <c r="C6" s="214"/>
     </row>
-    <row r="7" spans="1:3" ht="66">
+    <row r="7" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A7" s="43" t="s">
         <v>42</v>
       </c>
@@ -21013,7 +21026,7 @@
       </c>
       <c r="C7" s="214"/>
     </row>
-    <row r="8" spans="1:3" ht="92.45">
+    <row r="8" spans="1:3" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A8" s="44" t="s">
         <v>44</v>
       </c>
@@ -21021,7 +21034,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="43" t="s">
         <v>46</v>
       </c>
@@ -21029,7 +21042,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="43" t="s">
         <v>48</v>
       </c>
@@ -21037,7 +21050,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="26.45">
+    <row r="11" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="43" t="s">
         <v>50</v>
       </c>
@@ -21045,7 +21058,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="26.45">
+    <row r="12" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="43" t="s">
         <v>52</v>
       </c>
@@ -21053,26 +21066,26 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="36"/>
       <c r="B13" s="35"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="36"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="36"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="36"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="36"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="36"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="36"/>
     </row>
   </sheetData>
@@ -21086,16 +21099,17 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897014BA-04A7-4D67-AD31-B9FB1021DA5B}">
+  <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
       <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
-      <selection pane="topRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="18.85546875" style="15" customWidth="1"/>
@@ -21117,7 +21131,7 @@
     <col min="21" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="32" customFormat="1" ht="15.6">
+    <row r="1" spans="1:20" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="195" t="s">
         <v>1962</v>
       </c>
@@ -21143,7 +21157,7 @@
       <c r="S1" s="251"/>
       <c r="T1" s="252"/>
     </row>
-    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.6">
+    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="49"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -21175,7 +21189,7 @@
       <c r="S2" s="244"/>
       <c r="T2" s="245"/>
     </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="79.150000000000006">
+    <row r="3" spans="1:20" s="11" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>113</v>
       </c>
@@ -21237,7 +21251,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="13.15">
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A4" s="64"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -21277,7 +21291,7 @@
       <c r="S4" s="48"/>
       <c r="T4" s="47"/>
     </row>
-    <row r="5" spans="1:20" s="11" customFormat="1" ht="13.15">
+    <row r="5" spans="1:20" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -21299,7 +21313,7 @@
       <c r="S5" s="48"/>
       <c r="T5" s="47"/>
     </row>
-    <row r="6" spans="1:20" ht="91.9">
+    <row r="6" spans="1:20" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>1237</v>
       </c>
@@ -21343,7 +21357,7 @@
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
     </row>
-    <row r="7" spans="1:20" ht="382.5" customHeight="1">
+    <row r="7" spans="1:20" ht="382.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>1242</v>
       </c>
@@ -21387,7 +21401,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:20" ht="163.15">
+    <row r="8" spans="1:20" ht="202.5" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>1247</v>
       </c>
@@ -21429,7 +21443,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:20" ht="204">
+    <row r="9" spans="1:20" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>1251</v>
       </c>
@@ -21471,7 +21485,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="1:20" ht="81.599999999999994">
+    <row r="10" spans="1:20" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>1255</v>
       </c>
@@ -21513,7 +21527,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:20" ht="91.9">
+    <row r="11" spans="1:20" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>1259</v>
       </c>
@@ -21555,7 +21569,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:20" ht="51">
+    <row r="12" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>1263</v>
       </c>
@@ -21597,7 +21611,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" spans="1:20" ht="91.9">
+    <row r="13" spans="1:20" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>1267</v>
       </c>
@@ -21639,7 +21653,7 @@
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
     </row>
-    <row r="14" spans="1:20" ht="153">
+    <row r="14" spans="1:20" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>1271</v>
       </c>
@@ -21681,7 +21695,7 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:20" ht="102">
+    <row r="15" spans="1:20" ht="123.75" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>1275</v>
       </c>
@@ -21723,7 +21737,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="1:20" ht="132.6">
+    <row r="16" spans="1:20" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>1279</v>
       </c>
@@ -21765,7 +21779,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="1:20" ht="51">
+    <row r="17" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>1283</v>
       </c>
@@ -21809,7 +21823,7 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
-    <row r="18" spans="1:20" ht="40.9">
+    <row r="18" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>1287</v>
       </c>
@@ -21853,7 +21867,7 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
     </row>
-    <row r="19" spans="1:20" ht="71.45">
+    <row r="19" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>1291</v>
       </c>
@@ -21897,7 +21911,7 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
     </row>
-    <row r="20" spans="1:20" ht="91.9">
+    <row r="20" spans="1:20" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>1295</v>
       </c>
@@ -21941,7 +21955,7 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
-    <row r="21" spans="1:20" ht="132.6">
+    <row r="21" spans="1:20" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>1299</v>
       </c>
@@ -21983,7 +21997,7 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
-    <row r="22" spans="1:20" ht="51">
+    <row r="22" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>1304</v>
       </c>
@@ -22025,7 +22039,7 @@
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
     </row>
-    <row r="23" spans="1:20" ht="183.6">
+    <row r="23" spans="1:20" ht="225" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>1308</v>
       </c>
@@ -22067,7 +22081,7 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
     </row>
-    <row r="24" spans="1:20" ht="153">
+    <row r="24" spans="1:20" ht="180" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>1313</v>
       </c>
@@ -22109,7 +22123,7 @@
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
     </row>
-    <row r="25" spans="1:20" ht="61.15">
+    <row r="25" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>1317</v>
       </c>
@@ -22151,7 +22165,7 @@
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
     </row>
-    <row r="26" spans="1:20" ht="91.9">
+    <row r="26" spans="1:20" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>1321</v>
       </c>
@@ -22193,7 +22207,7 @@
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
-    <row r="27" spans="1:20" ht="91.9">
+    <row r="27" spans="1:20" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A27" s="100" t="s">
         <v>1325</v>
       </c>
@@ -22235,18 +22249,18 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F28" s="199"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
     </row>
-    <row r="35" spans="1:20" s="101" customFormat="1">
+    <row r="35" spans="1:20" s="101" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -22263,7 +22277,7 @@
       <c r="S35" s="15"/>
       <c r="T35" s="15"/>
     </row>
-    <row r="36" spans="1:20" s="101" customFormat="1">
+    <row r="36" spans="1:20" s="101" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -22280,7 +22294,7 @@
       <c r="S36" s="15"/>
       <c r="T36" s="15"/>
     </row>
-    <row r="37" spans="1:20" s="101" customFormat="1">
+    <row r="37" spans="1:20" s="101" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -22297,7 +22311,7 @@
       <c r="S37" s="15"/>
       <c r="T37" s="15"/>
     </row>
-    <row r="38" spans="1:20" s="101" customFormat="1">
+    <row r="38" spans="1:20" s="101" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
@@ -22314,7 +22328,7 @@
       <c r="S38" s="15"/>
       <c r="T38" s="15"/>
     </row>
-    <row r="39" spans="1:20" s="101" customFormat="1">
+    <row r="39" spans="1:20" s="101" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -22331,7 +22345,7 @@
       <c r="S39" s="15"/>
       <c r="T39" s="15"/>
     </row>
-    <row r="40" spans="1:20" s="101" customFormat="1">
+    <row r="40" spans="1:20" s="101" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
@@ -22364,16 +22378,17 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2568DE3F-311E-43B4-B2D1-0961E150D7A2}">
+  <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D41" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="L55" sqref="L55"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="84"/>
     <col min="2" max="2" width="12.28515625" style="84" customWidth="1"/>
@@ -22396,7 +22411,7 @@
     <col min="20" max="20" width="68.5703125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="32" customFormat="1" ht="15.6">
+    <row r="1" spans="1:20" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="195" t="s">
         <v>1985</v>
       </c>
@@ -22422,7 +22437,7 @@
       <c r="S1" s="251"/>
       <c r="T1" s="252"/>
     </row>
-    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.6">
+    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="75"/>
       <c r="B2" s="88"/>
       <c r="C2" s="88"/>
@@ -22454,7 +22469,7 @@
       <c r="S2" s="244"/>
       <c r="T2" s="245"/>
     </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="79.150000000000006">
+    <row r="3" spans="1:20" s="11" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>113</v>
       </c>
@@ -22516,7 +22531,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="13.15">
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A4" s="64"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -22556,7 +22571,7 @@
       <c r="S4" s="48"/>
       <c r="T4" s="47"/>
     </row>
-    <row r="5" spans="1:20" s="11" customFormat="1" ht="13.15">
+    <row r="5" spans="1:20" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A5" s="64"/>
       <c r="B5" s="64"/>
       <c r="C5" s="64"/>
@@ -22578,7 +22593,7 @@
       <c r="S5" s="48"/>
       <c r="T5" s="47"/>
     </row>
-    <row r="6" spans="1:20" ht="204.95" customHeight="1">
+    <row r="6" spans="1:20" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="76" t="s">
         <v>1330</v>
       </c>
@@ -22622,7 +22637,7 @@
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
     </row>
-    <row r="7" spans="1:20" ht="163.15">
+    <row r="7" spans="1:20" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
         <v>1334</v>
       </c>
@@ -22666,7 +22681,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:20" ht="132.6">
+    <row r="8" spans="1:20" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A8" s="76" t="s">
         <v>1339</v>
       </c>
@@ -22708,7 +22723,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:20" ht="71.45">
+    <row r="9" spans="1:20" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="76" t="s">
         <v>1344</v>
       </c>
@@ -22750,7 +22765,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="1:20" ht="51">
+    <row r="10" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A10" s="76" t="s">
         <v>1349</v>
       </c>
@@ -22792,7 +22807,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:20" ht="183.6">
+    <row r="11" spans="1:20" ht="225" x14ac:dyDescent="0.25">
       <c r="A11" s="76" t="s">
         <v>1354</v>
       </c>
@@ -22834,7 +22849,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:20" ht="51.2" customHeight="1">
+    <row r="12" spans="1:20" ht="51.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
         <v>1359</v>
       </c>
@@ -22878,7 +22893,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" spans="1:20" ht="153">
+    <row r="13" spans="1:20" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A13" s="76" t="s">
         <v>1363</v>
       </c>
@@ -22922,7 +22937,7 @@
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
     </row>
-    <row r="14" spans="1:20" ht="61.15">
+    <row r="14" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A14" s="76" t="s">
         <v>1367</v>
       </c>
@@ -22964,7 +22979,7 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:20" ht="183.6">
+    <row r="15" spans="1:20" ht="225" x14ac:dyDescent="0.25">
       <c r="A15" s="76" t="s">
         <v>1371</v>
       </c>
@@ -23006,7 +23021,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="1:20" ht="122.45">
+    <row r="16" spans="1:20" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A16" s="76" t="s">
         <v>1375</v>
       </c>
@@ -23048,7 +23063,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="1:20" ht="51">
+    <row r="17" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A17" s="76" t="s">
         <v>1379</v>
       </c>
@@ -23092,7 +23107,7 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
-    <row r="18" spans="1:20" ht="91.9">
+    <row r="18" spans="1:20" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A18" s="76" t="s">
         <v>1383</v>
       </c>
@@ -23136,7 +23151,7 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
     </row>
-    <row r="19" spans="1:20" ht="91.9">
+    <row r="19" spans="1:20" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A19" s="76" t="s">
         <v>1387</v>
       </c>
@@ -23178,7 +23193,7 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
     </row>
-    <row r="20" spans="1:20" ht="204">
+    <row r="20" spans="1:20" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A20" s="76" t="s">
         <v>1391</v>
       </c>
@@ -23220,7 +23235,7 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
-    <row r="21" spans="1:20" ht="132.6">
+    <row r="21" spans="1:20" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A21" s="76" t="s">
         <v>1395</v>
       </c>
@@ -23262,7 +23277,7 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
-    <row r="22" spans="1:20" ht="81.599999999999994">
+    <row r="22" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="76" t="s">
         <v>1399</v>
       </c>
@@ -23304,7 +23319,7 @@
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
     </row>
-    <row r="23" spans="1:20" ht="102">
+    <row r="23" spans="1:20" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A23" s="76" t="s">
         <v>1404</v>
       </c>
@@ -23348,7 +23363,7 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
     </row>
-    <row r="24" spans="1:20" ht="51">
+    <row r="24" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A24" s="76" t="s">
         <v>1408</v>
       </c>
@@ -23384,7 +23399,7 @@
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
     </row>
-    <row r="25" spans="1:20" ht="83.1" customHeight="1">
+    <row r="25" spans="1:20" ht="83.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="76" t="s">
         <v>1411</v>
       </c>
@@ -23426,7 +23441,7 @@
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
     </row>
-    <row r="26" spans="1:20" ht="91.9">
+    <row r="26" spans="1:20" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A26" s="76" t="s">
         <v>1414</v>
       </c>
@@ -23468,7 +23483,7 @@
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
-    <row r="27" spans="1:20" ht="142.9">
+    <row r="27" spans="1:20" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A27" s="76" t="s">
         <v>1417</v>
       </c>
@@ -23510,7 +23525,7 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
-    <row r="28" spans="1:20" ht="65.849999999999994" customHeight="1">
+    <row r="28" spans="1:20" ht="65.849999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="76" t="s">
         <v>1421</v>
       </c>
@@ -23552,7 +23567,7 @@
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
     </row>
-    <row r="29" spans="1:20" ht="51">
+    <row r="29" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A29" s="76" t="s">
         <v>1426</v>
       </c>
@@ -23596,7 +23611,7 @@
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
     </row>
-    <row r="30" spans="1:20" ht="112.15">
+    <row r="30" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A30" s="76" t="s">
         <v>1431</v>
       </c>
@@ -23640,7 +23655,7 @@
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
     </row>
-    <row r="31" spans="1:20" ht="51">
+    <row r="31" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A31" s="76" t="s">
         <v>1436</v>
       </c>
@@ -23680,7 +23695,7 @@
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
     </row>
-    <row r="32" spans="1:20" ht="81.599999999999994">
+    <row r="32" spans="1:20" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A32" s="76" t="s">
         <v>1439</v>
       </c>
@@ -23720,7 +23735,7 @@
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
-    <row r="33" spans="1:20" ht="61.15">
+    <row r="33" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="76" t="s">
         <v>1443</v>
       </c>
@@ -23762,7 +23777,7 @@
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
     </row>
-    <row r="34" spans="1:20" ht="149.1" customHeight="1">
+    <row r="34" spans="1:20" ht="149.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="76" t="s">
         <v>1448</v>
       </c>
@@ -23804,7 +23819,7 @@
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
     </row>
-    <row r="35" spans="1:20" ht="123" customHeight="1">
+    <row r="35" spans="1:20" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="76" t="s">
         <v>1453</v>
       </c>
@@ -23846,7 +23861,7 @@
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
     </row>
-    <row r="36" spans="1:20" ht="142.9">
+    <row r="36" spans="1:20" ht="180" x14ac:dyDescent="0.25">
       <c r="A36" s="76" t="s">
         <v>1458</v>
       </c>
@@ -23888,7 +23903,7 @@
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
     </row>
-    <row r="37" spans="1:20" ht="81.599999999999994">
+    <row r="37" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="76" t="s">
         <v>1463</v>
       </c>
@@ -23930,7 +23945,7 @@
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
     </row>
-    <row r="38" spans="1:20" ht="61.15">
+    <row r="38" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A38" s="76" t="s">
         <v>1468</v>
       </c>
@@ -23972,7 +23987,7 @@
       <c r="S38" s="14"/>
       <c r="T38" s="14"/>
     </row>
-    <row r="39" spans="1:20" ht="153">
+    <row r="39" spans="1:20" ht="180" x14ac:dyDescent="0.25">
       <c r="A39" s="76" t="s">
         <v>1472</v>
       </c>
@@ -24014,7 +24029,7 @@
       <c r="S39" s="14"/>
       <c r="T39" s="14"/>
     </row>
-    <row r="40" spans="1:20" ht="122.45">
+    <row r="40" spans="1:20" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A40" s="76" t="s">
         <v>1477</v>
       </c>
@@ -24056,7 +24071,7 @@
       <c r="S40" s="14"/>
       <c r="T40" s="14"/>
     </row>
-    <row r="41" spans="1:20" ht="102">
+    <row r="41" spans="1:20" ht="123.75" x14ac:dyDescent="0.25">
       <c r="A41" s="76" t="s">
         <v>1481</v>
       </c>
@@ -24115,16 +24130,17 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32E8380-491A-45AE-99F6-24260B052EC5}">
+  <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
       <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
-      <selection pane="topRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="17.28515625" style="15" customWidth="1"/>
@@ -24148,7 +24164,7 @@
     <col min="23" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="32" customFormat="1" ht="15.6">
+    <row r="1" spans="1:20" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="195" t="s">
         <v>2018</v>
       </c>
@@ -24174,7 +24190,7 @@
       <c r="S1" s="251"/>
       <c r="T1" s="252"/>
     </row>
-    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.6">
+    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="49"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -24206,7 +24222,7 @@
       <c r="S2" s="244"/>
       <c r="T2" s="245"/>
     </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="79.150000000000006">
+    <row r="3" spans="1:20" s="11" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>113</v>
       </c>
@@ -24268,7 +24284,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="13.15">
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -24308,7 +24324,7 @@
       <c r="S4" s="48"/>
       <c r="T4" s="47"/>
     </row>
-    <row r="5" spans="1:20" s="11" customFormat="1" ht="13.15">
+    <row r="5" spans="1:20" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -24330,7 +24346,7 @@
       <c r="S5" s="48"/>
       <c r="T5" s="47"/>
     </row>
-    <row r="6" spans="1:20" ht="173.45">
+    <row r="6" spans="1:20" ht="202.5" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>1486</v>
       </c>
@@ -24374,7 +24390,7 @@
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
     </row>
-    <row r="7" spans="1:20" ht="183.6">
+    <row r="7" spans="1:20" ht="225" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>1490</v>
       </c>
@@ -24416,7 +24432,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:20" ht="30.6">
+    <row r="8" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>1495</v>
       </c>
@@ -24458,7 +24474,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:20" ht="71.45">
+    <row r="9" spans="1:20" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>1499</v>
       </c>
@@ -24500,7 +24516,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="1:20" ht="193.9">
+    <row r="10" spans="1:20" ht="225" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>1503</v>
       </c>
@@ -24542,7 +24558,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:20" ht="30.6">
+    <row r="11" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>1508</v>
       </c>
@@ -24584,7 +24600,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:20" ht="30.6">
+    <row r="12" spans="1:20" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>1512</v>
       </c>
@@ -24626,7 +24642,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" spans="1:20" ht="51">
+    <row r="13" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>1516</v>
       </c>
@@ -24668,7 +24684,7 @@
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
     </row>
-    <row r="14" spans="1:20" ht="234.6">
+    <row r="14" spans="1:20" ht="292.5" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>1520</v>
       </c>
@@ -24710,7 +24726,7 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:20" ht="51">
+    <row r="15" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>1525</v>
       </c>
@@ -24750,7 +24766,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="1:20" ht="40.9">
+    <row r="16" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>1528</v>
       </c>
@@ -24792,7 +24808,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="1:20" ht="51">
+    <row r="17" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>1532</v>
       </c>
@@ -24834,7 +24850,7 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
-    <row r="18" spans="1:20" ht="51">
+    <row r="18" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>1536</v>
       </c>
@@ -24876,7 +24892,7 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
     </row>
-    <row r="19" spans="1:20" ht="51">
+    <row r="19" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>1540</v>
       </c>
@@ -24918,7 +24934,7 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
     </row>
-    <row r="20" spans="1:20" ht="51">
+    <row r="20" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>1544</v>
       </c>
@@ -24960,7 +24976,7 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
-    <row r="21" spans="1:20" ht="40.9">
+    <row r="21" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>1548</v>
       </c>
@@ -25002,7 +25018,7 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
-    <row r="22" spans="1:20" ht="61.15">
+    <row r="22" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>1552</v>
       </c>
@@ -25044,7 +25060,7 @@
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
     </row>
-    <row r="23" spans="1:20" ht="30.6">
+    <row r="23" spans="1:20" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>1556</v>
       </c>
@@ -25086,7 +25102,7 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
     </row>
-    <row r="24" spans="1:20" ht="30.6">
+    <row r="24" spans="1:20" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>1559</v>
       </c>
@@ -25128,7 +25144,7 @@
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
     </row>
-    <row r="25" spans="1:20" ht="102">
+    <row r="25" spans="1:20" ht="123.75" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>1563</v>
       </c>
@@ -25172,7 +25188,7 @@
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
     </row>
-    <row r="26" spans="1:20" ht="102">
+    <row r="26" spans="1:20" ht="123.75" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>1568</v>
       </c>
@@ -25214,7 +25230,7 @@
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
-    <row r="27" spans="1:20" ht="61.15">
+    <row r="27" spans="1:20" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>1573</v>
       </c>
@@ -25256,7 +25272,7 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
-    <row r="28" spans="1:20" ht="40.9">
+    <row r="28" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>1577</v>
       </c>
@@ -25298,7 +25314,7 @@
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
     </row>
-    <row r="29" spans="1:20" ht="51">
+    <row r="29" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>1581</v>
       </c>
@@ -25340,7 +25356,7 @@
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
     </row>
-    <row r="30" spans="1:20" ht="61.15">
+    <row r="30" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>1585</v>
       </c>
@@ -25382,7 +25398,7 @@
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
     </row>
-    <row r="31" spans="1:20" ht="30.6">
+    <row r="31" spans="1:20" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>1590</v>
       </c>
@@ -25424,7 +25440,7 @@
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
     </row>
-    <row r="32" spans="1:20" ht="20.45">
+    <row r="32" spans="1:20" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>1594</v>
       </c>
@@ -25464,7 +25480,7 @@
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
-    <row r="33" spans="1:20" ht="102">
+    <row r="33" spans="1:20" ht="123.75" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>1597</v>
       </c>
@@ -25506,7 +25522,7 @@
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
     </row>
-    <row r="34" spans="1:20" ht="61.15">
+    <row r="34" spans="1:20" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>1602</v>
       </c>
@@ -25548,7 +25564,7 @@
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
     </row>
-    <row r="35" spans="1:20" ht="30.6">
+    <row r="35" spans="1:20" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>1607</v>
       </c>
@@ -25592,7 +25608,7 @@
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
     </row>
-    <row r="36" spans="1:20" ht="40.9">
+    <row r="36" spans="1:20" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>1612</v>
       </c>
@@ -25634,16 +25650,16 @@
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F37" s="19"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F38" s="19"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F39" s="19"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F40" s="19"/>
     </row>
   </sheetData>
@@ -25662,20 +25678,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6AF4C5-E93D-499C-914B-12A344D9B52B}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="H4:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.28515625" style="33"/>
     <col min="2" max="2" width="37.5703125" style="33" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.28515625" style="33"/>
   </cols>
   <sheetData>
-    <row r="4" spans="8:11">
+    <row r="4" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H4" s="215" t="s">
         <v>54</v>
       </c>
@@ -25683,103 +25700,103 @@
       <c r="J4" s="215"/>
       <c r="K4" s="215"/>
     </row>
-    <row r="5" spans="8:11">
+    <row r="5" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H5" s="215"/>
       <c r="I5" s="215"/>
       <c r="J5" s="215"/>
       <c r="K5" s="215"/>
     </row>
-    <row r="6" spans="8:11">
+    <row r="6" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H6" s="215"/>
       <c r="I6" s="215"/>
       <c r="J6" s="215"/>
       <c r="K6" s="215"/>
     </row>
-    <row r="7" spans="8:11">
+    <row r="7" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H7" s="215"/>
       <c r="I7" s="215"/>
       <c r="J7" s="215"/>
       <c r="K7" s="215"/>
     </row>
-    <row r="8" spans="8:11">
+    <row r="8" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H8" s="215"/>
       <c r="I8" s="215"/>
       <c r="J8" s="215"/>
       <c r="K8" s="215"/>
     </row>
-    <row r="9" spans="8:11">
+    <row r="9" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H9" s="215"/>
       <c r="I9" s="215"/>
       <c r="J9" s="215"/>
       <c r="K9" s="215"/>
     </row>
-    <row r="10" spans="8:11">
+    <row r="10" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H10" s="215"/>
       <c r="I10" s="215"/>
       <c r="J10" s="215"/>
       <c r="K10" s="215"/>
     </row>
-    <row r="11" spans="8:11">
+    <row r="11" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H11" s="215"/>
       <c r="I11" s="215"/>
       <c r="J11" s="215"/>
       <c r="K11" s="215"/>
     </row>
-    <row r="12" spans="8:11">
+    <row r="12" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H12" s="215"/>
       <c r="I12" s="215"/>
       <c r="J12" s="215"/>
       <c r="K12" s="215"/>
     </row>
-    <row r="13" spans="8:11">
+    <row r="13" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H13" s="215"/>
       <c r="I13" s="215"/>
       <c r="J13" s="215"/>
       <c r="K13" s="215"/>
     </row>
-    <row r="14" spans="8:11">
+    <row r="14" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H14" s="215"/>
       <c r="I14" s="215"/>
       <c r="J14" s="215"/>
       <c r="K14" s="215"/>
     </row>
-    <row r="15" spans="8:11">
+    <row r="15" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H15" s="215"/>
       <c r="I15" s="215"/>
       <c r="J15" s="215"/>
       <c r="K15" s="215"/>
     </row>
-    <row r="16" spans="8:11">
+    <row r="16" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H16" s="215"/>
       <c r="I16" s="215"/>
       <c r="J16" s="215"/>
       <c r="K16" s="215"/>
     </row>
-    <row r="17" spans="8:11">
+    <row r="17" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H17" s="215"/>
       <c r="I17" s="215"/>
       <c r="J17" s="215"/>
       <c r="K17" s="215"/>
     </row>
-    <row r="18" spans="8:11">
+    <row r="18" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H18" s="215"/>
       <c r="I18" s="215"/>
       <c r="J18" s="215"/>
       <c r="K18" s="215"/>
     </row>
-    <row r="19" spans="8:11">
+    <row r="19" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H19" s="215"/>
       <c r="I19" s="215"/>
       <c r="J19" s="215"/>
       <c r="K19" s="215"/>
     </row>
-    <row r="20" spans="8:11">
+    <row r="20" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H20" s="215"/>
       <c r="I20" s="215"/>
       <c r="J20" s="215"/>
       <c r="K20" s="215"/>
     </row>
-    <row r="21" spans="8:11">
+    <row r="21" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H21" s="215"/>
       <c r="I21" s="215"/>
       <c r="J21" s="215"/>
@@ -25797,13 +25814,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6023E309-6CF9-4957-849E-AB4AD3F64A0D}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="10.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.5703125" style="25" customWidth="1"/>
     <col min="2" max="2" width="49" style="25" customWidth="1"/>
@@ -25815,7 +25833,7 @@
     <col min="8" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="158" customFormat="1" ht="40.9">
+    <row r="1" spans="1:7" s="158" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="156" t="s">
         <v>55</v>
       </c>
@@ -25838,7 +25856,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="159" customFormat="1" ht="12">
+    <row r="2" spans="1:7" s="159" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="217" t="s">
         <v>62</v>
       </c>
@@ -25849,7 +25867,7 @@
       <c r="F2" s="218"/>
       <c r="G2" s="219"/>
     </row>
-    <row r="3" spans="1:7" ht="20.45">
+    <row r="3" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>63</v>
       </c>
@@ -25862,7 +25880,7 @@
       <c r="F3" s="95"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>65</v>
       </c>
@@ -25873,7 +25891,7 @@
       <c r="F4" s="95"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7" ht="12">
+    <row r="5" spans="1:7" ht="12" x14ac:dyDescent="0.25">
       <c r="A5" s="216" t="s">
         <v>66</v>
       </c>
@@ -25884,7 +25902,7 @@
       <c r="F5" s="216"/>
       <c r="G5" s="216"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>67</v>
       </c>
@@ -25897,7 +25915,7 @@
       <c r="F6" s="95"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>69</v>
       </c>
@@ -25908,7 +25926,7 @@
       <c r="F7" s="95"/>
       <c r="G7" s="19"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>70</v>
       </c>
@@ -25919,7 +25937,7 @@
       <c r="F8" s="95"/>
       <c r="G8" s="19"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>71</v>
       </c>
@@ -25930,7 +25948,7 @@
       <c r="F9" s="95"/>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" spans="1:7" ht="20.45">
+    <row r="10" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>72</v>
       </c>
@@ -25941,7 +25959,7 @@
       <c r="F10" s="95"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:7" ht="12">
+    <row r="11" spans="1:7" ht="12" x14ac:dyDescent="0.25">
       <c r="A11" s="216" t="s">
         <v>73</v>
       </c>
@@ -25952,7 +25970,7 @@
       <c r="F11" s="216"/>
       <c r="G11" s="216"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>74</v>
       </c>
@@ -25965,7 +25983,7 @@
       <c r="F12" s="95"/>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>76</v>
       </c>
@@ -25976,7 +25994,7 @@
       <c r="F13" s="95"/>
       <c r="G13" s="19"/>
     </row>
-    <row r="14" spans="1:7" ht="12">
+    <row r="14" spans="1:7" ht="12" x14ac:dyDescent="0.25">
       <c r="A14" s="216" t="s">
         <v>77</v>
       </c>
@@ -25987,7 +26005,7 @@
       <c r="F14" s="216"/>
       <c r="G14" s="216"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>78</v>
       </c>
@@ -25998,7 +26016,7 @@
       <c r="F15" s="95"/>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="1:7" ht="30.6">
+    <row r="16" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>79</v>
       </c>
@@ -26011,7 +26029,7 @@
       <c r="F16" s="95"/>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="1:7" ht="40.9">
+    <row r="17" spans="1:7" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>81</v>
       </c>
@@ -26024,7 +26042,7 @@
       <c r="F17" s="95"/>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="1:7" ht="20.45">
+    <row r="18" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="160" t="s">
         <v>83</v>
       </c>
@@ -26035,7 +26053,7 @@
       <c r="F18" s="95"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" ht="20.45">
+    <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="160" t="s">
         <v>84</v>
       </c>
@@ -26048,7 +26066,7 @@
       <c r="F19" s="95"/>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:7" ht="12">
+    <row r="20" spans="1:7" ht="12" x14ac:dyDescent="0.25">
       <c r="A20" s="217" t="s">
         <v>86</v>
       </c>
@@ -26059,7 +26077,7 @@
       <c r="F20" s="218"/>
       <c r="G20" s="219"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="223" t="s">
         <v>87</v>
       </c>
@@ -26070,7 +26088,7 @@
       <c r="F21" s="224"/>
       <c r="G21" s="225"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>88</v>
       </c>
@@ -26081,7 +26099,7 @@
       <c r="F22" s="95"/>
       <c r="G22" s="19"/>
     </row>
-    <row r="23" spans="1:7" ht="40.9">
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>89</v>
       </c>
@@ -26094,7 +26112,7 @@
       <c r="F23" s="95"/>
       <c r="G23" s="19"/>
     </row>
-    <row r="24" spans="1:7" ht="20.45">
+    <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>91</v>
       </c>
@@ -26107,7 +26125,7 @@
       <c r="F24" s="95"/>
       <c r="G24" s="19"/>
     </row>
-    <row r="25" spans="1:7" ht="20.45">
+    <row r="25" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>93</v>
       </c>
@@ -26118,7 +26136,7 @@
       <c r="F25" s="95"/>
       <c r="G25" s="19"/>
     </row>
-    <row r="26" spans="1:7" ht="20.45">
+    <row r="26" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>94</v>
       </c>
@@ -26129,7 +26147,7 @@
       <c r="F26" s="95"/>
       <c r="G26" s="19"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="223" t="s">
         <v>95</v>
       </c>
@@ -26140,7 +26158,7 @@
       <c r="F27" s="224"/>
       <c r="G27" s="225"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>96</v>
       </c>
@@ -26151,7 +26169,7 @@
       <c r="F28" s="95"/>
       <c r="G28" s="19"/>
     </row>
-    <row r="29" spans="1:7" ht="40.9">
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>97</v>
       </c>
@@ -26164,7 +26182,7 @@
       <c r="F29" s="95"/>
       <c r="G29" s="19"/>
     </row>
-    <row r="30" spans="1:7" ht="20.45">
+    <row r="30" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>91</v>
       </c>
@@ -26177,7 +26195,7 @@
       <c r="F30" s="95"/>
       <c r="G30" s="19"/>
     </row>
-    <row r="31" spans="1:7" ht="20.45">
+    <row r="31" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>98</v>
       </c>
@@ -26188,7 +26206,7 @@
       <c r="F31" s="95"/>
       <c r="G31" s="19"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="223" t="s">
         <v>99</v>
       </c>
@@ -26199,7 +26217,7 @@
       <c r="F32" s="224"/>
       <c r="G32" s="225"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>100</v>
       </c>
@@ -26210,7 +26228,7 @@
       <c r="F33" s="95"/>
       <c r="G33" s="19"/>
     </row>
-    <row r="34" spans="1:7" ht="40.9">
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>101</v>
       </c>
@@ -26223,7 +26241,7 @@
       <c r="F34" s="95"/>
       <c r="G34" s="19"/>
     </row>
-    <row r="35" spans="1:7" ht="20.45">
+    <row r="35" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>91</v>
       </c>
@@ -26236,7 +26254,7 @@
       <c r="F35" s="95"/>
       <c r="G35" s="19"/>
     </row>
-    <row r="36" spans="1:7" ht="20.45">
+    <row r="36" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>102</v>
       </c>
@@ -26247,7 +26265,7 @@
       <c r="F36" s="95"/>
       <c r="G36" s="19"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="223" t="s">
         <v>103</v>
       </c>
@@ -26258,7 +26276,7 @@
       <c r="F37" s="224"/>
       <c r="G37" s="225"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>104</v>
       </c>
@@ -26269,7 +26287,7 @@
       <c r="F38" s="95"/>
       <c r="G38" s="19"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>105</v>
       </c>
@@ -26280,7 +26298,7 @@
       <c r="F39" s="95"/>
       <c r="G39" s="19"/>
     </row>
-    <row r="40" spans="1:7" ht="12">
+    <row r="40" spans="1:7" ht="12" x14ac:dyDescent="0.25">
       <c r="A40" s="217" t="s">
         <v>106</v>
       </c>
@@ -26291,7 +26309,7 @@
       <c r="F40" s="218"/>
       <c r="G40" s="219"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>107</v>
       </c>
@@ -26302,7 +26320,7 @@
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
     </row>
-    <row r="42" spans="1:7" ht="12">
+    <row r="42" spans="1:7" ht="12" x14ac:dyDescent="0.25">
       <c r="A42" s="216" t="s">
         <v>108</v>
       </c>
@@ -26313,7 +26331,7 @@
       <c r="F42" s="216"/>
       <c r="G42" s="216"/>
     </row>
-    <row r="43" spans="1:7" ht="20.45">
+    <row r="43" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>109</v>
       </c>
@@ -26347,7 +26365,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3CF7FE-495D-4686-8718-136BE7F897DA}">
-  <sheetPr>
+  <sheetPr codeName="Sheet5">
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:U357"/>
@@ -26357,7 +26375,7 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60" style="175" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="175" customWidth="1"/>
@@ -26382,7 +26400,7 @@
     <col min="22" max="16384" width="9.140625" style="175"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="115" t="s">
         <v>110</v>
       </c>
@@ -26413,7 +26431,7 @@
       <c r="T1" s="227"/>
       <c r="U1" s="227"/>
     </row>
-    <row r="2" spans="1:21" s="184" customFormat="1" ht="79.150000000000006">
+    <row r="2" spans="1:21" s="184" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A2" s="120" t="s">
         <v>113</v>
       </c>
@@ -26478,7 +26496,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -26519,7 +26537,7 @@
       <c r="T3" s="48"/>
       <c r="U3" s="176"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -26542,7 +26560,7 @@
       <c r="T4" s="146"/>
       <c r="U4" s="147"/>
     </row>
-    <row r="5" spans="1:21" ht="145.15">
+    <row r="5" spans="1:21" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>132</v>
       </c>
@@ -26589,7 +26607,7 @@
       <c r="T5" s="59"/>
       <c r="U5" s="164"/>
     </row>
-    <row r="6" spans="1:21" ht="409.15">
+    <row r="6" spans="1:21" ht="408" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>138</v>
       </c>
@@ -26636,7 +26654,7 @@
       <c r="T6" s="59"/>
       <c r="U6" s="164"/>
     </row>
-    <row r="7" spans="1:21" ht="79.150000000000006">
+    <row r="7" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>143</v>
       </c>
@@ -26683,7 +26701,7 @@
       <c r="T7" s="59"/>
       <c r="U7" s="164"/>
     </row>
-    <row r="8" spans="1:21" ht="79.150000000000006">
+    <row r="8" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>147</v>
       </c>
@@ -26728,7 +26746,7 @@
       <c r="T8" s="59"/>
       <c r="U8" s="164"/>
     </row>
-    <row r="9" spans="1:21" ht="52.9">
+    <row r="9" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>151</v>
       </c>
@@ -26771,7 +26789,7 @@
       <c r="T9" s="59"/>
       <c r="U9" s="164"/>
     </row>
-    <row r="10" spans="1:21" ht="52.9">
+    <row r="10" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>154</v>
       </c>
@@ -26814,7 +26832,7 @@
       <c r="T10" s="59"/>
       <c r="U10" s="164"/>
     </row>
-    <row r="11" spans="1:21" ht="52.9">
+    <row r="11" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>157</v>
       </c>
@@ -26859,7 +26877,7 @@
       <c r="T11" s="59"/>
       <c r="U11" s="164"/>
     </row>
-    <row r="12" spans="1:21" ht="105.6">
+    <row r="12" spans="1:21" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>160</v>
       </c>
@@ -26906,7 +26924,7 @@
       <c r="T12" s="59"/>
       <c r="U12" s="164"/>
     </row>
-    <row r="13" spans="1:21" ht="79.150000000000006">
+    <row r="13" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>164</v>
       </c>
@@ -26951,7 +26969,7 @@
       <c r="T13" s="59"/>
       <c r="U13" s="164"/>
     </row>
-    <row r="14" spans="1:21" ht="79.150000000000006">
+    <row r="14" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>167</v>
       </c>
@@ -26994,7 +27012,7 @@
       <c r="T14" s="59"/>
       <c r="U14" s="164"/>
     </row>
-    <row r="15" spans="1:21" ht="118.9">
+    <row r="15" spans="1:21" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>170</v>
       </c>
@@ -27039,7 +27057,7 @@
       <c r="T15" s="59"/>
       <c r="U15" s="164"/>
     </row>
-    <row r="16" spans="1:21" ht="343.15">
+    <row r="16" spans="1:21" ht="331.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>175</v>
       </c>
@@ -27084,7 +27102,7 @@
       <c r="T16" s="59"/>
       <c r="U16" s="164"/>
     </row>
-    <row r="17" spans="1:21" ht="105.6">
+    <row r="17" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>180</v>
       </c>
@@ -27127,7 +27145,7 @@
       <c r="T17" s="59"/>
       <c r="U17" s="164"/>
     </row>
-    <row r="18" spans="1:21" ht="105.6">
+    <row r="18" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>184</v>
       </c>
@@ -27174,7 +27192,7 @@
       <c r="T18" s="59"/>
       <c r="U18" s="164"/>
     </row>
-    <row r="19" spans="1:21" ht="79.150000000000006">
+    <row r="19" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>189</v>
       </c>
@@ -27221,7 +27239,7 @@
       <c r="T19" s="59"/>
       <c r="U19" s="164"/>
     </row>
-    <row r="20" spans="1:21" ht="92.45">
+    <row r="20" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>194</v>
       </c>
@@ -27268,7 +27286,7 @@
       <c r="T20" s="59"/>
       <c r="U20" s="164"/>
     </row>
-    <row r="21" spans="1:21" ht="66">
+    <row r="21" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>198</v>
       </c>
@@ -27315,7 +27333,7 @@
       <c r="T21" s="59"/>
       <c r="U21" s="164"/>
     </row>
-    <row r="22" spans="1:21" ht="92.45">
+    <row r="22" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>202</v>
       </c>
@@ -27362,7 +27380,7 @@
       <c r="T22" s="59"/>
       <c r="U22" s="164"/>
     </row>
-    <row r="23" spans="1:21" ht="66">
+    <row r="23" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>206</v>
       </c>
@@ -27407,7 +27425,7 @@
       <c r="T23" s="59"/>
       <c r="U23" s="164"/>
     </row>
-    <row r="24" spans="1:21" ht="92.45">
+    <row r="24" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>210</v>
       </c>
@@ -27452,7 +27470,7 @@
       <c r="T24" s="59"/>
       <c r="U24" s="164"/>
     </row>
-    <row r="25" spans="1:21" ht="145.15">
+    <row r="25" spans="1:21" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>214</v>
       </c>
@@ -27497,7 +27515,7 @@
       <c r="T25" s="59"/>
       <c r="U25" s="164"/>
     </row>
-    <row r="26" spans="1:21" ht="171.6">
+    <row r="26" spans="1:21" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>219</v>
       </c>
@@ -27542,7 +27560,7 @@
       <c r="T26" s="59"/>
       <c r="U26" s="164"/>
     </row>
-    <row r="27" spans="1:21" ht="79.150000000000006">
+    <row r="27" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>224</v>
       </c>
@@ -27587,7 +27605,7 @@
       <c r="T27" s="59"/>
       <c r="U27" s="164"/>
     </row>
-    <row r="28" spans="1:21" ht="79.150000000000006">
+    <row r="28" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>229</v>
       </c>
@@ -27632,7 +27650,7 @@
       <c r="T28" s="59"/>
       <c r="U28" s="164"/>
     </row>
-    <row r="29" spans="1:21" ht="39.6">
+    <row r="29" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>234</v>
       </c>
@@ -27677,7 +27695,7 @@
       <c r="T29" s="59"/>
       <c r="U29" s="164"/>
     </row>
-    <row r="30" spans="1:21" ht="132">
+    <row r="30" spans="1:21" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>238</v>
       </c>
@@ -27722,7 +27740,7 @@
       <c r="T30" s="59"/>
       <c r="U30" s="164"/>
     </row>
-    <row r="31" spans="1:21" ht="171.6">
+    <row r="31" spans="1:21" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>242</v>
       </c>
@@ -27769,7 +27787,7 @@
       <c r="T31" s="59"/>
       <c r="U31" s="164"/>
     </row>
-    <row r="32" spans="1:21" ht="211.15">
+    <row r="32" spans="1:21" ht="204" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>247</v>
       </c>
@@ -27816,7 +27834,7 @@
       <c r="T32" s="59"/>
       <c r="U32" s="164"/>
     </row>
-    <row r="33" spans="1:21" ht="52.9">
+    <row r="33" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>252</v>
       </c>
@@ -27861,7 +27879,7 @@
       <c r="T33" s="59"/>
       <c r="U33" s="164"/>
     </row>
-    <row r="34" spans="1:21" ht="66">
+    <row r="34" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>256</v>
       </c>
@@ -27906,7 +27924,7 @@
       <c r="T34" s="59"/>
       <c r="U34" s="164"/>
     </row>
-    <row r="35" spans="1:21" ht="52.9">
+    <row r="35" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>260</v>
       </c>
@@ -27951,7 +27969,7 @@
       <c r="T35" s="59"/>
       <c r="U35" s="164"/>
     </row>
-    <row r="36" spans="1:21" ht="79.150000000000006">
+    <row r="36" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>264</v>
       </c>
@@ -27998,7 +28016,7 @@
       <c r="T36" s="59"/>
       <c r="U36" s="164"/>
     </row>
-    <row r="37" spans="1:21" ht="52.9">
+    <row r="37" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>268</v>
       </c>
@@ -28045,7 +28063,7 @@
       <c r="T37" s="59"/>
       <c r="U37" s="164"/>
     </row>
-    <row r="38" spans="1:21" ht="105.6">
+    <row r="38" spans="1:21" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>272</v>
       </c>
@@ -28090,7 +28108,7 @@
       <c r="T38" s="59"/>
       <c r="U38" s="164"/>
     </row>
-    <row r="39" spans="1:21" ht="66">
+    <row r="39" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>275</v>
       </c>
@@ -28135,7 +28153,7 @@
       <c r="T39" s="59"/>
       <c r="U39" s="164"/>
     </row>
-    <row r="40" spans="1:21" ht="52.9">
+    <row r="40" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>279</v>
       </c>
@@ -28178,7 +28196,7 @@
       <c r="T40" s="59"/>
       <c r="U40" s="164"/>
     </row>
-    <row r="41" spans="1:21" ht="66">
+    <row r="41" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>283</v>
       </c>
@@ -28219,7 +28237,7 @@
       <c r="T41" s="59"/>
       <c r="U41" s="164"/>
     </row>
-    <row r="42" spans="1:21" ht="303.60000000000002">
+    <row r="42" spans="1:21" ht="306" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>287</v>
       </c>
@@ -28266,7 +28284,7 @@
       <c r="T42" s="59"/>
       <c r="U42" s="164"/>
     </row>
-    <row r="43" spans="1:21" ht="132">
+    <row r="43" spans="1:21" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>291</v>
       </c>
@@ -28311,7 +28329,7 @@
       <c r="T43" s="59"/>
       <c r="U43" s="164"/>
     </row>
-    <row r="44" spans="1:21" ht="158.44999999999999">
+    <row r="44" spans="1:21" ht="153" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>295</v>
       </c>
@@ -28358,7 +28376,7 @@
       <c r="T44" s="59"/>
       <c r="U44" s="164"/>
     </row>
-    <row r="45" spans="1:21" ht="79.150000000000006">
+    <row r="45" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>299</v>
       </c>
@@ -28405,7 +28423,7 @@
       <c r="T45" s="59"/>
       <c r="U45" s="164"/>
     </row>
-    <row r="46" spans="1:21" ht="105.6">
+    <row r="46" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>303</v>
       </c>
@@ -28452,7 +28470,7 @@
       <c r="T46" s="59"/>
       <c r="U46" s="164"/>
     </row>
-    <row r="47" spans="1:21" ht="145.15">
+    <row r="47" spans="1:21" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>308</v>
       </c>
@@ -28499,7 +28517,7 @@
       <c r="T47" s="59"/>
       <c r="U47" s="164"/>
     </row>
-    <row r="48" spans="1:21" ht="145.15">
+    <row r="48" spans="1:21" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>313</v>
       </c>
@@ -28546,7 +28564,7 @@
       <c r="T48" s="168"/>
       <c r="U48" s="164"/>
     </row>
-    <row r="49" spans="1:21" ht="105.6">
+    <row r="49" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>319</v>
       </c>
@@ -28593,7 +28611,7 @@
       <c r="T49" s="168"/>
       <c r="U49" s="164"/>
     </row>
-    <row r="50" spans="1:21" ht="92.45">
+    <row r="50" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>324</v>
       </c>
@@ -28640,7 +28658,7 @@
       <c r="T50" s="168"/>
       <c r="U50" s="164"/>
     </row>
-    <row r="51" spans="1:21" ht="171.6">
+    <row r="51" spans="1:21" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>328</v>
       </c>
@@ -28687,7 +28705,7 @@
       <c r="T51" s="168"/>
       <c r="U51" s="164"/>
     </row>
-    <row r="52" spans="1:21" ht="66">
+    <row r="52" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>333</v>
       </c>
@@ -28734,7 +28752,7 @@
       <c r="T52" s="168"/>
       <c r="U52" s="164"/>
     </row>
-    <row r="53" spans="1:21" ht="132">
+    <row r="53" spans="1:21" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>338</v>
       </c>
@@ -28781,7 +28799,7 @@
       <c r="T53" s="19"/>
       <c r="U53" s="164"/>
     </row>
-    <row r="54" spans="1:21" ht="409.6">
+    <row r="54" spans="1:21" ht="408" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>343</v>
       </c>
@@ -28828,7 +28846,7 @@
       <c r="T54" s="19"/>
       <c r="U54" s="164"/>
     </row>
-    <row r="55" spans="1:21" ht="39.6">
+    <row r="55" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>348</v>
       </c>
@@ -28875,7 +28893,7 @@
       <c r="T55" s="19"/>
       <c r="U55" s="164"/>
     </row>
-    <row r="56" spans="1:21" ht="66">
+    <row r="56" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>352</v>
       </c>
@@ -28920,7 +28938,7 @@
       <c r="T56" s="19"/>
       <c r="U56" s="164"/>
     </row>
-    <row r="57" spans="1:21" ht="105.6">
+    <row r="57" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>356</v>
       </c>
@@ -28965,7 +28983,7 @@
       <c r="T57" s="19"/>
       <c r="U57" s="164"/>
     </row>
-    <row r="58" spans="1:21" ht="79.150000000000006">
+    <row r="58" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>360</v>
       </c>
@@ -29010,7 +29028,7 @@
       <c r="T58" s="19"/>
       <c r="U58" s="164"/>
     </row>
-    <row r="59" spans="1:21" ht="145.15">
+    <row r="59" spans="1:21" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>365</v>
       </c>
@@ -29057,7 +29075,7 @@
       <c r="T59" s="19"/>
       <c r="U59" s="164"/>
     </row>
-    <row r="60" spans="1:21" ht="66">
+    <row r="60" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>370</v>
       </c>
@@ -29104,7 +29122,7 @@
       <c r="T60" s="19"/>
       <c r="U60" s="164"/>
     </row>
-    <row r="61" spans="1:21" ht="66">
+    <row r="61" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>374</v>
       </c>
@@ -29151,7 +29169,7 @@
       <c r="T61" s="19"/>
       <c r="U61" s="164"/>
     </row>
-    <row r="62" spans="1:21" ht="92.45">
+    <row r="62" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>378</v>
       </c>
@@ -29196,7 +29214,7 @@
       <c r="T62" s="19"/>
       <c r="U62" s="164"/>
     </row>
-    <row r="63" spans="1:21" ht="79.150000000000006">
+    <row r="63" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>383</v>
       </c>
@@ -29241,7 +29259,7 @@
       <c r="T63" s="19"/>
       <c r="U63" s="164"/>
     </row>
-    <row r="64" spans="1:21" ht="92.45">
+    <row r="64" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>387</v>
       </c>
@@ -29286,7 +29304,7 @@
       <c r="T64" s="19"/>
       <c r="U64" s="164"/>
     </row>
-    <row r="65" spans="1:21" ht="105.6">
+    <row r="65" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>392</v>
       </c>
@@ -29331,7 +29349,7 @@
       <c r="T65" s="19"/>
       <c r="U65" s="164"/>
     </row>
-    <row r="66" spans="1:21" ht="52.9">
+    <row r="66" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>396</v>
       </c>
@@ -29376,7 +29394,7 @@
       <c r="T66" s="19"/>
       <c r="U66" s="164"/>
     </row>
-    <row r="67" spans="1:21" ht="105.6">
+    <row r="67" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>401</v>
       </c>
@@ -29421,7 +29439,7 @@
       <c r="T67" s="19"/>
       <c r="U67" s="164"/>
     </row>
-    <row r="68" spans="1:21" ht="92.45">
+    <row r="68" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>405</v>
       </c>
@@ -29468,7 +29486,7 @@
       <c r="T68" s="19"/>
       <c r="U68" s="164"/>
     </row>
-    <row r="69" spans="1:21" ht="105.6">
+    <row r="69" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>409</v>
       </c>
@@ -29515,7 +29533,7 @@
       <c r="T69" s="19"/>
       <c r="U69" s="164"/>
     </row>
-    <row r="70" spans="1:21" ht="105.6">
+    <row r="70" spans="1:21" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>413</v>
       </c>
@@ -29560,7 +29578,7 @@
       <c r="T70" s="19"/>
       <c r="U70" s="164"/>
     </row>
-    <row r="71" spans="1:21" ht="171.6">
+    <row r="71" spans="1:21" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>417</v>
       </c>
@@ -29607,7 +29625,7 @@
       <c r="T71" s="164"/>
       <c r="U71" s="164"/>
     </row>
-    <row r="72" spans="1:21" ht="290.45">
+    <row r="72" spans="1:21" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>422</v>
       </c>
@@ -29654,7 +29672,7 @@
       <c r="T72" s="164"/>
       <c r="U72" s="164"/>
     </row>
-    <row r="73" spans="1:21" ht="303.60000000000002">
+    <row r="73" spans="1:21" ht="293.25" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>427</v>
       </c>
@@ -29701,7 +29719,7 @@
       <c r="T73" s="164"/>
       <c r="U73" s="164"/>
     </row>
-    <row r="74" spans="1:21" ht="92.45">
+    <row r="74" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>431</v>
       </c>
@@ -29748,7 +29766,7 @@
       <c r="T74" s="164"/>
       <c r="U74" s="164"/>
     </row>
-    <row r="75" spans="1:21" ht="118.9">
+    <row r="75" spans="1:21" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>435</v>
       </c>
@@ -29791,7 +29809,7 @@
       <c r="T75" s="164"/>
       <c r="U75" s="164"/>
     </row>
-    <row r="76" spans="1:21" ht="211.15">
+    <row r="76" spans="1:21" ht="204" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>439</v>
       </c>
@@ -29838,7 +29856,7 @@
       <c r="T76" s="164"/>
       <c r="U76" s="164"/>
     </row>
-    <row r="77" spans="1:21" ht="92.45">
+    <row r="77" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>444</v>
       </c>
@@ -29883,7 +29901,7 @@
       <c r="T77" s="164"/>
       <c r="U77" s="164"/>
     </row>
-    <row r="78" spans="1:21" ht="79.150000000000006">
+    <row r="78" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>448</v>
       </c>
@@ -29928,7 +29946,7 @@
       <c r="T78" s="164"/>
       <c r="U78" s="164"/>
     </row>
-    <row r="79" spans="1:21" ht="105.6">
+    <row r="79" spans="1:21" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>452</v>
       </c>
@@ -29975,7 +29993,7 @@
       <c r="T79" s="164"/>
       <c r="U79" s="164"/>
     </row>
-    <row r="80" spans="1:21" ht="224.45">
+    <row r="80" spans="1:21" ht="229.5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>456</v>
       </c>
@@ -30022,7 +30040,7 @@
       <c r="T80" s="164"/>
       <c r="U80" s="164"/>
     </row>
-    <row r="81" spans="1:21" ht="369.6">
+    <row r="81" spans="1:21" ht="357" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>461</v>
       </c>
@@ -30069,7 +30087,7 @@
       <c r="T81" s="164"/>
       <c r="U81" s="164"/>
     </row>
-    <row r="82" spans="1:21" ht="92.45">
+    <row r="82" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>466</v>
       </c>
@@ -30116,7 +30134,7 @@
       <c r="T82" s="164"/>
       <c r="U82" s="164"/>
     </row>
-    <row r="83" spans="1:21" ht="211.15">
+    <row r="83" spans="1:21" ht="204" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>470</v>
       </c>
@@ -30159,7 +30177,7 @@
       <c r="T83" s="164"/>
       <c r="U83" s="164"/>
     </row>
-    <row r="84" spans="1:21" ht="79.150000000000006">
+    <row r="84" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>475</v>
       </c>
@@ -30202,7 +30220,7 @@
       <c r="T84" s="164"/>
       <c r="U84" s="164"/>
     </row>
-    <row r="85" spans="1:21" ht="105.6">
+    <row r="85" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A85" s="31" t="s">
         <v>479</v>
       </c>
@@ -30247,7 +30265,7 @@
       <c r="T85" s="164"/>
       <c r="U85" s="164"/>
     </row>
-    <row r="86" spans="1:21" ht="132">
+    <row r="86" spans="1:21" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A86" s="31" t="s">
         <v>484</v>
       </c>
@@ -30292,7 +30310,7 @@
       <c r="T86" s="164"/>
       <c r="U86" s="164"/>
     </row>
-    <row r="87" spans="1:21" ht="211.15">
+    <row r="87" spans="1:21" ht="204" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>489</v>
       </c>
@@ -30337,7 +30355,7 @@
       <c r="T87" s="164"/>
       <c r="U87" s="164"/>
     </row>
-    <row r="88" spans="1:21" ht="118.9">
+    <row r="88" spans="1:21" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>494</v>
       </c>
@@ -30382,7 +30400,7 @@
       <c r="T88" s="164"/>
       <c r="U88" s="164"/>
     </row>
-    <row r="89" spans="1:21" ht="118.9">
+    <row r="89" spans="1:21" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>498</v>
       </c>
@@ -30427,7 +30445,7 @@
       <c r="T89" s="164"/>
       <c r="U89" s="164"/>
     </row>
-    <row r="90" spans="1:21" ht="66">
+    <row r="90" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>502</v>
       </c>
@@ -30472,7 +30490,7 @@
       <c r="T90" s="164"/>
       <c r="U90" s="164"/>
     </row>
-    <row r="91" spans="1:21" ht="158.44999999999999">
+    <row r="91" spans="1:21" ht="153" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>506</v>
       </c>
@@ -30519,7 +30537,7 @@
       <c r="T91" s="164"/>
       <c r="U91" s="164"/>
     </row>
-    <row r="92" spans="1:21" ht="224.45">
+    <row r="92" spans="1:21" ht="216.75" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>510</v>
       </c>
@@ -30564,7 +30582,7 @@
       <c r="T92" s="164"/>
       <c r="U92" s="164"/>
     </row>
-    <row r="93" spans="1:21" ht="92.45">
+    <row r="93" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>515</v>
       </c>
@@ -30609,7 +30627,7 @@
       <c r="T93" s="164"/>
       <c r="U93" s="164"/>
     </row>
-    <row r="94" spans="1:21" ht="66">
+    <row r="94" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>519</v>
       </c>
@@ -30656,7 +30674,7 @@
       <c r="T94" s="164"/>
       <c r="U94" s="164"/>
     </row>
-    <row r="95" spans="1:21" ht="132">
+    <row r="95" spans="1:21" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>523</v>
       </c>
@@ -30701,7 +30719,7 @@
       <c r="T95" s="164"/>
       <c r="U95" s="164"/>
     </row>
-    <row r="96" spans="1:21" ht="132">
+    <row r="96" spans="1:21" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>527</v>
       </c>
@@ -30746,7 +30764,7 @@
       <c r="T96" s="164"/>
       <c r="U96" s="164"/>
     </row>
-    <row r="97" spans="1:21" ht="92.45">
+    <row r="97" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>532</v>
       </c>
@@ -30791,7 +30809,7 @@
       <c r="T97" s="164"/>
       <c r="U97" s="164"/>
     </row>
-    <row r="98" spans="1:21" ht="92.45">
+    <row r="98" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>536</v>
       </c>
@@ -30836,7 +30854,7 @@
       <c r="T98" s="164"/>
       <c r="U98" s="164"/>
     </row>
-    <row r="99" spans="1:21" ht="66">
+    <row r="99" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>540</v>
       </c>
@@ -30881,7 +30899,7 @@
       <c r="T99" s="164"/>
       <c r="U99" s="164"/>
     </row>
-    <row r="100" spans="1:21" ht="290.45">
+    <row r="100" spans="1:21" ht="293.25" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>544</v>
       </c>
@@ -30926,7 +30944,7 @@
       <c r="T100" s="164"/>
       <c r="U100" s="164"/>
     </row>
-    <row r="101" spans="1:21" ht="92.45">
+    <row r="101" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>549</v>
       </c>
@@ -30971,7 +30989,7 @@
       <c r="T101" s="164"/>
       <c r="U101" s="164"/>
     </row>
-    <row r="102" spans="1:21" ht="66">
+    <row r="102" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>553</v>
       </c>
@@ -31016,7 +31034,7 @@
       <c r="T102" s="164"/>
       <c r="U102" s="164"/>
     </row>
-    <row r="103" spans="1:21" ht="184.9">
+    <row r="103" spans="1:21" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>557</v>
       </c>
@@ -31061,7 +31079,7 @@
       <c r="T103" s="164"/>
       <c r="U103" s="164"/>
     </row>
-    <row r="104" spans="1:21" ht="92.45">
+    <row r="104" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>561</v>
       </c>
@@ -31106,7 +31124,7 @@
       <c r="T104" s="164"/>
       <c r="U104" s="164"/>
     </row>
-    <row r="105" spans="1:21" ht="118.9">
+    <row r="105" spans="1:21" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>565</v>
       </c>
@@ -31151,7 +31169,7 @@
       <c r="T105" s="164"/>
       <c r="U105" s="164"/>
     </row>
-    <row r="106" spans="1:21" ht="198">
+    <row r="106" spans="1:21" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>569</v>
       </c>
@@ -31196,7 +31214,7 @@
       <c r="T106" s="164"/>
       <c r="U106" s="164"/>
     </row>
-    <row r="107" spans="1:21" ht="92.45">
+    <row r="107" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>574</v>
       </c>
@@ -31239,7 +31257,7 @@
       <c r="T107" s="164"/>
       <c r="U107" s="164"/>
     </row>
-    <row r="108" spans="1:21" ht="79.150000000000006">
+    <row r="108" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>577</v>
       </c>
@@ -31284,7 +31302,7 @@
       <c r="T108" s="164"/>
       <c r="U108" s="164"/>
     </row>
-    <row r="109" spans="1:21" ht="132">
+    <row r="109" spans="1:21" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>581</v>
       </c>
@@ -31329,7 +31347,7 @@
       <c r="T109" s="164"/>
       <c r="U109" s="164"/>
     </row>
-    <row r="110" spans="1:21" ht="92.45">
+    <row r="110" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>585</v>
       </c>
@@ -31374,7 +31392,7 @@
       <c r="T110" s="164"/>
       <c r="U110" s="164"/>
     </row>
-    <row r="111" spans="1:21" ht="224.45">
+    <row r="111" spans="1:21" ht="229.5" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>589</v>
       </c>
@@ -31419,7 +31437,7 @@
       <c r="T111" s="164"/>
       <c r="U111" s="164"/>
     </row>
-    <row r="112" spans="1:21" ht="118.9">
+    <row r="112" spans="1:21" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>594</v>
       </c>
@@ -31466,7 +31484,7 @@
       <c r="T112" s="164"/>
       <c r="U112" s="164"/>
     </row>
-    <row r="113" spans="1:21" ht="79.150000000000006">
+    <row r="113" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>599</v>
       </c>
@@ -31513,7 +31531,7 @@
       <c r="T113" s="164"/>
       <c r="U113" s="164"/>
     </row>
-    <row r="114" spans="1:21" ht="132">
+    <row r="114" spans="1:21" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>603</v>
       </c>
@@ -31558,7 +31576,7 @@
       <c r="T114" s="164"/>
       <c r="U114" s="164"/>
     </row>
-    <row r="115" spans="1:21" ht="171.6">
+    <row r="115" spans="1:21" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>608</v>
       </c>
@@ -31605,7 +31623,7 @@
       <c r="T115" s="164"/>
       <c r="U115" s="164"/>
     </row>
-    <row r="116" spans="1:21" ht="396">
+    <row r="116" spans="1:21" ht="395.25" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>612</v>
       </c>
@@ -31652,7 +31670,7 @@
       <c r="T116" s="164"/>
       <c r="U116" s="164"/>
     </row>
-    <row r="117" spans="1:21" ht="52.9">
+    <row r="117" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>617</v>
       </c>
@@ -31699,7 +31717,7 @@
       <c r="T117" s="164"/>
       <c r="U117" s="164"/>
     </row>
-    <row r="118" spans="1:21" ht="52.9">
+    <row r="118" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>621</v>
       </c>
@@ -31746,7 +31764,7 @@
       <c r="T118" s="164"/>
       <c r="U118" s="164"/>
     </row>
-    <row r="119" spans="1:21" ht="79.150000000000006">
+    <row r="119" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>625</v>
       </c>
@@ -31793,7 +31811,7 @@
       <c r="T119" s="164"/>
       <c r="U119" s="164"/>
     </row>
-    <row r="120" spans="1:21" ht="66">
+    <row r="120" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>629</v>
       </c>
@@ -31834,7 +31852,7 @@
       <c r="T120" s="164"/>
       <c r="U120" s="164"/>
     </row>
-    <row r="121" spans="1:21" ht="79.150000000000006">
+    <row r="121" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>633</v>
       </c>
@@ -31875,7 +31893,7 @@
       <c r="T121" s="164"/>
       <c r="U121" s="164"/>
     </row>
-    <row r="122" spans="1:21" ht="92.45">
+    <row r="122" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>637</v>
       </c>
@@ -31916,7 +31934,7 @@
       <c r="T122" s="164"/>
       <c r="U122" s="164"/>
     </row>
-    <row r="123" spans="1:21" ht="158.44999999999999">
+    <row r="123" spans="1:21" ht="153" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>640</v>
       </c>
@@ -31963,7 +31981,7 @@
       <c r="T123" s="164"/>
       <c r="U123" s="164"/>
     </row>
-    <row r="124" spans="1:21" ht="118.9">
+    <row r="124" spans="1:21" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>644</v>
       </c>
@@ -32010,7 +32028,7 @@
       <c r="T124" s="164"/>
       <c r="U124" s="164"/>
     </row>
-    <row r="125" spans="1:21" ht="92.45">
+    <row r="125" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>648</v>
       </c>
@@ -32057,7 +32075,7 @@
       <c r="T125" s="164"/>
       <c r="U125" s="164"/>
     </row>
-    <row r="126" spans="1:21" ht="79.150000000000006">
+    <row r="126" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>653</v>
       </c>
@@ -32104,7 +32122,7 @@
       <c r="T126" s="164"/>
       <c r="U126" s="164"/>
     </row>
-    <row r="127" spans="1:21" ht="92.45">
+    <row r="127" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>657</v>
       </c>
@@ -32145,7 +32163,7 @@
       <c r="T127" s="164"/>
       <c r="U127" s="164"/>
     </row>
-    <row r="128" spans="1:21" ht="92.45">
+    <row r="128" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>661</v>
       </c>
@@ -32192,7 +32210,7 @@
       <c r="T128" s="164"/>
       <c r="U128" s="164"/>
     </row>
-    <row r="129" spans="1:21" ht="79.150000000000006">
+    <row r="129" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>666</v>
       </c>
@@ -32239,7 +32257,7 @@
       <c r="T129" s="164"/>
       <c r="U129" s="164"/>
     </row>
-    <row r="130" spans="1:21" ht="66">
+    <row r="130" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>670</v>
       </c>
@@ -32278,7 +32296,7 @@
       <c r="T130" s="164"/>
       <c r="U130" s="164"/>
     </row>
-    <row r="131" spans="1:21" ht="79.150000000000006">
+    <row r="131" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>673</v>
       </c>
@@ -32325,7 +32343,7 @@
       <c r="T131" s="164"/>
       <c r="U131" s="164"/>
     </row>
-    <row r="132" spans="1:21" ht="171.6">
+    <row r="132" spans="1:21" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>677</v>
       </c>
@@ -32372,7 +32390,7 @@
       <c r="T132" s="164"/>
       <c r="U132" s="164"/>
     </row>
-    <row r="133" spans="1:21" ht="79.150000000000006">
+    <row r="133" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>682</v>
       </c>
@@ -32419,7 +32437,7 @@
       <c r="T133" s="164"/>
       <c r="U133" s="164"/>
     </row>
-    <row r="134" spans="1:21" ht="52.9">
+    <row r="134" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>686</v>
       </c>
@@ -32466,7 +32484,7 @@
       <c r="T134" s="164"/>
       <c r="U134" s="164"/>
     </row>
-    <row r="135" spans="1:21" ht="52.9">
+    <row r="135" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>690</v>
       </c>
@@ -32513,7 +32531,7 @@
       <c r="T135" s="164"/>
       <c r="U135" s="164"/>
     </row>
-    <row r="136" spans="1:21" ht="52.9">
+    <row r="136" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>694</v>
       </c>
@@ -32554,7 +32572,7 @@
       <c r="T136" s="164"/>
       <c r="U136" s="164"/>
     </row>
-    <row r="137" spans="1:21" ht="92.45">
+    <row r="137" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>698</v>
       </c>
@@ -32601,7 +32619,7 @@
       <c r="T137" s="164"/>
       <c r="U137" s="164"/>
     </row>
-    <row r="138" spans="1:21" ht="132">
+    <row r="138" spans="1:21" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>703</v>
       </c>
@@ -32648,7 +32666,7 @@
       <c r="T138" s="164"/>
       <c r="U138" s="164"/>
     </row>
-    <row r="139" spans="1:21" ht="66">
+    <row r="139" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>707</v>
       </c>
@@ -32693,7 +32711,7 @@
       <c r="T139" s="164"/>
       <c r="U139" s="164"/>
     </row>
-    <row r="140" spans="1:21" ht="92.45">
+    <row r="140" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>710</v>
       </c>
@@ -32734,7 +32752,7 @@
       <c r="T140" s="164"/>
       <c r="U140" s="164"/>
     </row>
-    <row r="141" spans="1:21" ht="79.150000000000006">
+    <row r="141" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>714</v>
       </c>
@@ -32773,7 +32791,7 @@
       <c r="T141" s="164"/>
       <c r="U141" s="164"/>
     </row>
-    <row r="142" spans="1:21" ht="145.15">
+    <row r="142" spans="1:21" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>717</v>
       </c>
@@ -32820,7 +32838,7 @@
       <c r="T142" s="164"/>
       <c r="U142" s="164"/>
     </row>
-    <row r="143" spans="1:21" ht="66">
+    <row r="143" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>721</v>
       </c>
@@ -32867,7 +32885,7 @@
       <c r="T143" s="164"/>
       <c r="U143" s="164"/>
     </row>
-    <row r="144" spans="1:21" ht="66">
+    <row r="144" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>725</v>
       </c>
@@ -32908,7 +32926,7 @@
       <c r="T144" s="164"/>
       <c r="U144" s="164"/>
     </row>
-    <row r="145" spans="1:21" ht="79.150000000000006">
+    <row r="145" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>728</v>
       </c>
@@ -32955,7 +32973,7 @@
       <c r="T145" s="164"/>
       <c r="U145" s="164"/>
     </row>
-    <row r="146" spans="1:21" ht="66">
+    <row r="146" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>732</v>
       </c>
@@ -32996,7 +33014,7 @@
       <c r="T146" s="164"/>
       <c r="U146" s="164"/>
     </row>
-    <row r="147" spans="1:21" ht="66">
+    <row r="147" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>736</v>
       </c>
@@ -33037,7 +33055,7 @@
       <c r="T147" s="164"/>
       <c r="U147" s="164"/>
     </row>
-    <row r="148" spans="1:21" ht="145.15">
+    <row r="148" spans="1:21" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>740</v>
       </c>
@@ -33084,7 +33102,7 @@
       <c r="T148" s="164"/>
       <c r="U148" s="164"/>
     </row>
-    <row r="149" spans="1:21" ht="79.150000000000006">
+    <row r="149" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>744</v>
       </c>
@@ -33131,7 +33149,7 @@
       <c r="T149" s="164"/>
       <c r="U149" s="164"/>
     </row>
-    <row r="150" spans="1:21" ht="79.150000000000006">
+    <row r="150" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>748</v>
       </c>
@@ -33172,7 +33190,7 @@
       <c r="T150" s="164"/>
       <c r="U150" s="164"/>
     </row>
-    <row r="151" spans="1:21" ht="145.15">
+    <row r="151" spans="1:21" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>752</v>
       </c>
@@ -33219,7 +33237,7 @@
       <c r="T151" s="164"/>
       <c r="U151" s="164"/>
     </row>
-    <row r="152" spans="1:21" ht="330">
+    <row r="152" spans="1:21" ht="331.5" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>757</v>
       </c>
@@ -33264,7 +33282,7 @@
       <c r="T152" s="164"/>
       <c r="U152" s="164"/>
     </row>
-    <row r="153" spans="1:21" ht="105.6">
+    <row r="153" spans="1:21" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>762</v>
       </c>
@@ -33309,7 +33327,7 @@
       <c r="T153" s="164"/>
       <c r="U153" s="164"/>
     </row>
-    <row r="154" spans="1:21" ht="105.6">
+    <row r="154" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>765</v>
       </c>
@@ -33354,7 +33372,7 @@
       <c r="T154" s="164"/>
       <c r="U154" s="164"/>
     </row>
-    <row r="155" spans="1:21" ht="132">
+    <row r="155" spans="1:21" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>768</v>
       </c>
@@ -33395,7 +33413,7 @@
       <c r="T155" s="164"/>
       <c r="U155" s="164"/>
     </row>
-    <row r="156" spans="1:21" ht="132">
+    <row r="156" spans="1:21" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>771</v>
       </c>
@@ -33440,7 +33458,7 @@
       <c r="T156" s="164"/>
       <c r="U156" s="164"/>
     </row>
-    <row r="157" spans="1:21" ht="105.6">
+    <row r="157" spans="1:21" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>775</v>
       </c>
@@ -33485,7 +33503,7 @@
       <c r="T157" s="164"/>
       <c r="U157" s="164"/>
     </row>
-    <row r="158" spans="1:21" ht="118.9">
+    <row r="158" spans="1:21" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>779</v>
       </c>
@@ -33530,7 +33548,7 @@
       <c r="T158" s="164"/>
       <c r="U158" s="164"/>
     </row>
-    <row r="159" spans="1:21" ht="158.44999999999999">
+    <row r="159" spans="1:21" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>784</v>
       </c>
@@ -33577,7 +33595,7 @@
       <c r="T159" s="164"/>
       <c r="U159" s="164"/>
     </row>
-    <row r="160" spans="1:21" ht="52.9">
+    <row r="160" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>789</v>
       </c>
@@ -33616,7 +33634,7 @@
       <c r="T160" s="164"/>
       <c r="U160" s="164"/>
     </row>
-    <row r="161" spans="1:21" ht="66">
+    <row r="161" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>792</v>
       </c>
@@ -33657,7 +33675,7 @@
       <c r="T161" s="164"/>
       <c r="U161" s="164"/>
     </row>
-    <row r="162" spans="1:21" ht="52.9">
+    <row r="162" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>796</v>
       </c>
@@ -33704,7 +33722,7 @@
       <c r="T162" s="164"/>
       <c r="U162" s="164"/>
     </row>
-    <row r="163" spans="1:21" ht="409.6">
+    <row r="163" spans="1:21" ht="408" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>800</v>
       </c>
@@ -33751,7 +33769,7 @@
       <c r="T163" s="164"/>
       <c r="U163" s="164"/>
     </row>
-    <row r="164" spans="1:21" ht="264">
+    <row r="164" spans="1:21" ht="255" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>805</v>
       </c>
@@ -33796,7 +33814,7 @@
       <c r="T164" s="164"/>
       <c r="U164" s="164"/>
     </row>
-    <row r="165" spans="1:21" ht="158.44999999999999">
+    <row r="165" spans="1:21" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>809</v>
       </c>
@@ -33841,7 +33859,7 @@
       <c r="T165" s="164"/>
       <c r="U165" s="164"/>
     </row>
-    <row r="166" spans="1:21" ht="79.150000000000006">
+    <row r="166" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>813</v>
       </c>
@@ -33886,7 +33904,7 @@
       <c r="T166" s="164"/>
       <c r="U166" s="164"/>
     </row>
-    <row r="167" spans="1:21" ht="92.45">
+    <row r="167" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>816</v>
       </c>
@@ -33933,7 +33951,7 @@
       <c r="T167" s="164"/>
       <c r="U167" s="164"/>
     </row>
-    <row r="168" spans="1:21" ht="66">
+    <row r="168" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>820</v>
       </c>
@@ -33980,7 +33998,7 @@
       <c r="T168" s="164"/>
       <c r="U168" s="164"/>
     </row>
-    <row r="169" spans="1:21" ht="79.150000000000006">
+    <row r="169" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>824</v>
       </c>
@@ -34027,7 +34045,7 @@
       <c r="T169" s="164"/>
       <c r="U169" s="164"/>
     </row>
-    <row r="170" spans="1:21" ht="79.150000000000006">
+    <row r="170" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>828</v>
       </c>
@@ -34068,7 +34086,7 @@
       <c r="T170" s="164"/>
       <c r="U170" s="164"/>
     </row>
-    <row r="171" spans="1:21" ht="66">
+    <row r="171" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>832</v>
       </c>
@@ -34113,7 +34131,7 @@
       <c r="T171" s="164"/>
       <c r="U171" s="164"/>
     </row>
-    <row r="172" spans="1:21" ht="118.9">
+    <row r="172" spans="1:21" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>836</v>
       </c>
@@ -34158,7 +34176,7 @@
       <c r="T172" s="164"/>
       <c r="U172" s="164"/>
     </row>
-    <row r="173" spans="1:21" ht="52.9">
+    <row r="173" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>841</v>
       </c>
@@ -34203,7 +34221,7 @@
       <c r="T173" s="164"/>
       <c r="U173" s="164"/>
     </row>
-    <row r="174" spans="1:21" ht="132">
+    <row r="174" spans="1:21" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>846</v>
       </c>
@@ -34248,7 +34266,7 @@
       <c r="T174" s="164"/>
       <c r="U174" s="164"/>
     </row>
-    <row r="175" spans="1:21" ht="184.9">
+    <row r="175" spans="1:21" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>851</v>
       </c>
@@ -34295,7 +34313,7 @@
       <c r="T175" s="95"/>
       <c r="U175" s="164"/>
     </row>
-    <row r="176" spans="1:21" ht="118.9">
+    <row r="176" spans="1:21" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>855</v>
       </c>
@@ -34342,7 +34360,7 @@
       <c r="T176" s="95"/>
       <c r="U176" s="164"/>
     </row>
-    <row r="177" spans="1:21" ht="79.150000000000006">
+    <row r="177" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>859</v>
       </c>
@@ -34389,7 +34407,7 @@
       <c r="T177" s="95"/>
       <c r="U177" s="164"/>
     </row>
-    <row r="178" spans="1:21" ht="79.150000000000006">
+    <row r="178" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>864</v>
       </c>
@@ -34436,7 +34454,7 @@
       <c r="T178" s="95"/>
       <c r="U178" s="164"/>
     </row>
-    <row r="179" spans="1:21" ht="132">
+    <row r="179" spans="1:21" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>868</v>
       </c>
@@ -34483,7 +34501,7 @@
       <c r="T179" s="95"/>
       <c r="U179" s="164"/>
     </row>
-    <row r="180" spans="1:21" ht="79.150000000000006">
+    <row r="180" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>873</v>
       </c>
@@ -34526,7 +34544,7 @@
       <c r="T180" s="95"/>
       <c r="U180" s="164"/>
     </row>
-    <row r="181" spans="1:21" ht="66">
+    <row r="181" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>877</v>
       </c>
@@ -34567,7 +34585,7 @@
       <c r="T181" s="95"/>
       <c r="U181" s="164"/>
     </row>
-    <row r="182" spans="1:21" ht="66">
+    <row r="182" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>881</v>
       </c>
@@ -34614,7 +34632,7 @@
       <c r="T182" s="95"/>
       <c r="U182" s="164"/>
     </row>
-    <row r="183" spans="1:21" ht="66">
+    <row r="183" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>885</v>
       </c>
@@ -34661,7 +34679,7 @@
       <c r="T183" s="95"/>
       <c r="U183" s="164"/>
     </row>
-    <row r="184" spans="1:21" ht="52.9">
+    <row r="184" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>890</v>
       </c>
@@ -34708,7 +34726,7 @@
       <c r="T184" s="95"/>
       <c r="U184" s="164"/>
     </row>
-    <row r="185" spans="1:21" ht="52.9">
+    <row r="185" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>894</v>
       </c>
@@ -34755,7 +34773,7 @@
       <c r="T185" s="95"/>
       <c r="U185" s="164"/>
     </row>
-    <row r="186" spans="1:21" ht="105.6">
+    <row r="186" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>899</v>
       </c>
@@ -34802,7 +34820,7 @@
       <c r="T186" s="95"/>
       <c r="U186" s="164"/>
     </row>
-    <row r="187" spans="1:21" ht="92.45">
+    <row r="187" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>903</v>
       </c>
@@ -34849,7 +34867,7 @@
       <c r="T187" s="95"/>
       <c r="U187" s="164"/>
     </row>
-    <row r="188" spans="1:21" ht="382.9">
+    <row r="188" spans="1:21" ht="369.75" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>907</v>
       </c>
@@ -34896,7 +34914,7 @@
       <c r="T188" s="95"/>
       <c r="U188" s="164"/>
     </row>
-    <row r="189" spans="1:21" ht="198">
+    <row r="189" spans="1:21" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>912</v>
       </c>
@@ -34943,7 +34961,7 @@
       <c r="T189" s="95"/>
       <c r="U189" s="164"/>
     </row>
-    <row r="190" spans="1:21" ht="66">
+    <row r="190" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>916</v>
       </c>
@@ -34988,7 +35006,7 @@
       <c r="T190" s="95"/>
       <c r="U190" s="164"/>
     </row>
-    <row r="191" spans="1:21" ht="52.9">
+    <row r="191" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>919</v>
       </c>
@@ -35033,7 +35051,7 @@
       <c r="T191" s="95"/>
       <c r="U191" s="164"/>
     </row>
-    <row r="192" spans="1:21" ht="66">
+    <row r="192" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>922</v>
       </c>
@@ -35080,7 +35098,7 @@
       <c r="T192" s="95"/>
       <c r="U192" s="164"/>
     </row>
-    <row r="193" spans="1:21" ht="79.150000000000006">
+    <row r="193" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>926</v>
       </c>
@@ -35127,7 +35145,7 @@
       <c r="T193" s="168"/>
       <c r="U193" s="164"/>
     </row>
-    <row r="194" spans="1:21" ht="132">
+    <row r="194" spans="1:21" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>930</v>
       </c>
@@ -35172,7 +35190,7 @@
       <c r="T194" s="168"/>
       <c r="U194" s="164"/>
     </row>
-    <row r="195" spans="1:21" ht="290.45">
+    <row r="195" spans="1:21" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>934</v>
       </c>
@@ -35217,7 +35235,7 @@
       <c r="T195" s="168"/>
       <c r="U195" s="164"/>
     </row>
-    <row r="196" spans="1:21" ht="118.9">
+    <row r="196" spans="1:21" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>938</v>
       </c>
@@ -35262,7 +35280,7 @@
       <c r="T196" s="168"/>
       <c r="U196" s="164"/>
     </row>
-    <row r="197" spans="1:21" ht="39.6">
+    <row r="197" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>942</v>
       </c>
@@ -35307,7 +35325,7 @@
       <c r="T197" s="168"/>
       <c r="U197" s="164"/>
     </row>
-    <row r="198" spans="1:21" ht="52.9">
+    <row r="198" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>946</v>
       </c>
@@ -35352,7 +35370,7 @@
       <c r="T198" s="168"/>
       <c r="U198" s="164"/>
     </row>
-    <row r="199" spans="1:21" ht="118.9">
+    <row r="199" spans="1:21" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>950</v>
       </c>
@@ -35397,7 +35415,7 @@
       <c r="T199" s="168"/>
       <c r="U199" s="164"/>
     </row>
-    <row r="200" spans="1:21" ht="132">
+    <row r="200" spans="1:21" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>954</v>
       </c>
@@ -35442,7 +35460,7 @@
       <c r="T200" s="168"/>
       <c r="U200" s="164"/>
     </row>
-    <row r="201" spans="1:21" ht="79.150000000000006">
+    <row r="201" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>959</v>
       </c>
@@ -35487,7 +35505,7 @@
       <c r="T201" s="168"/>
       <c r="U201" s="164"/>
     </row>
-    <row r="202" spans="1:21" ht="66">
+    <row r="202" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>963</v>
       </c>
@@ -35530,7 +35548,7 @@
       <c r="T202" s="168"/>
       <c r="U202" s="164"/>
     </row>
-    <row r="203" spans="1:21" ht="171.6">
+    <row r="203" spans="1:21" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>966</v>
       </c>
@@ -35575,7 +35593,7 @@
       <c r="T203" s="168"/>
       <c r="U203" s="164"/>
     </row>
-    <row r="204" spans="1:21" ht="52.9">
+    <row r="204" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>970</v>
       </c>
@@ -35620,7 +35638,7 @@
       <c r="T204" s="168"/>
       <c r="U204" s="164"/>
     </row>
-    <row r="205" spans="1:21" ht="145.15">
+    <row r="205" spans="1:21" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>973</v>
       </c>
@@ -35665,7 +35683,7 @@
       <c r="T205" s="168"/>
       <c r="U205" s="164"/>
     </row>
-    <row r="206" spans="1:21" ht="250.9">
+    <row r="206" spans="1:21" ht="255" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>977</v>
       </c>
@@ -35710,7 +35728,7 @@
       <c r="T206" s="168"/>
       <c r="U206" s="164"/>
     </row>
-    <row r="207" spans="1:21" ht="52.9">
+    <row r="207" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>981</v>
       </c>
@@ -35755,7 +35773,7 @@
       <c r="T207" s="168"/>
       <c r="U207" s="164"/>
     </row>
-    <row r="208" spans="1:21" ht="132">
+    <row r="208" spans="1:21" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>985</v>
       </c>
@@ -35802,7 +35820,7 @@
       <c r="T208" s="168"/>
       <c r="U208" s="164"/>
     </row>
-    <row r="209" spans="1:21" ht="105.6">
+    <row r="209" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>989</v>
       </c>
@@ -35849,7 +35867,7 @@
       <c r="T209" s="168"/>
       <c r="U209" s="164"/>
     </row>
-    <row r="210" spans="1:21" ht="118.9">
+    <row r="210" spans="1:21" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>993</v>
       </c>
@@ -35896,7 +35914,7 @@
       <c r="T210" s="168"/>
       <c r="U210" s="164"/>
     </row>
-    <row r="211" spans="1:21" ht="184.9">
+    <row r="211" spans="1:21" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>997</v>
       </c>
@@ -35943,7 +35961,7 @@
       <c r="T211" s="168"/>
       <c r="U211" s="164"/>
     </row>
-    <row r="212" spans="1:21" ht="277.14999999999998">
+    <row r="212" spans="1:21" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>1001</v>
       </c>
@@ -35990,7 +36008,7 @@
       <c r="T212" s="168"/>
       <c r="U212" s="164"/>
     </row>
-    <row r="213" spans="1:21" ht="66">
+    <row r="213" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>1005</v>
       </c>
@@ -36037,7 +36055,7 @@
       <c r="T213" s="168"/>
       <c r="U213" s="164"/>
     </row>
-    <row r="214" spans="1:21" ht="184.9">
+    <row r="214" spans="1:21" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>1009</v>
       </c>
@@ -36084,7 +36102,7 @@
       <c r="T214" s="168"/>
       <c r="U214" s="164"/>
     </row>
-    <row r="215" spans="1:21" ht="79.150000000000006">
+    <row r="215" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>1014</v>
       </c>
@@ -36131,7 +36149,7 @@
       <c r="T215" s="168"/>
       <c r="U215" s="164"/>
     </row>
-    <row r="216" spans="1:21" ht="52.9">
+    <row r="216" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>1018</v>
       </c>
@@ -36178,7 +36196,7 @@
       <c r="T216" s="168"/>
       <c r="U216" s="164"/>
     </row>
-    <row r="217" spans="1:21" ht="118.9">
+    <row r="217" spans="1:21" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>1022</v>
       </c>
@@ -36219,7 +36237,7 @@
       <c r="T217" s="168"/>
       <c r="U217" s="164"/>
     </row>
-    <row r="218" spans="1:21" ht="198">
+    <row r="218" spans="1:21" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>1026</v>
       </c>
@@ -36266,7 +36284,7 @@
       <c r="T218" s="168"/>
       <c r="U218" s="164"/>
     </row>
-    <row r="219" spans="1:21" ht="52.9">
+    <row r="219" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>1030</v>
       </c>
@@ -36313,7 +36331,7 @@
       <c r="T219" s="168"/>
       <c r="U219" s="164"/>
     </row>
-    <row r="220" spans="1:21" ht="171.6">
+    <row r="220" spans="1:21" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>1034</v>
       </c>
@@ -36354,7 +36372,7 @@
       <c r="T220" s="168"/>
       <c r="U220" s="164"/>
     </row>
-    <row r="221" spans="1:21" ht="52.9">
+    <row r="221" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>1039</v>
       </c>
@@ -36395,7 +36413,7 @@
       <c r="T221" s="168"/>
       <c r="U221" s="164"/>
     </row>
-    <row r="222" spans="1:21" ht="184.9">
+    <row r="222" spans="1:21" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>1043</v>
       </c>
@@ -36434,7 +36452,7 @@
       <c r="T222" s="168"/>
       <c r="U222" s="164"/>
     </row>
-    <row r="223" spans="1:21" ht="118.9">
+    <row r="223" spans="1:21" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>1047</v>
       </c>
@@ -36473,7 +36491,7 @@
       <c r="T223" s="168"/>
       <c r="U223" s="164"/>
     </row>
-    <row r="224" spans="1:21" ht="264">
+    <row r="224" spans="1:21" ht="255" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>1051</v>
       </c>
@@ -36512,7 +36530,7 @@
       <c r="T224" s="168"/>
       <c r="U224" s="164"/>
     </row>
-    <row r="225" spans="1:21" ht="66">
+    <row r="225" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>1055</v>
       </c>
@@ -36551,7 +36569,7 @@
       <c r="T225" s="168"/>
       <c r="U225" s="164"/>
     </row>
-    <row r="226" spans="1:21" ht="79.150000000000006">
+    <row r="226" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>1059</v>
       </c>
@@ -36590,7 +36608,7 @@
       <c r="T226" s="168"/>
       <c r="U226" s="164"/>
     </row>
-    <row r="227" spans="1:21" ht="66">
+    <row r="227" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>1063</v>
       </c>
@@ -36629,7 +36647,7 @@
       <c r="T227" s="168"/>
       <c r="U227" s="164"/>
     </row>
-    <row r="228" spans="1:21" ht="105.6">
+    <row r="228" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>1067</v>
       </c>
@@ -36668,7 +36686,7 @@
       <c r="T228" s="168"/>
       <c r="U228" s="164"/>
     </row>
-    <row r="229" spans="1:21" ht="92.45">
+    <row r="229" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>1071</v>
       </c>
@@ -36705,7 +36723,7 @@
       <c r="T229" s="168"/>
       <c r="U229" s="164"/>
     </row>
-    <row r="230" spans="1:21" ht="105.6">
+    <row r="230" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>1074</v>
       </c>
@@ -36744,7 +36762,7 @@
       <c r="T230" s="168"/>
       <c r="U230" s="164"/>
     </row>
-    <row r="231" spans="1:21" ht="39.6">
+    <row r="231" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>1078</v>
       </c>
@@ -36783,7 +36801,7 @@
       <c r="T231" s="168"/>
       <c r="U231" s="164"/>
     </row>
-    <row r="232" spans="1:21" ht="66">
+    <row r="232" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>1083</v>
       </c>
@@ -36822,7 +36840,7 @@
       <c r="T232" s="168"/>
       <c r="U232" s="164"/>
     </row>
-    <row r="233" spans="1:21" ht="105.6">
+    <row r="233" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>1088</v>
       </c>
@@ -36861,7 +36879,7 @@
       <c r="T233" s="168"/>
       <c r="U233" s="164"/>
     </row>
-    <row r="234" spans="1:21" ht="39.6">
+    <row r="234" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>1092</v>
       </c>
@@ -36900,7 +36918,7 @@
       <c r="T234" s="168"/>
       <c r="U234" s="164"/>
     </row>
-    <row r="235" spans="1:21" ht="52.9">
+    <row r="235" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>1096</v>
       </c>
@@ -36939,7 +36957,7 @@
       <c r="T235" s="168"/>
       <c r="U235" s="164"/>
     </row>
-    <row r="236" spans="1:21" ht="52.9">
+    <row r="236" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>1100</v>
       </c>
@@ -36978,7 +36996,7 @@
       <c r="T236" s="168"/>
       <c r="U236" s="164"/>
     </row>
-    <row r="237" spans="1:21" ht="52.9">
+    <row r="237" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>1104</v>
       </c>
@@ -37017,7 +37035,7 @@
       <c r="T237" s="168"/>
       <c r="U237" s="164"/>
     </row>
-    <row r="238" spans="1:21" ht="52.9">
+    <row r="238" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>1108</v>
       </c>
@@ -37054,7 +37072,7 @@
       <c r="T238" s="168"/>
       <c r="U238" s="164"/>
     </row>
-    <row r="239" spans="1:21" ht="66">
+    <row r="239" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>1111</v>
       </c>
@@ -37093,7 +37111,7 @@
       <c r="T239" s="168"/>
       <c r="U239" s="164"/>
     </row>
-    <row r="240" spans="1:21" ht="79.150000000000006">
+    <row r="240" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>1115</v>
       </c>
@@ -37130,7 +37148,7 @@
       <c r="T240" s="168"/>
       <c r="U240" s="164"/>
     </row>
-    <row r="241" spans="1:21" ht="52.9">
+    <row r="241" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>1118</v>
       </c>
@@ -37169,7 +37187,7 @@
       <c r="T241" s="168"/>
       <c r="U241" s="164"/>
     </row>
-    <row r="242" spans="1:21" ht="39.6">
+    <row r="242" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>1122</v>
       </c>
@@ -37208,7 +37226,7 @@
       <c r="T242" s="168"/>
       <c r="U242" s="164"/>
     </row>
-    <row r="243" spans="1:21" ht="92.45">
+    <row r="243" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>1126</v>
       </c>
@@ -37247,7 +37265,7 @@
       <c r="T243" s="168"/>
       <c r="U243" s="164"/>
     </row>
-    <row r="244" spans="1:21" ht="132">
+    <row r="244" spans="1:21" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>1131</v>
       </c>
@@ -37294,7 +37312,7 @@
       <c r="T244" s="168"/>
       <c r="U244" s="164"/>
     </row>
-    <row r="245" spans="1:21" ht="343.15">
+    <row r="245" spans="1:21" ht="331.5" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>1135</v>
       </c>
@@ -37341,7 +37359,7 @@
       <c r="T245" s="168"/>
       <c r="U245" s="164"/>
     </row>
-    <row r="246" spans="1:21" ht="92.45">
+    <row r="246" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>1139</v>
       </c>
@@ -37388,7 +37406,7 @@
       <c r="T246" s="168"/>
       <c r="U246" s="164"/>
     </row>
-    <row r="247" spans="1:21" ht="171.6">
+    <row r="247" spans="1:21" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>1143</v>
       </c>
@@ -37435,7 +37453,7 @@
       <c r="T247" s="168"/>
       <c r="U247" s="164"/>
     </row>
-    <row r="248" spans="1:21" ht="92.45">
+    <row r="248" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>1148</v>
       </c>
@@ -37482,7 +37500,7 @@
       <c r="T248" s="168"/>
       <c r="U248" s="164"/>
     </row>
-    <row r="249" spans="1:21" ht="330">
+    <row r="249" spans="1:21" ht="331.5" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>1152</v>
       </c>
@@ -37527,7 +37545,7 @@
       <c r="T249" s="168"/>
       <c r="U249" s="164"/>
     </row>
-    <row r="250" spans="1:21" ht="132">
+    <row r="250" spans="1:21" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>1157</v>
       </c>
@@ -37574,7 +37592,7 @@
       <c r="T250" s="168"/>
       <c r="U250" s="164"/>
     </row>
-    <row r="251" spans="1:21" ht="92.45">
+    <row r="251" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>1161</v>
       </c>
@@ -37619,7 +37637,7 @@
       <c r="T251" s="168"/>
       <c r="U251" s="164"/>
     </row>
-    <row r="252" spans="1:21" ht="66">
+    <row r="252" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>1165</v>
       </c>
@@ -37666,7 +37684,7 @@
       <c r="T252" s="168"/>
       <c r="U252" s="164"/>
     </row>
-    <row r="253" spans="1:21" ht="118.9">
+    <row r="253" spans="1:21" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>1169</v>
       </c>
@@ -37713,7 +37731,7 @@
       <c r="T253" s="168"/>
       <c r="U253" s="164"/>
     </row>
-    <row r="254" spans="1:21" ht="224.45">
+    <row r="254" spans="1:21" ht="216.75" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>1173</v>
       </c>
@@ -37760,7 +37778,7 @@
       <c r="T254" s="168"/>
       <c r="U254" s="164"/>
     </row>
-    <row r="255" spans="1:21" ht="145.15">
+    <row r="255" spans="1:21" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>1178</v>
       </c>
@@ -37807,7 +37825,7 @@
       <c r="T255" s="168"/>
       <c r="U255" s="164"/>
     </row>
-    <row r="256" spans="1:21" ht="145.15">
+    <row r="256" spans="1:21" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>1183</v>
       </c>
@@ -37854,7 +37872,7 @@
       <c r="T256" s="168"/>
       <c r="U256" s="164"/>
     </row>
-    <row r="257" spans="1:21" ht="184.9">
+    <row r="257" spans="1:21" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>1188</v>
       </c>
@@ -37901,7 +37919,7 @@
       <c r="T257" s="168"/>
       <c r="U257" s="164"/>
     </row>
-    <row r="258" spans="1:21" ht="92.45">
+    <row r="258" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>1192</v>
       </c>
@@ -37948,7 +37966,7 @@
       <c r="T258" s="168"/>
       <c r="U258" s="164"/>
     </row>
-    <row r="259" spans="1:21" ht="132">
+    <row r="259" spans="1:21" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>1196</v>
       </c>
@@ -37995,7 +38013,7 @@
       <c r="T259" s="168"/>
       <c r="U259" s="164"/>
     </row>
-    <row r="260" spans="1:21" ht="132">
+    <row r="260" spans="1:21" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>1201</v>
       </c>
@@ -38042,7 +38060,7 @@
       <c r="T260" s="168"/>
       <c r="U260" s="164"/>
     </row>
-    <row r="261" spans="1:21" ht="198">
+    <row r="261" spans="1:21" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>1205</v>
       </c>
@@ -38089,7 +38107,7 @@
       <c r="T261" s="168"/>
       <c r="U261" s="164"/>
     </row>
-    <row r="262" spans="1:21" ht="290.45">
+    <row r="262" spans="1:21" ht="293.25" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>1210</v>
       </c>
@@ -38134,7 +38152,7 @@
       <c r="T262" s="164"/>
       <c r="U262" s="167"/>
     </row>
-    <row r="263" spans="1:21" ht="52.9">
+    <row r="263" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>1214</v>
       </c>
@@ -38179,7 +38197,7 @@
       <c r="T263" s="168"/>
       <c r="U263" s="164"/>
     </row>
-    <row r="264" spans="1:21" ht="92.45">
+    <row r="264" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>1218</v>
       </c>
@@ -38224,7 +38242,7 @@
       <c r="T264" s="168"/>
       <c r="U264" s="164"/>
     </row>
-    <row r="265" spans="1:21" ht="52.9">
+    <row r="265" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>1222</v>
       </c>
@@ -38267,7 +38285,7 @@
       <c r="T265" s="168"/>
       <c r="U265" s="164"/>
     </row>
-    <row r="266" spans="1:21" ht="52.9">
+    <row r="266" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>1225</v>
       </c>
@@ -38312,7 +38330,7 @@
       <c r="T266" s="168"/>
       <c r="U266" s="164"/>
     </row>
-    <row r="267" spans="1:21" ht="52.9">
+    <row r="267" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>1229</v>
       </c>
@@ -38357,7 +38375,7 @@
       <c r="T267" s="168"/>
       <c r="U267" s="164"/>
     </row>
-    <row r="268" spans="1:21" ht="52.9">
+    <row r="268" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>1233</v>
       </c>
@@ -38402,7 +38420,7 @@
       <c r="T268" s="168"/>
       <c r="U268" s="164"/>
     </row>
-    <row r="269" spans="1:21" ht="145.15">
+    <row r="269" spans="1:21" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>1237</v>
       </c>
@@ -38449,7 +38467,7 @@
       <c r="T269" s="95"/>
       <c r="U269" s="164"/>
     </row>
-    <row r="270" spans="1:21" ht="118.9">
+    <row r="270" spans="1:21" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>1242</v>
       </c>
@@ -38496,7 +38514,7 @@
       <c r="T270" s="95"/>
       <c r="U270" s="164"/>
     </row>
-    <row r="271" spans="1:21" ht="250.9">
+    <row r="271" spans="1:21" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>1247</v>
       </c>
@@ -38541,7 +38559,7 @@
       <c r="T271" s="95"/>
       <c r="U271" s="164"/>
     </row>
-    <row r="272" spans="1:21" ht="290.45">
+    <row r="272" spans="1:21" ht="293.25" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>1251</v>
       </c>
@@ -38586,7 +38604,7 @@
       <c r="T272" s="95"/>
       <c r="U272" s="164"/>
     </row>
-    <row r="273" spans="1:21" ht="79.150000000000006">
+    <row r="273" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>1255</v>
       </c>
@@ -38631,7 +38649,7 @@
       <c r="T273" s="95"/>
       <c r="U273" s="164"/>
     </row>
-    <row r="274" spans="1:21" ht="132">
+    <row r="274" spans="1:21" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>1259</v>
       </c>
@@ -38676,7 +38694,7 @@
       <c r="T274" s="95"/>
       <c r="U274" s="164"/>
     </row>
-    <row r="275" spans="1:21" ht="66">
+    <row r="275" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>1263</v>
       </c>
@@ -38721,7 +38739,7 @@
       <c r="T275" s="95"/>
       <c r="U275" s="164"/>
     </row>
-    <row r="276" spans="1:21" ht="132">
+    <row r="276" spans="1:21" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>1267</v>
       </c>
@@ -38766,7 +38784,7 @@
       <c r="T276" s="95"/>
       <c r="U276" s="164"/>
     </row>
-    <row r="277" spans="1:21" ht="343.15">
+    <row r="277" spans="1:21" ht="331.5" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>1271</v>
       </c>
@@ -38811,7 +38829,7 @@
       <c r="T277" s="95"/>
       <c r="U277" s="164"/>
     </row>
-    <row r="278" spans="1:21" ht="145.15">
+    <row r="278" spans="1:21" ht="153" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>1275</v>
       </c>
@@ -38856,7 +38874,7 @@
       <c r="T278" s="95"/>
       <c r="U278" s="164"/>
     </row>
-    <row r="279" spans="1:21" ht="198">
+    <row r="279" spans="1:21" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>1279</v>
       </c>
@@ -38901,7 +38919,7 @@
       <c r="T279" s="95"/>
       <c r="U279" s="164"/>
     </row>
-    <row r="280" spans="1:21" ht="105.6">
+    <row r="280" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>1283</v>
       </c>
@@ -38948,7 +38966,7 @@
       <c r="T280" s="95"/>
       <c r="U280" s="164"/>
     </row>
-    <row r="281" spans="1:21" ht="118.9">
+    <row r="281" spans="1:21" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>1287</v>
       </c>
@@ -38995,7 +39013,7 @@
       <c r="T281" s="95"/>
       <c r="U281" s="164"/>
     </row>
-    <row r="282" spans="1:21" ht="105.6">
+    <row r="282" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>1291</v>
       </c>
@@ -39042,7 +39060,7 @@
       <c r="T282" s="95"/>
       <c r="U282" s="164"/>
     </row>
-    <row r="283" spans="1:21" ht="118.9">
+    <row r="283" spans="1:21" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>1295</v>
       </c>
@@ -39089,7 +39107,7 @@
       <c r="T283" s="95"/>
       <c r="U283" s="164"/>
     </row>
-    <row r="284" spans="1:21" ht="250.9">
+    <row r="284" spans="1:21" ht="255" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>1299</v>
       </c>
@@ -39134,7 +39152,7 @@
       <c r="T284" s="95"/>
       <c r="U284" s="164"/>
     </row>
-    <row r="285" spans="1:21" ht="92.45">
+    <row r="285" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>1304</v>
       </c>
@@ -39179,7 +39197,7 @@
       <c r="T285" s="95"/>
       <c r="U285" s="164"/>
     </row>
-    <row r="286" spans="1:21" ht="277.14999999999998">
+    <row r="286" spans="1:21" ht="267.75" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>1308</v>
       </c>
@@ -39224,7 +39242,7 @@
       <c r="T286" s="95"/>
       <c r="U286" s="164"/>
     </row>
-    <row r="287" spans="1:21" ht="118.9">
+    <row r="287" spans="1:21" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>1313</v>
       </c>
@@ -39269,7 +39287,7 @@
       <c r="T287" s="95"/>
       <c r="U287" s="164"/>
     </row>
-    <row r="288" spans="1:21" ht="92.45">
+    <row r="288" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>1317</v>
       </c>
@@ -39314,7 +39332,7 @@
       <c r="T288" s="95"/>
       <c r="U288" s="164"/>
     </row>
-    <row r="289" spans="1:21" ht="132">
+    <row r="289" spans="1:21" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>1321</v>
       </c>
@@ -39359,7 +39377,7 @@
       <c r="T289" s="95"/>
       <c r="U289" s="164"/>
     </row>
-    <row r="290" spans="1:21" ht="171.6">
+    <row r="290" spans="1:21" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A290" s="31" t="s">
         <v>1325</v>
       </c>
@@ -39404,7 +39422,7 @@
       <c r="T290" s="95"/>
       <c r="U290" s="164"/>
     </row>
-    <row r="291" spans="1:21" ht="184.9">
+    <row r="291" spans="1:21" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>1330</v>
       </c>
@@ -39451,7 +39469,7 @@
       <c r="T291" s="172"/>
       <c r="U291" s="164"/>
     </row>
-    <row r="292" spans="1:21" ht="145.15">
+    <row r="292" spans="1:21" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>1334</v>
       </c>
@@ -39498,7 +39516,7 @@
       <c r="T292" s="172"/>
       <c r="U292" s="164"/>
     </row>
-    <row r="293" spans="1:21" ht="118.9">
+    <row r="293" spans="1:21" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>1339</v>
       </c>
@@ -39543,7 +39561,7 @@
       <c r="T293" s="172"/>
       <c r="U293" s="164"/>
     </row>
-    <row r="294" spans="1:21" ht="66">
+    <row r="294" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>1344</v>
       </c>
@@ -39588,7 +39606,7 @@
       <c r="T294" s="172"/>
       <c r="U294" s="164"/>
     </row>
-    <row r="295" spans="1:21" ht="52.9">
+    <row r="295" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>1349</v>
       </c>
@@ -39633,7 +39651,7 @@
       <c r="T295" s="172"/>
       <c r="U295" s="164"/>
     </row>
-    <row r="296" spans="1:21" ht="171.6">
+    <row r="296" spans="1:21" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>1354</v>
       </c>
@@ -39678,7 +39696,7 @@
       <c r="T296" s="172"/>
       <c r="U296" s="164"/>
     </row>
-    <row r="297" spans="1:21" ht="39.6">
+    <row r="297" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>1359</v>
       </c>
@@ -39725,7 +39743,7 @@
       <c r="T297" s="172"/>
       <c r="U297" s="164"/>
     </row>
-    <row r="298" spans="1:21" ht="184.9">
+    <row r="298" spans="1:21" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>1363</v>
       </c>
@@ -39772,7 +39790,7 @@
       <c r="T298" s="172"/>
       <c r="U298" s="164"/>
     </row>
-    <row r="299" spans="1:21" ht="66">
+    <row r="299" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>1367</v>
       </c>
@@ -39817,7 +39835,7 @@
       <c r="T299" s="172"/>
       <c r="U299" s="164"/>
     </row>
-    <row r="300" spans="1:21" ht="171.6">
+    <row r="300" spans="1:21" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>1371</v>
       </c>
@@ -39862,7 +39880,7 @@
       <c r="T300" s="172"/>
       <c r="U300" s="164"/>
     </row>
-    <row r="301" spans="1:21" ht="118.9">
+    <row r="301" spans="1:21" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>1375</v>
       </c>
@@ -39907,7 +39925,7 @@
       <c r="T301" s="172"/>
       <c r="U301" s="164"/>
     </row>
-    <row r="302" spans="1:21" ht="52.9">
+    <row r="302" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>1379</v>
       </c>
@@ -39954,7 +39972,7 @@
       <c r="T302" s="172"/>
       <c r="U302" s="164"/>
     </row>
-    <row r="303" spans="1:21" ht="92.45">
+    <row r="303" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>1383</v>
       </c>
@@ -40001,7 +40019,7 @@
       <c r="T303" s="172"/>
       <c r="U303" s="164"/>
     </row>
-    <row r="304" spans="1:21" ht="79.150000000000006">
+    <row r="304" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>1387</v>
       </c>
@@ -40046,7 +40064,7 @@
       <c r="T304" s="172"/>
       <c r="U304" s="164"/>
     </row>
-    <row r="305" spans="1:21" ht="184.9">
+    <row r="305" spans="1:21" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>1391</v>
       </c>
@@ -40091,7 +40109,7 @@
       <c r="T305" s="172"/>
       <c r="U305" s="164"/>
     </row>
-    <row r="306" spans="1:21" ht="132">
+    <row r="306" spans="1:21" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>1395</v>
       </c>
@@ -40136,7 +40154,7 @@
       <c r="T306" s="172"/>
       <c r="U306" s="164"/>
     </row>
-    <row r="307" spans="1:21" ht="79.150000000000006">
+    <row r="307" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>1399</v>
       </c>
@@ -40181,7 +40199,7 @@
       <c r="T307" s="172"/>
       <c r="U307" s="164"/>
     </row>
-    <row r="308" spans="1:21" ht="92.45">
+    <row r="308" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>1404</v>
       </c>
@@ -40228,7 +40246,7 @@
       <c r="T308" s="172"/>
       <c r="U308" s="164"/>
     </row>
-    <row r="309" spans="1:21" ht="79.150000000000006">
+    <row r="309" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>1408</v>
       </c>
@@ -40267,7 +40285,7 @@
       <c r="T309" s="172"/>
       <c r="U309" s="164"/>
     </row>
-    <row r="310" spans="1:21" ht="92.45">
+    <row r="310" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>1411</v>
       </c>
@@ -40312,7 +40330,7 @@
       <c r="T310" s="172"/>
       <c r="U310" s="164"/>
     </row>
-    <row r="311" spans="1:21" ht="105.6">
+    <row r="311" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>1414</v>
       </c>
@@ -40357,7 +40375,7 @@
       <c r="T311" s="172"/>
       <c r="U311" s="164"/>
     </row>
-    <row r="312" spans="1:21" ht="132">
+    <row r="312" spans="1:21" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>1417</v>
       </c>
@@ -40402,7 +40420,7 @@
       <c r="T312" s="172"/>
       <c r="U312" s="164"/>
     </row>
-    <row r="313" spans="1:21" ht="52.9">
+    <row r="313" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>1421</v>
       </c>
@@ -40447,7 +40465,7 @@
       <c r="T313" s="172"/>
       <c r="U313" s="164"/>
     </row>
-    <row r="314" spans="1:21" ht="52.9">
+    <row r="314" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>1426</v>
       </c>
@@ -40494,7 +40512,7 @@
       <c r="T314" s="172"/>
       <c r="U314" s="164"/>
     </row>
-    <row r="315" spans="1:21" ht="105.6">
+    <row r="315" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>1431</v>
       </c>
@@ -40541,7 +40559,7 @@
       <c r="T315" s="172"/>
       <c r="U315" s="164"/>
     </row>
-    <row r="316" spans="1:21" ht="52.9">
+    <row r="316" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>1436</v>
       </c>
@@ -40584,7 +40602,7 @@
       <c r="T316" s="172"/>
       <c r="U316" s="164"/>
     </row>
-    <row r="317" spans="1:21" ht="92.45">
+    <row r="317" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>1439</v>
       </c>
@@ -40629,7 +40647,7 @@
       <c r="T317" s="172"/>
       <c r="U317" s="164"/>
     </row>
-    <row r="318" spans="1:21" ht="79.150000000000006">
+    <row r="318" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>1443</v>
       </c>
@@ -40674,7 +40692,7 @@
       <c r="T318" s="172"/>
       <c r="U318" s="164"/>
     </row>
-    <row r="319" spans="1:21" ht="118.9">
+    <row r="319" spans="1:21" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>1448</v>
       </c>
@@ -40719,7 +40737,7 @@
       <c r="T319" s="172"/>
       <c r="U319" s="164"/>
     </row>
-    <row r="320" spans="1:21" ht="92.45">
+    <row r="320" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>1453</v>
       </c>
@@ -40764,7 +40782,7 @@
       <c r="T320" s="172"/>
       <c r="U320" s="164"/>
     </row>
-    <row r="321" spans="1:21" ht="132">
+    <row r="321" spans="1:21" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>1458</v>
       </c>
@@ -40809,7 +40827,7 @@
       <c r="T321" s="172"/>
       <c r="U321" s="164"/>
     </row>
-    <row r="322" spans="1:21" ht="66">
+    <row r="322" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>1463</v>
       </c>
@@ -40854,7 +40872,7 @@
       <c r="T322" s="172"/>
       <c r="U322" s="164"/>
     </row>
-    <row r="323" spans="1:21" ht="79.150000000000006">
+    <row r="323" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>1468</v>
       </c>
@@ -40899,7 +40917,7 @@
       <c r="T323" s="172"/>
       <c r="U323" s="164"/>
     </row>
-    <row r="324" spans="1:21" ht="145.15">
+    <row r="324" spans="1:21" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>1472</v>
       </c>
@@ -40944,7 +40962,7 @@
       <c r="T324" s="172"/>
       <c r="U324" s="164"/>
     </row>
-    <row r="325" spans="1:21" ht="118.9">
+    <row r="325" spans="1:21" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>1477</v>
       </c>
@@ -40989,7 +41007,7 @@
       <c r="T325" s="172"/>
       <c r="U325" s="164"/>
     </row>
-    <row r="326" spans="1:21" ht="92.45">
+    <row r="326" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>1481</v>
       </c>
@@ -41034,7 +41052,7 @@
       <c r="T326" s="172"/>
       <c r="U326" s="164"/>
     </row>
-    <row r="327" spans="1:21" ht="145.15">
+    <row r="327" spans="1:21" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>1486</v>
       </c>
@@ -41081,7 +41099,7 @@
       <c r="T327" s="95"/>
       <c r="U327" s="164"/>
     </row>
-    <row r="328" spans="1:21" ht="264">
+    <row r="328" spans="1:21" ht="267.75" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>1490</v>
       </c>
@@ -41126,7 +41144,7 @@
       <c r="T328" s="95"/>
       <c r="U328" s="164"/>
     </row>
-    <row r="329" spans="1:21" ht="66">
+    <row r="329" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>1495</v>
       </c>
@@ -41171,7 +41189,7 @@
       <c r="T329" s="95"/>
       <c r="U329" s="164"/>
     </row>
-    <row r="330" spans="1:21" ht="105.6">
+    <row r="330" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>1499</v>
       </c>
@@ -41216,7 +41234,7 @@
       <c r="T330" s="95"/>
       <c r="U330" s="164"/>
     </row>
-    <row r="331" spans="1:21" ht="277.14999999999998">
+    <row r="331" spans="1:21" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>1503</v>
       </c>
@@ -41261,7 +41279,7 @@
       <c r="T331" s="95"/>
       <c r="U331" s="164"/>
     </row>
-    <row r="332" spans="1:21" ht="52.9">
+    <row r="332" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>1508</v>
       </c>
@@ -41306,7 +41324,7 @@
       <c r="T332" s="95"/>
       <c r="U332" s="164"/>
     </row>
-    <row r="333" spans="1:21" ht="52.9">
+    <row r="333" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>1512</v>
       </c>
@@ -41351,7 +41369,7 @@
       <c r="T333" s="95"/>
       <c r="U333" s="164"/>
     </row>
-    <row r="334" spans="1:21" ht="66">
+    <row r="334" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>1516</v>
       </c>
@@ -41396,7 +41414,7 @@
       <c r="T334" s="95"/>
       <c r="U334" s="164"/>
     </row>
-    <row r="335" spans="1:21" ht="303.60000000000002">
+    <row r="335" spans="1:21" ht="306" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>1520</v>
       </c>
@@ -41441,7 +41459,7 @@
       <c r="T335" s="95"/>
       <c r="U335" s="164"/>
     </row>
-    <row r="336" spans="1:21" ht="92.45">
+    <row r="336" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>1525</v>
       </c>
@@ -41484,7 +41502,7 @@
       <c r="T336" s="95"/>
       <c r="U336" s="164"/>
     </row>
-    <row r="337" spans="1:21" ht="79.150000000000006">
+    <row r="337" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>1528</v>
       </c>
@@ -41529,7 +41547,7 @@
       <c r="T337" s="95"/>
       <c r="U337" s="164"/>
     </row>
-    <row r="338" spans="1:21" ht="92.45">
+    <row r="338" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>1532</v>
       </c>
@@ -41574,7 +41592,7 @@
       <c r="T338" s="95"/>
       <c r="U338" s="164"/>
     </row>
-    <row r="339" spans="1:21" ht="79.150000000000006">
+    <row r="339" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>1536</v>
       </c>
@@ -41619,7 +41637,7 @@
       <c r="T339" s="95"/>
       <c r="U339" s="164"/>
     </row>
-    <row r="340" spans="1:21" ht="92.45">
+    <row r="340" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>1540</v>
       </c>
@@ -41664,7 +41682,7 @@
       <c r="T340" s="95"/>
       <c r="U340" s="164"/>
     </row>
-    <row r="341" spans="1:21" ht="92.45">
+    <row r="341" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>1544</v>
       </c>
@@ -41709,7 +41727,7 @@
       <c r="T341" s="95"/>
       <c r="U341" s="164"/>
     </row>
-    <row r="342" spans="1:21" ht="79.150000000000006">
+    <row r="342" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>1548</v>
       </c>
@@ -41754,7 +41772,7 @@
       <c r="T342" s="95"/>
       <c r="U342" s="164"/>
     </row>
-    <row r="343" spans="1:21" ht="79.150000000000006">
+    <row r="343" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>1552</v>
       </c>
@@ -41799,7 +41817,7 @@
       <c r="T343" s="95"/>
       <c r="U343" s="164"/>
     </row>
-    <row r="344" spans="1:21" ht="52.9">
+    <row r="344" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>1556</v>
       </c>
@@ -41844,7 +41862,7 @@
       <c r="T344" s="95"/>
       <c r="U344" s="164"/>
     </row>
-    <row r="345" spans="1:21" ht="66">
+    <row r="345" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>1559</v>
       </c>
@@ -41889,7 +41907,7 @@
       <c r="T345" s="95"/>
       <c r="U345" s="164"/>
     </row>
-    <row r="346" spans="1:21" ht="145.15">
+    <row r="346" spans="1:21" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>1563</v>
       </c>
@@ -41936,7 +41954,7 @@
       <c r="T346" s="95"/>
       <c r="U346" s="164"/>
     </row>
-    <row r="347" spans="1:21" ht="145.15">
+    <row r="347" spans="1:21" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>1568</v>
       </c>
@@ -41981,7 +41999,7 @@
       <c r="T347" s="95"/>
       <c r="U347" s="164"/>
     </row>
-    <row r="348" spans="1:21" ht="92.45">
+    <row r="348" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>1573</v>
       </c>
@@ -42026,7 +42044,7 @@
       <c r="T348" s="95"/>
       <c r="U348" s="164"/>
     </row>
-    <row r="349" spans="1:21" ht="79.150000000000006">
+    <row r="349" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>1577</v>
       </c>
@@ -42071,7 +42089,7 @@
       <c r="T349" s="95"/>
       <c r="U349" s="164"/>
     </row>
-    <row r="350" spans="1:21" ht="92.45">
+    <row r="350" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>1581</v>
       </c>
@@ -42116,7 +42134,7 @@
       <c r="T350" s="95"/>
       <c r="U350" s="164"/>
     </row>
-    <row r="351" spans="1:21" ht="79.150000000000006">
+    <row r="351" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>1585</v>
       </c>
@@ -42161,7 +42179,7 @@
       <c r="T351" s="95"/>
       <c r="U351" s="164"/>
     </row>
-    <row r="352" spans="1:21" ht="79.150000000000006">
+    <row r="352" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>1590</v>
       </c>
@@ -42206,7 +42224,7 @@
       <c r="T352" s="95"/>
       <c r="U352" s="164"/>
     </row>
-    <row r="353" spans="1:21" ht="52.9">
+    <row r="353" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>1594</v>
       </c>
@@ -42249,7 +42267,7 @@
       <c r="T353" s="95"/>
       <c r="U353" s="164"/>
     </row>
-    <row r="354" spans="1:21" ht="158.44999999999999">
+    <row r="354" spans="1:21" ht="153" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>1597</v>
       </c>
@@ -42294,7 +42312,7 @@
       <c r="T354" s="95"/>
       <c r="U354" s="164"/>
     </row>
-    <row r="355" spans="1:21" ht="92.45">
+    <row r="355" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>1602</v>
       </c>
@@ -42339,7 +42357,7 @@
       <c r="T355" s="95"/>
       <c r="U355" s="164"/>
     </row>
-    <row r="356" spans="1:21" ht="52.9">
+    <row r="356" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>1607</v>
       </c>
@@ -42386,7 +42404,7 @@
       <c r="T356" s="95"/>
       <c r="U356" s="164"/>
     </row>
-    <row r="357" spans="1:21" ht="66">
+    <row r="357" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>1612</v>
       </c>
@@ -42443,16 +42461,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D8ABEB-CCA9-4D93-B648-FA30B0E61FC2}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="P6" sqref="M6:P6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="70" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="8" customWidth="1"/>
@@ -42474,7 +42493,7 @@
     <col min="21" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="32" customFormat="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:20" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="230" t="s">
         <v>1616</v>
       </c>
@@ -42500,7 +42519,7 @@
       <c r="S1" s="235"/>
       <c r="T1" s="235"/>
     </row>
-    <row r="2" spans="1:20" ht="15.6">
+    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="75"/>
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
@@ -42532,7 +42551,7 @@
       <c r="S2" s="229"/>
       <c r="T2" s="229"/>
     </row>
-    <row r="3" spans="1:20" s="29" customFormat="1" ht="40.9">
+    <row r="3" spans="1:20" s="29" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>113</v>
       </c>
@@ -42594,7 +42613,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="11" customFormat="1">
+    <row r="4" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="64"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -42634,7 +42653,7 @@
       <c r="S4" s="47"/>
       <c r="T4" s="48"/>
     </row>
-    <row r="5" spans="1:20" s="11" customFormat="1">
+    <row r="5" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="64"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -42656,7 +42675,7 @@
       <c r="S5" s="47"/>
       <c r="T5" s="48"/>
     </row>
-    <row r="6" spans="1:20" ht="157.69999999999999" customHeight="1">
+    <row r="6" spans="1:20" ht="157.69999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="76" t="s">
         <v>132</v>
       </c>
@@ -42702,7 +42721,7 @@
       <c r="S6" s="57"/>
       <c r="T6" s="59"/>
     </row>
-    <row r="7" spans="1:20" ht="409.6">
+    <row r="7" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
         <v>138</v>
       </c>
@@ -42748,7 +42767,7 @@
       <c r="S7" s="57"/>
       <c r="T7" s="59"/>
     </row>
-    <row r="8" spans="1:20" ht="90" customHeight="1">
+    <row r="8" spans="1:20" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="76" t="s">
         <v>143</v>
       </c>
@@ -42794,7 +42813,7 @@
       <c r="S8" s="57"/>
       <c r="T8" s="59"/>
     </row>
-    <row r="9" spans="1:20" ht="61.15">
+    <row r="9" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A9" s="76" t="s">
         <v>147</v>
       </c>
@@ -42837,7 +42856,7 @@
       <c r="S9" s="57"/>
       <c r="T9" s="59"/>
     </row>
-    <row r="10" spans="1:20" ht="112.15">
+    <row r="10" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="76" t="s">
         <v>151</v>
       </c>
@@ -42878,7 +42897,7 @@
       <c r="S10" s="59"/>
       <c r="T10" s="59"/>
     </row>
-    <row r="11" spans="1:20" ht="102">
+    <row r="11" spans="1:20" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A11" s="76" t="s">
         <v>154</v>
       </c>
@@ -42920,7 +42939,7 @@
       <c r="S11" s="57"/>
       <c r="T11" s="59"/>
     </row>
-    <row r="12" spans="1:20" ht="50.85" customHeight="1">
+    <row r="12" spans="1:20" ht="50.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
         <v>157</v>
       </c>
@@ -42964,7 +42983,7 @@
       <c r="S12" s="57"/>
       <c r="T12" s="59"/>
     </row>
-    <row r="13" spans="1:20" ht="122.45" customHeight="1">
+    <row r="13" spans="1:20" ht="122.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="76" t="s">
         <v>160</v>
       </c>
@@ -43008,7 +43027,7 @@
       <c r="S13" s="55"/>
       <c r="T13" s="59"/>
     </row>
-    <row r="14" spans="1:20" ht="61.15">
+    <row r="14" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A14" s="76" t="s">
         <v>164</v>
       </c>
@@ -43052,7 +43071,7 @@
       <c r="S14" s="57"/>
       <c r="T14" s="59"/>
     </row>
-    <row r="15" spans="1:20" ht="61.15">
+    <row r="15" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A15" s="76" t="s">
         <v>1651</v>
       </c>
@@ -43094,7 +43113,7 @@
       <c r="S15" s="57"/>
       <c r="T15" s="59"/>
     </row>
-    <row r="16" spans="1:20" ht="186" customHeight="1">
+    <row r="16" spans="1:20" ht="186" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="76" t="s">
         <v>170</v>
       </c>
@@ -43138,7 +43157,7 @@
       <c r="S16" s="57"/>
       <c r="T16" s="59"/>
     </row>
-    <row r="17" spans="1:20" ht="408.6" customHeight="1">
+    <row r="17" spans="1:20" ht="408.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="76" t="s">
         <v>175</v>
       </c>
@@ -43180,7 +43199,7 @@
       <c r="S17" s="57"/>
       <c r="T17" s="59"/>
     </row>
-    <row r="18" spans="1:20" ht="81.599999999999994">
+    <row r="18" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="76" t="s">
         <v>180</v>
       </c>
@@ -43222,7 +43241,7 @@
       <c r="S18" s="57"/>
       <c r="T18" s="59"/>
     </row>
-    <row r="19" spans="1:20" ht="122.45">
+    <row r="19" spans="1:20" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A19" s="76" t="s">
         <v>184</v>
       </c>
@@ -43268,7 +43287,7 @@
       <c r="S19" s="57"/>
       <c r="T19" s="59"/>
     </row>
-    <row r="20" spans="1:20" ht="122.45">
+    <row r="20" spans="1:20" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A20" s="76" t="s">
         <v>189</v>
       </c>
@@ -43312,7 +43331,7 @@
       <c r="S20" s="57"/>
       <c r="T20" s="59"/>
     </row>
-    <row r="21" spans="1:20" ht="122.45">
+    <row r="21" spans="1:20" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A21" s="76" t="s">
         <v>194</v>
       </c>
@@ -43356,7 +43375,7 @@
       <c r="S21" s="57"/>
       <c r="T21" s="59"/>
     </row>
-    <row r="22" spans="1:20" ht="102">
+    <row r="22" spans="1:20" ht="123.75" x14ac:dyDescent="0.25">
       <c r="A22" s="76" t="s">
         <v>198</v>
       </c>
@@ -43400,7 +43419,7 @@
       <c r="S22" s="57"/>
       <c r="T22" s="59"/>
     </row>
-    <row r="23" spans="1:20" ht="122.45">
+    <row r="23" spans="1:20" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A23" s="76" t="s">
         <v>202</v>
       </c>
@@ -43443,7 +43462,7 @@
       <c r="S23" s="57"/>
       <c r="T23" s="59"/>
     </row>
-    <row r="24" spans="1:20" ht="102.2" customHeight="1">
+    <row r="24" spans="1:20" ht="102.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="76" t="s">
         <v>206</v>
       </c>
@@ -43485,7 +43504,7 @@
       <c r="S24" s="57"/>
       <c r="T24" s="59"/>
     </row>
-    <row r="25" spans="1:20" ht="98.85" customHeight="1">
+    <row r="25" spans="1:20" ht="98.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="76" t="s">
         <v>210</v>
       </c>
@@ -43527,7 +43546,7 @@
       <c r="S25" s="57"/>
       <c r="T25" s="59"/>
     </row>
-    <row r="26" spans="1:20" ht="204">
+    <row r="26" spans="1:20" ht="258.75" x14ac:dyDescent="0.25">
       <c r="A26" s="76" t="s">
         <v>214</v>
       </c>
@@ -43569,7 +43588,7 @@
       <c r="S26" s="59"/>
       <c r="T26" s="59"/>
     </row>
-    <row r="27" spans="1:20" ht="204">
+    <row r="27" spans="1:20" ht="225" x14ac:dyDescent="0.25">
       <c r="A27" s="76" t="s">
         <v>219</v>
       </c>
@@ -43613,7 +43632,7 @@
       <c r="S27" s="57"/>
       <c r="T27" s="59"/>
     </row>
-    <row r="28" spans="1:20" ht="112.15">
+    <row r="28" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A28" s="76" t="s">
         <v>224</v>
       </c>
@@ -43655,7 +43674,7 @@
       <c r="S28" s="57"/>
       <c r="T28" s="59"/>
     </row>
-    <row r="29" spans="1:20" ht="114.2" customHeight="1">
+    <row r="29" spans="1:20" ht="114.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="76" t="s">
         <v>229</v>
       </c>
@@ -43697,7 +43716,7 @@
       <c r="S29" s="57"/>
       <c r="T29" s="59"/>
     </row>
-    <row r="30" spans="1:20" ht="99.2" customHeight="1">
+    <row r="30" spans="1:20" ht="99.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="76" t="s">
         <v>234</v>
       </c>
@@ -43739,7 +43758,7 @@
       <c r="S30" s="57"/>
       <c r="T30" s="59"/>
     </row>
-    <row r="31" spans="1:20" ht="192.2" customHeight="1">
+    <row r="31" spans="1:20" ht="192.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="76" t="s">
         <v>238</v>
       </c>
@@ -43783,7 +43802,7 @@
       <c r="S31" s="57"/>
       <c r="T31" s="59"/>
     </row>
-    <row r="32" spans="1:20" ht="203.1" customHeight="1">
+    <row r="32" spans="1:20" ht="203.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="76" t="s">
         <v>242</v>
       </c>
@@ -43827,7 +43846,7 @@
       <c r="S32" s="57"/>
       <c r="T32" s="59"/>
     </row>
-    <row r="33" spans="1:20" ht="306">
+    <row r="33" spans="1:20" ht="371.25" x14ac:dyDescent="0.25">
       <c r="A33" s="76" t="s">
         <v>247</v>
       </c>
@@ -43873,7 +43892,7 @@
       <c r="S33" s="57"/>
       <c r="T33" s="59"/>
     </row>
-    <row r="34" spans="1:20" ht="100.35" customHeight="1">
+    <row r="34" spans="1:20" ht="100.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="76" t="s">
         <v>252</v>
       </c>
@@ -43917,7 +43936,7 @@
       <c r="S34" s="57"/>
       <c r="T34" s="59"/>
     </row>
-    <row r="35" spans="1:20" ht="123.2" customHeight="1">
+    <row r="35" spans="1:20" ht="123.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="76" t="s">
         <v>256</v>
       </c>
@@ -43959,7 +43978,7 @@
       <c r="S35" s="57"/>
       <c r="T35" s="59"/>
     </row>
-    <row r="36" spans="1:20" ht="52.35" customHeight="1">
+    <row r="36" spans="1:20" ht="52.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="76" t="s">
         <v>260</v>
       </c>
@@ -44001,7 +44020,7 @@
       <c r="S36" s="57"/>
       <c r="T36" s="59"/>
     </row>
-    <row r="37" spans="1:20" ht="128.25" customHeight="1">
+    <row r="37" spans="1:20" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="76" t="s">
         <v>264</v>
       </c>
@@ -44045,7 +44064,7 @@
       <c r="S37" s="57"/>
       <c r="T37" s="59"/>
     </row>
-    <row r="38" spans="1:20" ht="113.25" customHeight="1">
+    <row r="38" spans="1:20" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="76" t="s">
         <v>268</v>
       </c>
@@ -44088,7 +44107,7 @@
       <c r="S38" s="57"/>
       <c r="T38" s="59"/>
     </row>
-    <row r="39" spans="1:20" ht="71.45">
+    <row r="39" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="76" t="s">
         <v>272</v>
       </c>
@@ -44130,7 +44149,7 @@
       <c r="S39" s="57"/>
       <c r="T39" s="59"/>
     </row>
-    <row r="40" spans="1:20" ht="81.599999999999994">
+    <row r="40" spans="1:20" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A40" s="76" t="s">
         <v>275</v>
       </c>
@@ -44174,7 +44193,7 @@
       <c r="S40" s="57"/>
       <c r="T40" s="59"/>
     </row>
-    <row r="41" spans="1:20" ht="61.15">
+    <row r="41" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A41" s="76" t="s">
         <v>279</v>
       </c>
@@ -44216,7 +44235,7 @@
       <c r="S41" s="57"/>
       <c r="T41" s="59"/>
     </row>
-    <row r="42" spans="1:20" ht="71.45">
+    <row r="42" spans="1:20" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A42" s="76" t="s">
         <v>283</v>
       </c>
@@ -44256,7 +44275,7 @@
       <c r="S42" s="57"/>
       <c r="T42" s="59"/>
     </row>
-    <row r="43" spans="1:20" ht="409.6">
+    <row r="43" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A43" s="76" t="s">
         <v>287</v>
       </c>
@@ -44302,7 +44321,7 @@
       <c r="S43" s="57"/>
       <c r="T43" s="59"/>
     </row>
-    <row r="44" spans="1:20" ht="102.2" customHeight="1">
+    <row r="44" spans="1:20" ht="102.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="76" t="s">
         <v>291</v>
       </c>
@@ -44346,7 +44365,7 @@
       <c r="S44" s="57"/>
       <c r="T44" s="59"/>
     </row>
-    <row r="45" spans="1:20" ht="155.1" customHeight="1">
+    <row r="45" spans="1:20" ht="155.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="76" t="s">
         <v>295</v>
       </c>
@@ -44390,7 +44409,7 @@
       <c r="S45" s="57"/>
       <c r="T45" s="59"/>
     </row>
-    <row r="46" spans="1:20" ht="96" customHeight="1">
+    <row r="46" spans="1:20" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="76" t="s">
         <v>299</v>
       </c>
@@ -44434,7 +44453,7 @@
       <c r="S46" s="57"/>
       <c r="T46" s="59"/>
     </row>
-    <row r="47" spans="1:20" ht="201.2" customHeight="1">
+    <row r="47" spans="1:20" ht="201.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="76" t="s">
         <v>303</v>
       </c>
@@ -44477,7 +44496,7 @@
       <c r="S47" s="57"/>
       <c r="T47" s="59"/>
     </row>
-    <row r="48" spans="1:20" ht="142.69999999999999" customHeight="1">
+    <row r="48" spans="1:20" ht="142.69999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="76" t="s">
         <v>308</v>
       </c>
@@ -44539,16 +44558,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E5DAA9-4CB0-4978-8C49-AFA89D47188A}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
       <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
-      <selection pane="topRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
@@ -44570,7 +44590,7 @@
     <col min="21" max="16384" width="9.140625" style="91"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="32" customFormat="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:20" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="194" t="s">
         <v>1697</v>
       </c>
@@ -44596,7 +44616,7 @@
       <c r="S1" s="247"/>
       <c r="T1" s="247"/>
     </row>
-    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.6">
+    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="49"/>
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
@@ -44628,7 +44648,7 @@
       <c r="S2" s="244"/>
       <c r="T2" s="245"/>
     </row>
-    <row r="3" spans="1:20" s="29" customFormat="1" ht="40.9">
+    <row r="3" spans="1:20" s="29" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>113</v>
       </c>
@@ -44690,7 +44710,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="13.15">
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -44730,7 +44750,7 @@
       <c r="S4" s="48"/>
       <c r="T4" s="47"/>
     </row>
-    <row r="5" spans="1:20" s="11" customFormat="1" ht="13.15">
+    <row r="5" spans="1:20" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -44752,7 +44772,7 @@
       <c r="S5" s="48"/>
       <c r="T5" s="47"/>
     </row>
-    <row r="6" spans="1:20" s="10" customFormat="1" ht="102">
+    <row r="6" spans="1:20" s="10" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>338</v>
       </c>
@@ -44798,7 +44818,7 @@
       <c r="S6" s="19"/>
       <c r="T6" s="95"/>
     </row>
-    <row r="7" spans="1:20" s="10" customFormat="1" ht="275.45">
+    <row r="7" spans="1:20" s="10" customFormat="1" ht="315" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>343</v>
       </c>
@@ -44844,7 +44864,7 @@
       <c r="S7" s="19"/>
       <c r="T7" s="95"/>
     </row>
-    <row r="8" spans="1:20" s="10" customFormat="1" ht="30.6">
+    <row r="8" spans="1:20" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>348</v>
       </c>
@@ -44888,7 +44908,7 @@
       <c r="S8" s="19"/>
       <c r="T8" s="95"/>
     </row>
-    <row r="9" spans="1:20" s="10" customFormat="1" ht="71.45">
+    <row r="9" spans="1:20" s="10" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>352</v>
       </c>
@@ -44930,7 +44950,7 @@
       <c r="S9" s="19"/>
       <c r="T9" s="95"/>
     </row>
-    <row r="10" spans="1:20" s="10" customFormat="1" ht="61.15">
+    <row r="10" spans="1:20" s="10" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>356</v>
       </c>
@@ -44971,7 +44991,7 @@
       <c r="S10" s="19"/>
       <c r="T10" s="95"/>
     </row>
-    <row r="11" spans="1:20" s="10" customFormat="1" ht="40.9">
+    <row r="11" spans="1:20" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>360</v>
       </c>
@@ -45013,7 +45033,7 @@
       <c r="S11" s="19"/>
       <c r="T11" s="95"/>
     </row>
-    <row r="12" spans="1:20" s="10" customFormat="1" ht="81.599999999999994">
+    <row r="12" spans="1:20" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>365</v>
       </c>
@@ -45058,7 +45078,7 @@
       <c r="S12" s="19"/>
       <c r="T12" s="95"/>
     </row>
-    <row r="13" spans="1:20" s="10" customFormat="1" ht="40.9">
+    <row r="13" spans="1:20" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>370</v>
       </c>
@@ -45104,7 +45124,7 @@
       <c r="S13" s="19"/>
       <c r="T13" s="95"/>
     </row>
-    <row r="14" spans="1:20" s="10" customFormat="1" ht="40.9">
+    <row r="14" spans="1:20" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>374</v>
       </c>
@@ -45150,7 +45170,7 @@
       <c r="S14" s="19"/>
       <c r="T14" s="95"/>
     </row>
-    <row r="15" spans="1:20" s="10" customFormat="1" ht="51">
+    <row r="15" spans="1:20" s="10" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>378</v>
       </c>
@@ -45193,7 +45213,7 @@
       <c r="S15" s="19"/>
       <c r="T15" s="95"/>
     </row>
-    <row r="16" spans="1:20" s="10" customFormat="1" ht="244.9">
+    <row r="16" spans="1:20" s="10" customFormat="1" ht="270" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>383</v>
       </c>
@@ -45235,7 +45255,7 @@
       <c r="S16" s="19"/>
       <c r="T16" s="95"/>
     </row>
-    <row r="17" spans="1:20" s="10" customFormat="1" ht="51">
+    <row r="17" spans="1:20" s="10" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>387</v>
       </c>
@@ -45277,7 +45297,7 @@
       <c r="S17" s="19"/>
       <c r="T17" s="95"/>
     </row>
-    <row r="18" spans="1:20" s="10" customFormat="1" ht="51">
+    <row r="18" spans="1:20" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>392</v>
       </c>
@@ -45319,7 +45339,7 @@
       <c r="S18" s="19"/>
       <c r="T18" s="95"/>
     </row>
-    <row r="19" spans="1:20" s="10" customFormat="1" ht="30.6">
+    <row r="19" spans="1:20" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>396</v>
       </c>
@@ -45361,7 +45381,7 @@
       <c r="S19" s="19"/>
       <c r="T19" s="95"/>
     </row>
-    <row r="20" spans="1:20" s="10" customFormat="1" ht="51">
+    <row r="20" spans="1:20" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>401</v>
       </c>
@@ -45403,7 +45423,7 @@
       <c r="S20" s="19"/>
       <c r="T20" s="95"/>
     </row>
-    <row r="21" spans="1:20" s="10" customFormat="1" ht="40.9">
+    <row r="21" spans="1:20" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>405</v>
       </c>
@@ -45447,7 +45467,7 @@
       <c r="S21" s="19"/>
       <c r="T21" s="95"/>
     </row>
-    <row r="22" spans="1:20" s="10" customFormat="1" ht="81.599999999999994">
+    <row r="22" spans="1:20" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>409</v>
       </c>
@@ -45491,7 +45511,7 @@
       <c r="S22" s="19"/>
       <c r="T22" s="95"/>
     </row>
-    <row r="23" spans="1:20" s="10" customFormat="1" ht="91.9">
+    <row r="23" spans="1:20" s="10" customFormat="1" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>413</v>
       </c>
@@ -45535,77 +45555,77 @@
       <c r="S23" s="19"/>
       <c r="T23" s="95"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F24" s="92"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F25" s="92"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F26" s="92"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F27" s="92"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F28" s="92"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F29" s="92"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F30" s="92"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F31" s="92"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F32" s="92"/>
     </row>
-    <row r="33" spans="6:7">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F33" s="92"/>
     </row>
-    <row r="34" spans="6:7">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F34" s="92"/>
     </row>
-    <row r="35" spans="6:7">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F35" s="92"/>
     </row>
-    <row r="36" spans="6:7">
+    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F36" s="92"/>
     </row>
-    <row r="37" spans="6:7">
+    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F37" s="92"/>
     </row>
-    <row r="38" spans="6:7">
+    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F38" s="92"/>
     </row>
-    <row r="39" spans="6:7">
+    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F39" s="92"/>
     </row>
-    <row r="40" spans="6:7">
+    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F40" s="92"/>
     </row>
-    <row r="41" spans="6:7">
+    <row r="41" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F41" s="92"/>
     </row>
-    <row r="42" spans="6:7">
+    <row r="42" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F42" s="92"/>
     </row>
-    <row r="43" spans="6:7">
+    <row r="43" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F43" s="92"/>
     </row>
-    <row r="44" spans="6:7">
+    <row r="44" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F44" s="92"/>
     </row>
-    <row r="45" spans="6:7">
+    <row r="45" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F45" s="92"/>
     </row>
-    <row r="46" spans="6:7">
+    <row r="46" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F46" s="92"/>
       <c r="G46" s="93"/>
     </row>
-    <row r="47" spans="6:7">
+    <row r="47" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F47" s="92"/>
     </row>
   </sheetData>
@@ -45624,16 +45644,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF241E8A-C1A0-4C01-A13C-CC8FAAC3876D}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
       <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="85"/>
     <col min="2" max="2" width="18.140625" style="15" customWidth="1"/>
@@ -45656,7 +45677,7 @@
     <col min="21" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="32" customFormat="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:20" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="195" t="s">
         <v>1724</v>
       </c>
@@ -45682,7 +45703,7 @@
       <c r="S1" s="247"/>
       <c r="T1" s="247"/>
     </row>
-    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.6">
+    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="86"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -45714,7 +45735,7 @@
       <c r="S2" s="244"/>
       <c r="T2" s="245"/>
     </row>
-    <row r="3" spans="1:20" s="29" customFormat="1" ht="51">
+    <row r="3" spans="1:20" s="29" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>113</v>
       </c>
@@ -45776,7 +45797,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="13.15">
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A4" s="64"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -45816,7 +45837,7 @@
       <c r="S4" s="48"/>
       <c r="T4" s="47"/>
     </row>
-    <row r="5" spans="1:20" s="11" customFormat="1" ht="13.15">
+    <row r="5" spans="1:20" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A5" s="64"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -45838,7 +45859,7 @@
       <c r="S5" s="48"/>
       <c r="T5" s="47"/>
     </row>
-    <row r="6" spans="1:20" ht="255">
+    <row r="6" spans="1:20" ht="303.75" x14ac:dyDescent="0.25">
       <c r="A6" s="76" t="s">
         <v>313</v>
       </c>
@@ -45884,7 +45905,7 @@
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
     </row>
-    <row r="7" spans="1:20" ht="112.15">
+    <row r="7" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
         <v>319</v>
       </c>
@@ -45930,7 +45951,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:20" ht="102">
+    <row r="8" spans="1:20" ht="123.75" x14ac:dyDescent="0.25">
       <c r="A8" s="76" t="s">
         <v>324</v>
       </c>
@@ -45974,7 +45995,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:20" ht="183.6">
+    <row r="9" spans="1:20" ht="225" x14ac:dyDescent="0.25">
       <c r="A9" s="76" t="s">
         <v>328</v>
       </c>
@@ -46018,7 +46039,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="1:20" ht="102">
+    <row r="10" spans="1:20" ht="123.75" x14ac:dyDescent="0.25">
       <c r="A10" s="76" t="s">
         <v>333</v>
       </c>
@@ -46062,14 +46083,14 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F11" s="199"/>
     </row>
-    <row r="30" spans="6:7">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
     </row>
-    <row r="31" spans="6:7">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
     </row>
@@ -46089,16 +46110,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B29F990-A93C-424D-AF98-81C7BC6F85F5}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
       <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="11.85546875" style="15" customWidth="1"/>
@@ -46121,7 +46143,7 @@
     <col min="21" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="32" customFormat="1" ht="15.6">
+    <row r="1" spans="1:20" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="248" t="s">
         <v>1733</v>
       </c>
@@ -46147,7 +46169,7 @@
       <c r="S1" s="251"/>
       <c r="T1" s="252"/>
     </row>
-    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.6">
+    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="49"/>
       <c r="B2" s="13"/>
       <c r="C2" s="122"/>
@@ -46179,7 +46201,7 @@
       <c r="S2" s="244"/>
       <c r="T2" s="245"/>
     </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="79.150000000000006">
+    <row r="3" spans="1:20" s="11" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>113</v>
       </c>
@@ -46241,7 +46263,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="13.15">
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -46281,7 +46303,7 @@
       <c r="S4" s="48"/>
       <c r="T4" s="47"/>
     </row>
-    <row r="5" spans="1:20" s="11" customFormat="1" ht="13.15">
+    <row r="5" spans="1:20" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -46303,7 +46325,7 @@
       <c r="S5" s="48"/>
       <c r="T5" s="47"/>
     </row>
-    <row r="6" spans="1:20" ht="199.5" customHeight="1">
+    <row r="6" spans="1:20" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>417</v>
       </c>
@@ -46347,7 +46369,7 @@
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
     </row>
-    <row r="7" spans="1:20" ht="360" customHeight="1">
+    <row r="7" spans="1:20" ht="360" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>422</v>
       </c>
@@ -46393,7 +46415,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:20" ht="306">
+    <row r="8" spans="1:20" ht="371.25" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>427</v>
       </c>
@@ -46439,7 +46461,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:20" ht="91.9">
+    <row r="9" spans="1:20" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>431</v>
       </c>
@@ -46483,7 +46505,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="1:20" ht="122.45">
+    <row r="10" spans="1:20" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>435</v>
       </c>
@@ -46523,7 +46545,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:20" ht="224.45">
+    <row r="11" spans="1:20" ht="258.75" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>439</v>
       </c>
@@ -46567,7 +46589,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:20" ht="61.15">
+    <row r="12" spans="1:20" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>444</v>
       </c>
@@ -46609,7 +46631,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" spans="1:20" ht="61.15">
+    <row r="13" spans="1:20" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>448</v>
       </c>
@@ -46651,7 +46673,7 @@
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
     </row>
-    <row r="14" spans="1:20" ht="91.9">
+    <row r="14" spans="1:20" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>452</v>
       </c>
@@ -46695,7 +46717,7 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:20" ht="224.45">
+    <row r="15" spans="1:20" ht="270" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>456</v>
       </c>
@@ -46741,7 +46763,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="1:20" ht="275.45">
+    <row r="16" spans="1:20" ht="337.5" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>461</v>
       </c>
@@ -46785,7 +46807,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="1:20" ht="91.9">
+    <row r="17" spans="1:20" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>466</v>
       </c>
@@ -46829,7 +46851,7 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
-    <row r="18" spans="1:20" ht="204">
+    <row r="18" spans="1:20" ht="258.75" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>470</v>
       </c>
@@ -46869,7 +46891,7 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
     </row>
-    <row r="19" spans="1:20" ht="71.45">
+    <row r="19" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>475</v>
       </c>
@@ -46909,7 +46931,7 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
     </row>
-    <row r="20" spans="1:20" ht="102">
+    <row r="20" spans="1:20" ht="123.75" x14ac:dyDescent="0.25">
       <c r="A20" s="100" t="s">
         <v>479</v>
       </c>
@@ -46951,11 +46973,11 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
     </row>
@@ -46975,6 +46997,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005A59FC953F48AD4596DC3EC793F3A406" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6193b00f754f9a3f07ef9453455b438d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bcc98011-9c63-4007-bc99-3c1f2f4d170b" xmlns:ns3="e6ca9357-a751-4c7e-accd-4682b3d01803" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a50a05a1f36f5c4a08cdcf601740bc06" ns2:_="" ns3:_="">
     <xsd:import namespace="bcc98011-9c63-4007-bc99-3c1f2f4d170b"/>
@@ -47179,29 +47216,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B2F385C-FCF6-46C1-B52A-3653A73BC9BF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0321CE4F-346D-491E-934F-C5267A89BC09}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2AA52D42-6A1F-419E-A374-865146AE5BD4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2AA52D42-6A1F-419E-A374-865146AE5BD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0321CE4F-346D-491E-934F-C5267A89BC09}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B2F385C-FCF6-46C1-B52A-3653A73BC9BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bcc98011-9c63-4007-bc99-3c1f2f4d170b"/>
+    <ds:schemaRef ds:uri="e6ca9357-a751-4c7e-accd-4682b3d01803"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>